--- a/Overview/Overview.xlsx
+++ b/Overview/Overview.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
   <si>
     <t>No</t>
   </si>
@@ -579,6 +579,610 @@
 Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
 Menetapkan Terdakwa tetap dalam tahanan;
  Membebankan kepada Terdakwa untuk membayar biaya perkara sejumlah Rp. 5.000- ( lima ribu rupiah).</t>
+  </si>
+  <si>
+    <t>187/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 1 (satu) unit Handphone Nokia warna hitam;
+- Dirampas Untuk dimusnahkan ;
+- 1 (satu) paket sabu kemasan plastik klip dengan berat kotor 83,26 gram dimasukkan ke dalam plastik klip;
+- Dikembalikan kepada Penuntut Umum untuk dipergunakan dalam perkara atas nama Terdakwa Saiful Bahri bin Mat Naji ;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Abd Rosid bin Rusdi, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Dengan permufakatan jahat tanpa hak atau melawan hukum menjual narkotika golongan I bukan tanaman melebihi dari 5 (lima) gram?;
+Menjatuhkan pidana oleh karena itu kepada Terdakwa Abd Rosid bin Rusdi dengan pidana penjara selama 12 (dua belas) tahun dan Denda sebesar Rp.10.000.000.000,00 (sepuluh milyar rupiah), dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan agar Terdakwa tetap berada dalam tahanan;
+Menetapkan barang bukti berupa: - 1 (satu) unit Handphone Nokia warna hitam; - Dirampas Untuk dimusnahkan ; - 1 (satu) paket sabu kemasan plastik klip dengan berat kotor 83,26 gram dimasukkan ke dalam plastik klip; - Dikembalikan kepada Penuntut Umum untuk dipergunakan dalam perkara atas nama Terdakwa Saiful Bahri bin Mat Naji ;
+Membebankan biaya perkara kepada Terdakwa sejumlah Rp2.000,00 (dua ribu rupiah);</t>
+  </si>
+  <si>
+    <t>343/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>-1 (satu) paket narkotika jenis sabu dengan berat seluruhnya 0,8 (nol koma delapan) gram beserta bungkusnya, 1 (satu) buah bungkus rokok merk Esse Honey Pop warna putih, 1 (satu) buah HP merk Assus warna hitam beserta sim card Dirampas untuk dimusnahkan; -Uang tunai sebesar Rp50.000,00 (lima puluh ribu rupiah) Dirampas untuk Negara;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa BETHA DRYAN DEO KRISTANTO Alias DEO Bin SUMARNO, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana TANPA HAK ATAU MELAWAN HUKUM MENYEDIAKAN NARKOTIKA GOLONGAN I BUKAN TANAMAN;
+Menjatuhkan pidana kepada Terdakwa BETHA DRYAN DEO KRISTANTO Alias DEO Bin SUMARNO, dengan pidana penjara selama 5 (lima) tahun dan Denda sebesar Rp800.000.000,00 (delapan ratus juta rupiah), dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama3 (tiga) bulan;
+Menetapkan masa penangkapan dan penahanan yang dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan agar Terdakwa tetap berada dalam tahanan;
+Menetapkan barang bukti berupa: -1 (satu) paket narkotika jenis sabu dengan berat seluruhnya 0,8 (nol koma delapan) gram beserta bungkusnya, 1 (satu) buah bungkus rokok merk Esse Honey Pop warna putih, 1 (satu) buah HP merk Assus warna hitam beserta sim card Dirampas untuk dimusnahkan; -Uang tunai sebesar Rp50.000,00 (lima puluh ribu rupiah) Dirampas untuk Negara;
+Membebankan kepada Terdakwa untuk membayar biaya perkara sejumlah Rp5.000,00 (lima ribu rupiah);</t>
+  </si>
+  <si>
+    <t>319/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>2 (dua) bungkus plastik klip berisi norkotika jenis shabu dengan berat masing-masing bungkus 0,67 gram dan 6,17 gram ;
+1 (satu) buah pipet kaca;
+1 (satu) buah tas selempang warna hitam;
+1 (satu) buah dompet warna coklat;
+1 (satu) kantung kecil warna hitam;
+1 (satu) bungkus rokok bekas Gudang Garam Surya;
+Dirampas untuk dimusnahkan;
+1 (satu) unit Hp merk Oppo warna hitam;
+1 (satu) unit HP merk Nokia warna hitam;
+Uang tunai sejumlah Rp386.000,00 (tiga ratus enam puluh enam ribu rupiah);
+Dirampas untuk Negara;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa ARIF Alias BATAK Bin SUTOMO telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak memiliki dan menguasai Narkotika golongan I bukan tanaman beratnya melebihi 5 (lima) gram?;
+Menjatukan pidana terhadap Terdakwa dengan pidana penjara selama 8 (delapan) tahun dan pidana denda sebesar Rp800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan dengan pidana penjara selama 3 (tiga) bulan;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana penjara yang dijatuhkan;
+Menetapkan Terdakwa tetap berada dalam tahanan;
+Menetapkan barang bukti berupa :
+2 (dua) bungkus plastik klip berisi norkotika jenis shabu dengan berat masing-masing bungkus 0,67 gram dan 6,17 gram ;
+1 (satu) buah pipet kaca;
+1 (satu) buah tas selempang warna hitam;
+1 (satu) buah dompet warna coklat;
+1 (satu) kantung kecil warna hitam;
+1 (satu) bungkus rokok bekas Gudang Garam Surya;
+Dirampas untuk dimusnahkan;
+1 (satu) unit Hp merk Oppo warna hitam;
+1 (satu) unit HP merk Nokia warna hitam;
+Uang tunai sejumlah Rp386.000,00 (tiga ratus enam puluh enam ribu rupiah);
+Dirampas untuk Negara;
+Menetapkan supaya Terdakwa dibebani biaya perkara sebesar Rp5.000,00 (lima ribu rupiah).</t>
+  </si>
+  <si>
+    <t>326/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>- 1 (satu) paket shabu kemasan plastik klip besar dimasukan kedalam plastik klip besar dengan berat kotor 99.36 gram;
+- 1 (satu) paket shabu kemasan plastik klip besar dimasukan kedalam plastik klip besar dengan berat kotor 93.00 gram;
+- 1 (satu) paket shabu kemasan plastik klip sedang dimasukan kedalam plastik klip besar dengan berat kotor 52.04 gram;
+- 1 (satu) paket shabu kemasan plastik klip sedang dimasukan kedalam plastik klip sedang dengan berat kotor 50.87 gram;
+- 1 (satu) paket shabukemasan plastik klip kecil dengan berat kotor 1.19 gram;
+- 1 (satu) buah plastik berisi 519 (lima ratus sembilan belas) butir Pil warna ungu dengan bahan aktif (p-Fluorophenyl) piperazine tidak mengandung Narkotika, Psikotropika dan obat berbahaya;
+- 1 (satu) buah plastik berisi 274 (dua ratus tujuh puluh empat) butir Pil warna biru tablet dengan bahan aktif MDMA (3,4-Metilendioksimetamfetamina);
+- 1 (satu) buah plastik berisi 260 (dua ratus enam puluh) butir Pil warna merah muda/ pink dengan bahan aktif MDMA (3,4-Metilendioksimetamfetamina);
+- 1 (satu) bungkus bekas teh kotak berukuran 1 ltr;
+- 1 (satu) buah plastik warna putih bertulis ?Underwear?;
+- 1 (satu) buah kresek putih berlogo ?Alfamidi?;
+- 1 (satu) unit Timbangan Digital warna silver;
+- 1 (satu) unit Handphone merk Nokia warna oranye dengan CP 082230512225;
+Dirampas untuk Negara
+- 1 (satu) unit Kendaraan R4 Suzuki Ertiga warna silver Nopol: W 1334 YZ
+Dikembalikan kepada Saksi Ansori</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa AHMAD FAUZAN ALS LONDO BIN ACHMAL ABDUL WAHAB, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Tanpa Hak Menjadi Perantara Dalam Jual Beli Narkotika Golongan I Dalam Bentuk Bukan Tanaman Beratnya 5 (Lima) Gram;
+Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 15 (lima belas) Tahun dan denda sejumlah Rp.1.000.000.000,00 (satu miliyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan Terdakwa untuk tetap berada dalam Tahanan;
+Menetapkan barang bukti berupa:
+- 1 (satu) paket shabu kemasan plastik klip besar dimasukan kedalam plastik klip besar dengan berat kotor 99.36 gram;
+- 1 (satu) paket shabu kemasan plastik klip besar dimasukan kedalam plastik klip besar dengan berat kotor 93.00 gram;
+- 1 (satu) paket shabu kemasan plastik klip sedang dimasukan kedalam plastik klip besar dengan berat kotor 52.04 gram;
+- 1 (satu) paket shabu kemasan plastik klip sedang dimasukan kedalam plastik klip sedang dengan berat kotor 50.87 gram;
+- 1 (satu) paket shabukemasan plastik klip kecil dengan berat kotor 1.19 gram;
+- 1 (satu) buah plastik berisi 519 (lima ratus sembilan belas) butir Pil warna ungu dengan bahan aktif (p-Fluorophenyl) piperazine tidak mengandung Narkotika, Psikotropika dan obat berbahaya;
+- 1 (satu) buah plastik berisi 274 (dua ratus tujuh puluh empat) butir Pil warna biru tablet dengan bahan aktif MDMA (3,4-Metilendioksimetamfetamina);
+- 1 (satu) buah plastik berisi 260 (dua ratus enam puluh) butir Pil warna merah muda/ pink dengan bahan aktif MDMA (3,4-Metilendioksimetamfetamina);
+- 1 (satu) bungkus bekas teh kotak berukuran 1 ltr;
+- 1 (satu) buah plastik warna putih bertulis ?Underwear?;
+- 1 (satu) buah kresek putih berlogo ?Alfamidi?;
+- 1 (satu) unit Timbangan Digital warna silver;
+- 1 (satu) unit Handphone merk Nokia warna oranye dengan CP 082230512225;
+Dirampas untuk Negara
+- 1 (satu) unit Kendaraan R4 Suzuki Ertiga warna silver Nopol: W 1334 YZ
+Dikembalikan kepada Saksi Ansori
+Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp.2.000,00 (Dua Ribu Rupiah);</t>
+  </si>
+  <si>
+    <t>234/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>- 1 (satu) paket sabu kemasan plastik klip; - 1 (satu) buah bungkus rokok LA merah; - 1 (satu) buah HP OPPO A3 S warna hitam dengan nomor 0857311658101; Dirampas untuk dimusnahkan;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa RAHMAD WAHYUDI YULIANTO als PAIDI bin SAMPE telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana "Tanpa hak memiliki Narkotika golongan 1 bukan tanaman";
+Menjatuhkan pidana kepada Terdakwa RAHMAD WAHYUDI YULIANTO als PAIDI bin SAMPE oleh karena itu dengan pidana penjara selama 4 (empat) tahun dan denda sejumlah Rp.1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan;
+Menetapkan masa penangkapan dan penahanan yang dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan agar Terdakwa tetap ditahan;
+Menetapkan barang bukti berupa: - 1 (satu) paket sabu kemasan plastik klip; - 1 (satu) buah bungkus rokok LA merah; - 1 (satu) buah HP OPPO A3 S warna hitam dengan nomor 0857311658101; Dirampas untuk dimusnahkan;
+Membebankan kepada Terdakwa membayar biaya perkara sebesar Rp2.000,00 (dua ribu rupiah);</t>
+  </si>
+  <si>
+    <t>134/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>7 (tujuh) bungkus plastik berisi sabu dengan total netto + 371,273 gram
+6 (enam) butir pil Ekstasi warna merah muda berlogo petir dengan total netto + 2,178 gram;
+4 (empat) bungkus berisi plastik klip;
+3 (tiga) unit timbangan elektrik.
+1 (satu) buah tas ransel warna hitam
+1 (satu) unit HP samsung warna hitam dengan nomor 085236897121
+1 (satu) unit HP nokia warna biru dengan nomor 081356598947 dan 087716156055
+1 (satu) unit HP Samsung warna gold dengan nomor 081330042633
+1 (satu) unit HP Samsung warna hitam dengan nomor 081333333853
+1 (satu) unit HP nokia warna orange dengan nomor 081236251214
+dirampas untuk dimusnahkan; terhadap :
+1 (satu) unit sepeda motor honda beat warna merah nopol S-2506-PZ
+dikembalikan kepada pemiliknya ULIL ALBAB , terhadap :
+1 (satu) unit Sepeda motor Honda astrea Grand Nopol S-6917-PM
+Uang tunai sejumlah Rp. 200.000,- (dua ratus ribu rupiah)
+Dirampas untuk Negara</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa I SAIFUL ANAM, Terdakwa II ALI MASKUR dan Terdakwa II ACH SULEM AL WADLEH telah terbukti secara sah dan meyakinkan bersalah melakukan Tindak Pidana permufakatan jahat Menguasai Narkotika Golongan I Bukan Tanaman yang beratnya melebihi 5 (lima) gram
+Menjatuhkan Pidana oleh karena itu kepada Terdakwa I SAIFUL ANAM dan dengan pidana penjara selama 8 (delapan) tahun ,Terdakwa II ALI MASKUR , dengan pidana penjara selama 8 (delapan) tahun 6 (enam) bulan, kepada Terdakwa III ACH SULem ALWADLEH dengan pidana penjara selama 10 (sepuluh) tahun dan pidana denda masing - masing sebesar Rp. 800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila tidak dibayarakan diganti dengan pidana penjara masing masing selama 3 (tiga) bulan; ;
+Menetapkan masa tahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Memerintahkan agar Terdakwa tetap berada dalam tahanan;
+Menyatakan Barang Bukti berupa :
+7 (tujuh) bungkus plastik berisi sabu dengan total netto + 371,273 gram
+6 (enam) butir pil Ekstasi warna merah muda berlogo petir dengan total netto + 2,178 gram;
+4 (empat) bungkus berisi plastik klip;
+3 (tiga) unit timbangan elektrik.
+1 (satu) buah tas ransel warna hitam
+1 (satu) unit HP samsung warna hitam dengan nomor 085236897121
+1 (satu) unit HP nokia warna biru dengan nomor 081356598947 dan 087716156055
+1 (satu) unit HP Samsung warna gold dengan nomor 081330042633
+1 (satu) unit HP Samsung warna hitam dengan nomor 081333333853
+1 (satu) unit HP nokia warna orange dengan nomor 081236251214
+dirampas untuk dimusnahkan; terhadap :
+1 (satu) unit sepeda motor honda beat warna merah nopol S-2506-PZ
+dikembalikan kepada pemiliknya ULIL ALBAB , terhadap :
+1 (satu) unit Sepeda motor Honda astrea Grand Nopol S-6917-PM
+Uang tunai sejumlah Rp. 200.000,- (dua ratus ribu rupiah)
+Dirampas untuk Negara
+Membebankan pula kepada Para Terdakwa untuk membayar biaya perkara masing masing sebesar Rp.5000,- (lima ribu rupiah);</t>
+  </si>
+  <si>
+    <t>345/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>1 (satu) paket shabu kemasan plastic klip,
+Seperangkat alat nyabu,
+1 (satu) buah korek api
+Dirampas Untuk Dimusnahkan;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Susanto Bin H.Senedi telah terbukti secara sah dan meyakinan bersalah melakukan tindak pidana ?DENGAN PERMUFAKATAN JAHAT TANPA HAK MENGUASAI NARKOTIKA GOLONGAN I BUKAN TANAMAN;?
+Menjatuhkan pidana oleh karena itu kepada Terdakwa Susanto Bin H.Senedi dengan pidana penjara selama 4 (empat) tahun dan denda sebesar Rp800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan agar Terdakwa tetap berada dalam tahanan;
+Menetapkan barang bukti berupa :
+1 (satu) paket shabu kemasan plastic klip,
+Seperangkat alat nyabu,
+1 (satu) buah korek api
+Dirampas Untuk Dimusnahkan;
+Membebankan biaya perkara kepada Terdakwa sebesar Rp.2.000,- (dua ribu rupiah);</t>
+  </si>
+  <si>
+    <t>262/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>13 (tiga belas) bungkus plastik klip berisi narkotika jenis sabu dengan berat brutto 14 (Empat belas) gram beserta bungkusnya yang terdiri dari : 5 (lima) bungkus plastik klip berisi narkotika jenis sabu dengan berat 1,62 (satu koma enam puluh dua) gram beserta bungkusnya, 5 (lima) bungkus plastik klip berisi narkotika jenis sabu dengan berat 1,80 (satu koma delapan puluh) gram beserta bungkusnya, 1 (Satu) bungkus plastik klip berisi narkotika jenis sabu dengan berat 2,24 (dua koma dua puluh empat) gram beserta bungkusnya, 1 (Satu) bungkus plastik klip berisi narkotika jenis sabu dengan berat 2,94 (dua koma sembilan puluh empat) gram beserta bungkusnya, dan 1 (Satu) bungkus plastik klip berisi narkotika jenis sabu dengan berat 5,56 (lima koma lima puluh enam) gram beserta bungkusnya yang seluruhnya dimasukkan ke dalam bungkus rokok Sampoerna Mild;
+Dirampas untuk dimusnahkan;
+1 (satu) Unit Hp merk OPPO warna hitam beserta simcard;
+1 (satu) Unit Hp merk Evercroos warna hitam beserta simcard;
+Dirampas Untuk Negara;
+1 (satu) buah HP Merk Xiomi warna gold beserta simcard;
+Dikembalikan kepada Penuntut Umum untuk dipergunakan dalam perkara lain atas nama Terdakwa WAWAN DIANTO Alias WAWAN Bin SUMARDI WICAKSONO;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa SUGIARTO Alias TO Bin SUPRIYONO telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana TANPA HAK MENJUAL NARKOTIKA GOLONGAN I DALAM BENTUK BUKAN TANAMAN YANG BERATNYA MELEBIHI 5 (LIMA) GRAM;
+Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 12 (dua belas) tahun dan denda sejumlah Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan ;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan Terdakwa tetap berada dalam tahanan ;
+Menetapkan barang bukti berupa:
+13 (tiga belas) bungkus plastik klip berisi narkotika jenis sabu dengan berat brutto 14 (Empat belas) gram beserta bungkusnya yang terdiri dari : 5 (lima) bungkus plastik klip berisi narkotika jenis sabu dengan berat 1,62 (satu koma enam puluh dua) gram beserta bungkusnya, 5 (lima) bungkus plastik klip berisi narkotika jenis sabu dengan berat 1,80 (satu koma delapan puluh) gram beserta bungkusnya, 1 (Satu) bungkus plastik klip berisi narkotika jenis sabu dengan berat 2,24 (dua koma dua puluh empat) gram beserta bungkusnya, 1 (Satu) bungkus plastik klip berisi narkotika jenis sabu dengan berat 2,94 (dua koma sembilan puluh empat) gram beserta bungkusnya, dan 1 (Satu) bungkus plastik klip berisi narkotika jenis sabu dengan berat 5,56 (lima koma lima puluh enam) gram beserta bungkusnya yang seluruhnya dimasukkan ke dalam bungkus rokok Sampoerna Mild;
+Dirampas untuk dimusnahkan;
+1 (satu) Unit Hp merk OPPO warna hitam beserta simcard;
+1 (satu) Unit Hp merk Evercroos warna hitam beserta simcard;
+Dirampas Untuk Negara;
+1 (satu) buah HP Merk Xiomi warna gold beserta simcard;
+Dikembalikan kepada Penuntut Umum untuk dipergunakan dalam perkara lain atas nama Terdakwa WAWAN DIANTO Alias WAWAN Bin SUMARDI WICAKSONO;
+Membebankan kepada Terdakwa untuk membayar biaya perkara sejumlah Rp5.000,00 (lima ribu rupiah);</t>
+  </si>
+  <si>
+    <t>157/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>1 ( satu ) kantong klip plastik berisi shabu;
+1 (satu) kantong klip plastik berisi shabu;
+Shabu yang melekat pada pipet;
+1 (satu) buah HP merk Nokia 230 warna hitam silver;
+Jaket lengan panjang warna cokelat merk Tripl3;
+Dirampas untuk dimusnahkan;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa ABDULLOH Bin SUPAR , terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?TANPA HAK MENJADI PERANTARA UNTUK JUAL BELI NARKOTIKA GOLONGAN I ?;
+Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) tahun dan denda sejumlah Rp. 1.000.000.000,- (satu milyar juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan Terdakwa tetap ditahan ;
+Menetapkan barang bukti berupa:
+1 ( satu ) kantong klip plastik berisi shabu;
+1 (satu) kantong klip plastik berisi shabu;
+Shabu yang melekat pada pipet;
+1 (satu) buah HP merk Nokia 230 warna hitam silver;
+Jaket lengan panjang warna cokelat merk Tripl3;
+Dirampas untuk dimusnahkan;
+Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp.5.000,00 (lima ribu rupiah);</t>
+  </si>
+  <si>
+    <t>261/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>1 (satu) buah HP Merk Xiomi warna gold;
+Dirampas Untuk Negara;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa WAWAN DIYANTO Alias WAWAN Bin SUMARDI WICAKSONO telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana DENGAN PERMUFAKATAN JAHAT TANPA HAK MENJADI PERANTARA DALAM JUAL BELI NARKOTIKA GOLONGAN I DALAM BENTUK BUKAN TANAMAN YANG BERATNYA MELEBIHI 5 (LIMA) GRAM;
+Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 10 (sepuluh) tahun dan denda sejumlah Rp1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan ;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan Terdakwa tetap berada dalam tahanan ;
+Menetapkan barang bukti berupa:
+1 (satu) buah HP Merk Xiomi warna gold;
+Dirampas Untuk Negara;
+Membebankan kepada Terdakwa untuk membayar biaya perkara sejumlah Rp5.000,00 (lima ribu rupiah);</t>
+  </si>
+  <si>
+    <t>296/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>2 (dua) buah plastik klip yang terdapat sisa shabu;
+2 (dua) buah plastik klip;
+1 (satu) buah pipet kaca;
+Seperangkat alat hisap shabu;
+Dirampas untuk dimusnahkan</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa TEGUH ABADI Bin IMAM MAHFUDI telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak memiliki dan menguasai Narkotika golongan I bukan tanaman?;
+Menjatuhkan pidana terhadap Terdakwa dengan pidana penjara selama 4 (empat) tahun dan pidana denda sebesar Rp800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan dengan pidana penjara selama 3 (tiga) bulan;
+Menetapkan barang bukti berupa :
+2 (dua) buah plastik klip yang terdapat sisa shabu;
+2 (dua) buah plastik klip;
+1 (satu) buah pipet kaca;
+Seperangkat alat hisap shabu;
+Dirampas untuk dimusnahkan
+Menetapkan supaya terdakwa dibebani biaya perkara sebesar Rp5.000,00 (lima ribu rupiah).</t>
+  </si>
+  <si>
+    <t>395/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>2 (dua) klip plastik warna bening isi sabu;
+1 (satu) plastik bekas bumbu racik;
+Dirampas untuk dimusnahkan;
+1 (satu) unit Handphone merk OPPO.
+Dirampas untuk Negara;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa I Riski Amanda Alias Ambon Bin Sutikno dan Terdakwa II Tomi Ari Gunawan Alias Tom Bin Sutikno tidak terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana sebagaimana dalam dakwaan pertama Primair;
+Membebaskan Terdakwa I Riski Amanda Alias Ambon Bin Sutikno dan Terdakwa II Tomi Ari Gunawan Alias Tom Bin Sutikno dari dakwaan pertama Primair tersebut;
+Menyatakan Terdakwa I Riski Amanda Alias Ambon Bin Sutikno dan Terdakwa II Tomi Ari Gunawan Alias Tom Bin Sutikno telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak atau melawan hukum melakukan permufakatan jahat memiliki narkotika Golongan I bukan tanaman?;
+Menjatuhkan pidana terhadap Terdakwa I Riski Amanda Alias Ambon Bin Sutikno dan Terdakwa II Tomi Ari Gunawan Alias Tom Bin Sutikno dengan pidana penjara masing-masing selama 4 ( empat ) tahun dan denda masing-masing sejumlah Rp 800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan Para Terdakwa tetap ditahan;
+Menetapkan barang bukti berupa :
+2 (dua) klip plastik warna bening isi sabu;
+1 (satu) plastik bekas bumbu racik;
+Dirampas untuk dimusnahkan;
+1 (satu) unit Handphone merk OPPO.
+Dirampas untuk Negara;
+Membebankan kepada terdakwa-terdakwa untuk membayar biaya perkara masing-masing sebesar Rp. 5.000,- (lima ribu rupiah).</t>
+  </si>
+  <si>
+    <t>256/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>2 (dua) paket sabu dikemas dalam 1 plastik klip;
+4 (empat) paket sabu;
+7 (tujuh) plastik klip kosong;
+1 (satu) buah cotton bud;
+2 (dua) buah jarum;
+1 (satu) buah kotak plastik warna putih;
+1 (satu) HP merk Meizu;
+Dirampas untuk dimusnahkan ;</t>
+  </si>
+  <si>
+    <t>Menyatakan terdakwa Adi Suryawan Bin Sutrisno tidak terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana sebagaimana dalam dakwaan Primair;
+Membebaskan terdakwa Adi Suryawan Bin Sutrisno dari dakwaan Primair tersebut;
+Menyatakan terdakwa Adi Suryawan Bin Sutrisno telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak atau melawan hukum memiliki Narkotika Golongan I bukan tanaman?;
+Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) tahun 6 (enam) bulan dan denda sejumlah Rp800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan ;
+Menetapkan lamanya masa Penangkapan dan masa Penahanan yang telah dijalani terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan agar terdakwa tetap ditahan ;
+Menetapkan barang bukti berupa:
+2 (dua) paket sabu dikemas dalam 1 plastik klip;
+4 (empat) paket sabu;
+7 (tujuh) plastik klip kosong;
+1 (satu) buah cotton bud;
+2 (dua) buah jarum;
+1 (satu) buah kotak plastik warna putih;
+1 (satu) HP merk Meizu;
+Dirampas untuk dimusnahkan ;
+Membebankan kepada Terdakwa untuk membayar biaya perkara sejumlah Rp.5.000,- (lima ribu Rupiah);</t>
+  </si>
+  <si>
+    <t>312/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>1 (satu) paket shabu kemasan plastik klip dimasukkan ke dalam plastik klip dengan berat kotor 99,08 (sembilan puluh sembilan koma nol delapan) gram;
+1 (satu) buah kresek plastik warna hitam;
+1 (satu) unit Handphone merk ASUS;
+1 (satu) buah timba;
+Dirampas Untuk Dimusnahkan;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Ahmad Efendi als Mamad Bin Jamal telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?TANPA HAK MENJADI PERANTARA JUAL BELI NARKOTIKA GOLONGAN I BUKAN TANAMAN BERATNYA MELEBIHI 5 (LIMA) GRAM;?
+Menjatuhkan pidana oleh karena itu kepada Terdakwa Ahmad Efendi als Mamad Bin Jamal dengan pidana penjara selama 10 (sepuluh) tahun dan denda sebesar Rp1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan agar Terdakwa tetap berada dalam tahanan;
+Menetapkan barang bukti berupa :
+1 (satu) paket shabu kemasan plastik klip dimasukkan ke dalam plastik klip dengan berat kotor 99,08 (sembilan puluh sembilan koma nol delapan) gram;
+1 (satu) buah kresek plastik warna hitam;
+1 (satu) unit Handphone merk ASUS;
+1 (satu) buah timba;
+Dirampas Untuk Dimusnahkan;
+Membebankan biaya perkara kepada Terdakwa sebesar Rp.2.000,- (dua ribu rupiah);</t>
+  </si>
+  <si>
+    <t>370/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>1 bungkus rokok merk Marlboro yang berisi 1 paket shabu, 1 buah bantal yang didalamnya berisi 3 paket shabu, 6 tablet obat keras merk Alprazolam, HP merk Xiomi
+Dirampas untuk dimusnahkan</t>
+  </si>
+  <si>
+    <t>Menyatakan terdakwa DEDY FIRMANTO Alias SINYO Bin WAWAN HIDAYATNO telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Menguasai Narkotika Golonagn I bukan tanaman;
+Menjatuhkan pidana kepada Terakwa DEDY FIRMANTO Alias SINYO Bin WAWAN HIDAYATNO dengan pidana penjara selama 6 (enam) tahun dan pidana denda sebesar Rp.800.000.000,-(delapan ratus juta rupiah) dengan ketentuan apabila tidak dibayarkan oleh terdakwa diganti dengan Pidana Penjara selama 3 (tiga) bulan.
+Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Memerintahkan agar Terdakwa tetap berada dalam tahanan;
+Menetapkan barang bukti berupa :
+1 bungkus rokok merk Marlboro yang berisi 1 paket shabu, 1 buah bantal yang didalamnya berisi 3 paket shabu, 6 tablet obat keras merk Alprazolam, HP merk Xiomi
+Dirampas untuk dimusnahkan
+Menetapkan supaya terdakwa dibebani biaya perkara sebesar Rp. 5.000-, (lima</t>
+  </si>
+  <si>
+    <t>224/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>1 ( satu ) paket narkotika jenis sabu kemasan plastik klip yang dimasukan kedalam sedotan warna merah dengan berat netto 0,36 gram , 2 ( dua ) buah pipet kaca dengan karet warna kuning, 1 ( satu ) buah Hp merk Asus type Zenphon warna hitam dan 1 ( satu ) buah baju lengan pendek warna biru bertuliskan PT.Driyorejo Jaya Abadi Dirampas untuk dimusnahkan ;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa taufiq Azis Als. Azis Bin Idarjanto, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Tanpa Hak atau melawan Hukum membeli Narkotika Golongan I ;
+Menjatuhkan pidana terhadap terdakwa oleh karena itu dengan pidana penjara selama 4 ( empat ) tahun dan Denda sejumlah Rp 800.000.000,- ( delapan ratus juta rupiah ) , dengan ketentuan apabila denda tidak dibayar diganti dengan penjara selama 3 ( tiga ) bulan ;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan ;
+Menetapkan terdakwa untuk tetap ditahan ;
+Menetapkan barang bukti berupa : 1 ( satu ) paket narkotika jenis sabu kemasan plastik klip yang dimasukan kedalam sedotan warna merah dengan berat netto 0,36 gram , 2 ( dua ) buah pipet kaca dengan karet warna kuning, 1 ( satu ) buah Hp merk Asus type Zenphon warna hitam dan 1 ( satu ) buah baju lengan pendek warna biru bertuliskan PT.Driyorejo Jaya Abadi Dirampas untuk dimusnahkan ;
+Membebankan kepada terdakwa membayar biaya perkara sejumlah Rp 5.000,- ( lima ribu rupiah ) ;</t>
+  </si>
+  <si>
+    <t>323/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>Narkotika jenis shabu dengan berat total 200,66 (dua ratus koma enam puluh enam) gram beserta bungkusnya dengan rincian:
+1 (satu) klip plastik narkotika jenis shabu dengan berat 80,62 (delapan puluh koma enam puluh dua) gram;
+1 (satu) klip plastik narkotika jenis shabu dengan berat 39.43 (tiga puluh sembilan koma empat puluh tiga) gram;
+1 (satu) klip plastik narkotika jenis shabu dengan berat 57.93 (lima puluh tujuh koma sembilan puluh tiga) gram;
+1 (satu) klip plastik narkotika jenis shabu dengan berat 0.8 (nol koma delapan) gram;
+1 (satu) klip plastik narkotika jenis shabu dengan berat 10.07 (sepuluh koma nol tujuh) gram;
+1 (satu) klip plastik narkotika jenis shabu dengan berat 6.92 (enam koma sembilan puluh dua) gram;
+1 (satu) klip plastik narkotika jenis shabu dengan berat 4.1 (empat koma satu) gram
+- 1 (satu) klip plastik narkotika jenis shabu dengan berat 0,79 (nol koma tujuh puluh sembilan) gram
+Narkotika jenis extacy sebanyak 1.314 (seribu tiga ratus empat belas) butir dengan berat total 336,07 (tiga ratus tiga puluh enam koma nol tujuh) gram, dengan rincian :
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau dengan berat 26.87 (dua puluh enam koma delapan puluh tujuh) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau dengan berat 26.82 (dua puluh enam koma delapan puluh dua) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau dengan berat 26.53 (dua puluh enam koma lima puluh tiga) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau dengan berat 26.82 (dua puluh enam koma delapan puluh dua) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau dengan berat 27.33 (dua puluh tujuh koma tiga puluh tiga) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau dengan berat 27.03 (dua puluh tujuh koma nol tiga) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau dengan berat 26.97 (dua puluh enam koma sembilan puluh tujuh) gram;
+1 (satu) klip plastik berisi 56 (lima puluh enam) butir extacy warna hijau dengan berat 15.7 (lima belas koma tujuh) gram;
+1 (satu) klip plastik berisi 51 (lima puluh satu) butir extacy warna hijau dengan berat 14.63 (empat belas koma enam puluh tiga)n gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau muda dengan berat 23.55 (dua puluh koma lima puluh lima) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau muda dengan berat 23.75 (dua puluh tiga koma tujuh puluh lima) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau muda dengan berat 23.75 (dua puluh tiga koma tujuh puluh lima) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau muda dengan berat 23.78 (dua puluh tiga koma tujuh puluh delapan) gram;
+1 (satu) klip plastik berisi 99 (sembilan puluh sembilan) butir extacy warna biru dengan berat 20.63 (dua puluh koma enam puluh tiga) gram;
+1 (satu) klip plastik berisi 8 (delapan) butir extacy warna biru dengan berat 1.91 ( satu koma sembilan puluh satu) gram;
+3 (tiga) tiga buah pipet kava bekas pakai dengan rincian :
+1 (satu) buah pipet kaca berisi narkotika jenis shabu dengan berat 3.02 (tiga koma nol dua) gram;
+1 (satu) buah pipet kaca berisi narkotika jenis shabu dengan berat 1,29 (satu koma dua puluh sembilan) gram;
+1 (satu) buah pipet kaca berisi narkotika jenis shabu dengan berat 1,92 (satu koma sembilan puluh dua) gram;
+1 (satu) perangkat alat hidap shabu (bong);
+1 (satu) timbangan digital warna hitam merk DIGITAL SCALE;
+1 (satu) bungkus plastik klip yang berisi 1 (satu) pack plastik klip ukuran besar dan 1 (satu) pak plastik klip ukuran kecil;
+1 (satu) buah skrop yang terbuat dari sedotan;
+1 (satu) buah sendok plastic;
+1 (satu) buah kantong kresek bertuliskan alfamart;
+1 (satu) pack sedotan warna putih;
+1 (satu) buah HP merk Oppo type 3S warna merah beserta simcard no 081249714123 dan 08788617009;
+Dirampas untuk dimusnahkan;
+1 (satu) buah buku tabungan BCA An ACH ERWIN WIDODO nomor rek 0500453559 dan 1 (satu) buah ATM BCA An ACH ERWIN WIDODO nomor rek 0500453559berada di dalam jok sepeda motor;
+Dikembalikan kepada Terdakwa Ach. Erwin Widodo Alias Gino Bin Sujik;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Ach. Erwin Widodo Alias Gino Bin Sujik terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?secara tanpa hak menjadi perantara dalam jual beli narkotika Golongan I bukan tanaman yang beratnya melebihi 5 (lima) gram?;
+Menjatuhkan pidana kepada Terdakwa Ach. Erwin Widodo Alias Gino Bin Sujikoleh karena itu dengan pidana penjara selama 12 (Dua belas) tahun dan denda sejumlah Rp. 2.000.000.000,00 ( dua milyar ) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan Terdakwa tetap ditahan;
+Menetapkan barang bukti berupa:
+Narkotika jenis shabu dengan berat total 200,66 (dua ratus koma enam puluh enam) gram beserta bungkusnya dengan rincian:
+1 (satu) klip plastik narkotika jenis shabu dengan berat 80,62 (delapan puluh koma enam puluh dua) gram;
+1 (satu) klip plastik narkotika jenis shabu dengan berat 39.43 (tiga puluh sembilan koma empat puluh tiga) gram;
+1 (satu) klip plastik narkotika jenis shabu dengan berat 57.93 (lima puluh tujuh koma sembilan puluh tiga) gram;
+1 (satu) klip plastik narkotika jenis shabu dengan berat 0.8 (nol koma delapan) gram;
+1 (satu) klip plastik narkotika jenis shabu dengan berat 10.07 (sepuluh koma nol tujuh) gram;
+1 (satu) klip plastik narkotika jenis shabu dengan berat 6.92 (enam koma sembilan puluh dua) gram;
+1 (satu) klip plastik narkotika jenis shabu dengan berat 4.1 (empat koma satu) gram
+- 1 (satu) klip plastik narkotika jenis shabu dengan berat 0,79 (nol koma tujuh puluh sembilan) gram
+Narkotika jenis extacy sebanyak 1.314 (seribu tiga ratus empat belas) butir dengan berat total 336,07 (tiga ratus tiga puluh enam koma nol tujuh) gram, dengan rincian :
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau dengan berat 26.87 (dua puluh enam koma delapan puluh tujuh) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau dengan berat 26.82 (dua puluh enam koma delapan puluh dua) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau dengan berat 26.53 (dua puluh enam koma lima puluh tiga) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau dengan berat 26.82 (dua puluh enam koma delapan puluh dua) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau dengan berat 27.33 (dua puluh tujuh koma tiga puluh tiga) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau dengan berat 27.03 (dua puluh tujuh koma nol tiga) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau dengan berat 26.97 (dua puluh enam koma sembilan puluh tujuh) gram;
+1 (satu) klip plastik berisi 56 (lima puluh enam) butir extacy warna hijau dengan berat 15.7 (lima belas koma tujuh) gram;
+1 (satu) klip plastik berisi 51 (lima puluh satu) butir extacy warna hijau dengan berat 14.63 (empat belas koma enam puluh tiga)n gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau muda dengan berat 23.55 (dua puluh koma lima puluh lima) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau muda dengan berat 23.75 (dua puluh tiga koma tujuh puluh lima) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau muda dengan berat 23.75 (dua puluh tiga koma tujuh puluh lima) gram;
+1 (satu) klip plastik berisi 100 (seratus) butir extacy warna hijau muda dengan berat 23.78 (dua puluh tiga koma tujuh puluh delapan) gram;
+1 (satu) klip plastik berisi 99 (sembilan puluh sembilan) butir extacy warna biru dengan berat 20.63 (dua puluh koma enam puluh tiga) gram;
+1 (satu) klip plastik berisi 8 (delapan) butir extacy warna biru dengan berat 1.91 ( satu koma sembilan puluh satu) gram;
+3 (tiga) tiga buah pipet kava bekas pakai dengan rincian :
+1 (satu) buah pipet kaca berisi narkotika jenis shabu dengan berat 3.02 (tiga koma nol dua) gram;
+1 (satu) buah pipet kaca berisi narkotika jenis shabu dengan berat 1,29 (satu koma dua puluh sembilan) gram;
+1 (satu) buah pipet kaca berisi narkotika jenis shabu dengan berat 1,92 (satu koma sembilan puluh dua) gram;
+1 (satu) perangkat alat hidap shabu (bong);
+1 (satu) timbangan digital warna hitam merk DIGITAL SCALE;
+1 (satu) bungkus plastik klip yang berisi 1 (satu) pack plastik klip ukuran besar dan 1 (satu) pak plastik klip ukuran kecil;
+1 (satu) buah skrop yang terbuat dari sedotan;
+1 (satu) buah sendok plastic;
+1 (satu) buah kantong kresek bertuliskan alfamart;
+1 (satu) pack sedotan warna putih;
+1 (satu) buah HP merk Oppo type 3S warna merah beserta simcard no 081249714123 dan 08788617009;
+Dirampas untuk dimusnahkan;
+1 (satu) buah buku tabungan BCA An ACH ERWIN WIDODO nomor rek 0500453559 dan 1 (satu) buah ATM BCA An ACH ERWIN WIDODO nomor rek 0500453559berada di dalam jok sepeda motor;
+Dikembalikan kepada Terdakwa Ach. Erwin Widodo Alias Gino Bin Sujik;
+Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp 5.000,00 (lima ribu rupiah);</t>
+  </si>
+  <si>
+    <t>390/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>1 (satu) plastik klip berisikan shabu seberat 0,38 gram.
+1 (satu) buah pipet.
+1 (satu) buah korek api
+1 (satu) buah sedotan plastik.
+1 (satu) bungkus kosong rokok gudang garam surya.
+1 (satu) buah tutup botol.
+Dirampas untuk dimusnahkan;
+1 (satu) buah HP XIAOMI warna hitam.
+Dirampas untuk negara ;
+1 (satu) unit Sepeda Motor Yamaha PVixion warna abu-abu nopol S 5152 FY. Dikembalikan kepada Terdakwa.</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa FARID WIJAYA MAHENDRA Alias VIJAY Bin AGUS WIBOWO terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?TANPA HAK MEMILIKI, MENGUASAI dan MENYIMPAN NARKOTIKA GOLONGAN I BUKAN TANAMAN?;
+Menjatuhkan pidana kepada Terdakwa FARID WIJAYA MAHENDRA Alias VIJAY Bin AGUS WIBOWO, oleh karena itu dengan pidana penjara selama 4 (empat) tahun dan denda sejumlah Rp.800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 1 (satu) bulan;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan Terdakwa tetap ditahan ;
+Menetapkan barang bukti berupa :
+1 (satu) plastik klip berisikan shabu seberat 0,38 gram.
+1 (satu) buah pipet.
+1 (satu) buah korek api
+1 (satu) buah sedotan plastik.
+1 (satu) bungkus kosong rokok gudang garam surya.
+1 (satu) buah tutup botol.
+Dirampas untuk dimusnahkan;
+1 (satu) buah HP XIAOMI warna hitam.
+Dirampas untuk negara ;
+1 (satu) unit Sepeda Motor Yamaha PVixion warna abu-abu nopol S 5152 FY. Dikembalikan kepada Terdakwa.
+Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp.2.000,00 (lima ribu rupiah);</t>
+  </si>
+  <si>
+    <t>420/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>4 (empat) paket shabu kemasan plastik klip;
+1 (satu) paket shabu kemasan plastik klip dimasukkan ke dalam plastik klip;
+1 (satu) buah sekop yang terbuat dari sedotan warna biru yang dimasukkan ke dalam bekas bungkus rokok merk Gudang garam Surya;
+Dirampas untuk dimusnahkan;
+1 (satu) unit Handphone merk OPPO warna putih CP.085604798401;
+Dirampas untuk Negara;
+1 (satu) unit sepeda motor merk Yamaha Vega ZR warna hitam No.Pol.S-4754-VE;
+Dikembalikan kepada Terdakwa FARID RIZALDI Alias ICANG Bin IMAM BAHKRI;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa FARID RIZALDI Alias ICANG Bin IMAM BAHKRI telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana TANPA HAK MEMILIKI DAN MENGUASAI NARKOTIKA GOLONGAN I BUKAN TANAMAN;
+Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) tahun dan denda sejumlah Rp800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan ;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan Terdakwa tetap ditahan;
+Menetapkan barang bukti berupa:
+4 (empat) paket shabu kemasan plastik klip;
+1 (satu) paket shabu kemasan plastik klip dimasukkan ke dalam plastik klip;
+1 (satu) buah sekop yang terbuat dari sedotan warna biru yang dimasukkan ke dalam bekas bungkus rokok merk Gudang garam Surya;
+Dirampas untuk dimusnahkan;
+1 (satu) unit Handphone merk OPPO warna putih CP.085604798401;
+Dirampas untuk Negara;
+1 (satu) unit sepeda motor merk Yamaha Vega ZR warna hitam No.Pol.S-4754-VE;
+Dikembalikan kepada Terdakwa FARID RIZALDI Alias ICANG Bin IMAM BAHKRI;
+Membebankan kepada Terdakwa untuk membayar biaya perkara sejumlah Rp5.000,00 (lima ribu rupiah);</t>
+  </si>
+  <si>
+    <t>406/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>2 (dua) poket Sabu yang dibungkus dengan plastik klip yang di ikat dengan isolasi warna merah;
+1 (satu) plastik klip sisa sabu yang digunakan;
+1 buah dompet warna coklat bertuliskan LEVI?S;
+seperangkat alat hisab sabu (bong) yang terbuat dari botol plastik;
+sedotan plastik warna putih bekas pakai dan 2 buah korek api bensol warna biru dan hijau;
+1 buah pipet yang terbuat dari kaca;
+Dirampas untuk dimusnahkan
+1 buah HP merk LAVA warna hitam;
+Dirampas untuk Negara.</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa MUKHAMMAD TAUFIK Als. TAJAB Bin M. SHOLEH telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana PENYALAHGUNAAN NARKOTIKA GOLONGAN I BAGI DIRI SENDIRI;
+Menjatuhkan Pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 2(dua) tahun;
+Menetapkan masa penangkapan dan masa penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan Terdakwa tetap berada dalam tahanan;
+Menetapkan barang bukti berupa:
+2 (dua) poket Sabu yang dibungkus dengan plastik klip yang di ikat dengan isolasi warna merah;
+1 (satu) plastik klip sisa sabu yang digunakan;
+1 buah dompet warna coklat bertuliskan LEVI?S;
+seperangkat alat hisab sabu (bong) yang terbuat dari botol plastik;
+sedotan plastik warna putih bekas pakai dan 2 buah korek api bensol warna biru dan hijau;
+1 buah pipet yang terbuat dari kaca;
+Dirampas untuk dimusnahkan
+1 buah HP merk LAVA warna hitam;
+Dirampas untuk Negara.
+Membebankan biaya perkara kepada Terdakwa sebesar Rp2.000.00 (dua ribu rupiah).</t>
+  </si>
+  <si>
+    <t>389/Pid.Sus/2019/PN Mjk</t>
+  </si>
+  <si>
+    <t>1(satu) poket shabu dalam kemasan 1 (satu) plastic klip kecil dengan berat netto 0,133 gram ;
+1 (satu) buah pipet kaca ;
+1 (satu) buah ATM BCA ;
+Dirampas untuk dimusnahkan .
+Uang Rp 800.000 (delapan ratus ribu rupiah) dengan rincian pecahan Rp 100.000(seratus ribu rupiah) 4 lembar, pecahan Rp 50.000 (lima puluh ribu rupiah) 8 lembar ;
+1 (satu) buah handphone merk infinix warna bagian belakang abu-abu bagian depan putih dengan kartu sim nomor 082232728924 ;
+Dirampas untuk negara ;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa MELODY BUYUNG SUGIYANTO Bin SUGIANTOterbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?TANPA HAK MEMILIKI, MENGUASAI dan MENYIMPAN NARKOTIKA GOLONGAN I BUKAN TANAMAN?;
+Menjatuhkan pidana kepada Terdakwa MELODY BUYUNG SUGIYANTO Bin SUGIANTO,oleh karena itu dengan pidana penjaraselama 4 (empat) tahun dandenda sejumlah Rp.800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayardiganti dengan pidana penjara selama 3(tiga) bulan;
+Menetapkan masa penangkapandan penahanan yang telah dijalani Terdakwadikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan Terdakwatetap ditahan ;
+Menetapkan barang bukti berupa:
+1(satu) poket shabu dalam kemasan 1 (satu) plastic klip kecil dengan berat netto 0,133 gram ;
+1 (satu) buah pipet kaca ;
+1 (satu) buah ATM BCA ;
+Dirampas untuk dimusnahkan .
+Uang Rp 800.000 (delapan ratus ribu rupiah) dengan rincian pecahan Rp 100.000(seratus ribu rupiah) 4 lembar, pecahan Rp 50.000 (lima puluh ribu rupiah) 8 lembar ;
+1 (satu) buah handphone merk infinix warna bagian belakang abu-abu bagian depan putih dengan kartu sim nomor 082232728924 ;
+Dirampas untuk negara ;
+Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp.2.000,00 (lima ribu rupiah);</t>
   </si>
 </sst>
 </file>
@@ -643,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -659,10 +1263,7 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2035,4896 +2636,5106 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="3">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="A35" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="A36" s="3">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="A37" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="3">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="A42" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="A43" s="3">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="A44" s="3">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="A45" s="3">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="A46" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="A47" s="3">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="A48" s="3">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="A49" s="3">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="A50" s="3">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="A51" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="A52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53">
-      <c r="A53" s="7"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="A53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54">
-      <c r="A54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="A54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55">
-      <c r="A55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="A55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56">
-      <c r="A56" s="7"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="A56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57">
-      <c r="A57" s="7"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="A57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58">
-      <c r="A58" s="7"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="A58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59">
-      <c r="A59" s="7"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="A59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60">
-      <c r="A60" s="7"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="A60" s="6"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61">
-      <c r="A61" s="7"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="A61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62">
-      <c r="A62" s="7"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
+      <c r="A62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63">
-      <c r="A63" s="7"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="A63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64">
-      <c r="A64" s="7"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="A64" s="6"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65">
-      <c r="A65" s="7"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="A65" s="6"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66">
-      <c r="A66" s="7"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
+      <c r="A66" s="6"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
     </row>
     <row r="67">
-      <c r="A67" s="7"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
+      <c r="A67" s="6"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
     </row>
     <row r="68">
-      <c r="A68" s="7"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
+      <c r="A68" s="6"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69">
-      <c r="A69" s="7"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
+      <c r="A69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70">
-      <c r="A70" s="7"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
+      <c r="A70" s="6"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
     </row>
     <row r="71">
-      <c r="A71" s="7"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
+      <c r="A71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72">
-      <c r="A72" s="7"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
+      <c r="A72" s="6"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73">
-      <c r="A73" s="7"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="A73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74">
-      <c r="A74" s="7"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
+      <c r="A74" s="6"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75">
-      <c r="A75" s="7"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
+      <c r="A75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76">
-      <c r="A76" s="7"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
+      <c r="A76" s="6"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77">
-      <c r="A77" s="7"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
+      <c r="A77" s="6"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78">
-      <c r="A78" s="7"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
+      <c r="A78" s="6"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79">
-      <c r="A79" s="7"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
+      <c r="A79" s="6"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80">
-      <c r="A80" s="7"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
+      <c r="A80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81">
-      <c r="A81" s="7"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
+      <c r="A81" s="6"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82">
-      <c r="A82" s="7"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
+      <c r="A82" s="6"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
     </row>
     <row r="83">
-      <c r="A83" s="7"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
+      <c r="A83" s="6"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
     </row>
     <row r="84">
-      <c r="A84" s="7"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
+      <c r="A84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="85">
-      <c r="A85" s="7"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
+      <c r="A85" s="6"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="86">
-      <c r="A86" s="7"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
+      <c r="A86" s="6"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87">
-      <c r="A87" s="7"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
+      <c r="A87" s="6"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
     </row>
     <row r="88">
-      <c r="A88" s="7"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
+      <c r="A88" s="6"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="7"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
+      <c r="A89" s="6"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="7"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
+      <c r="A90" s="6"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="7"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
+      <c r="A91" s="6"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="7"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
+      <c r="A92" s="6"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="7"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
+      <c r="A93" s="6"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
     </row>
     <row r="94">
-      <c r="A94" s="7"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
+      <c r="A94" s="6"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
     </row>
     <row r="95">
-      <c r="A95" s="7"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
+      <c r="A95" s="6"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="7"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
+      <c r="A96" s="6"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="7"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
+      <c r="A97" s="6"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="7"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
+      <c r="A98" s="6"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="7"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
+      <c r="A99" s="6"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="7"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
+      <c r="A100" s="6"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
     </row>
     <row r="101">
-      <c r="A101" s="7"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
+      <c r="A101" s="6"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
     </row>
     <row r="102">
-      <c r="A102" s="7"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
+      <c r="A102" s="6"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="7"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
+      <c r="A103" s="6"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="7"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
+      <c r="A104" s="6"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="7"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
+      <c r="A105" s="6"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="7"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
+      <c r="A106" s="6"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="7"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
+      <c r="A107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="7"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
+      <c r="A108" s="6"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="7"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
+      <c r="A109" s="6"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="7"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
+      <c r="A110" s="6"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="7"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
+      <c r="A111" s="6"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="7"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
+      <c r="A112" s="6"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="7"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
+      <c r="A113" s="6"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="7"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
+      <c r="A114" s="6"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="7"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
+      <c r="A115" s="6"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="7"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
+      <c r="A116" s="6"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="7"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
+      <c r="A117" s="6"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="7"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
+      <c r="A118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="7"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
+      <c r="A119" s="6"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
     </row>
     <row r="120">
-      <c r="A120" s="7"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
+      <c r="A120" s="6"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="7"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
+      <c r="A121" s="6"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="7"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
+      <c r="A122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
     </row>
     <row r="123">
-      <c r="A123" s="7"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
+      <c r="A123" s="6"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="7"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
+      <c r="A124" s="6"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="7"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
+      <c r="A125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="7"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
+      <c r="A126" s="6"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="7"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
+      <c r="A127" s="6"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="7"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
+      <c r="A128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="7"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
+      <c r="A129" s="6"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="7"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
+      <c r="A130" s="6"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="7"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
+      <c r="A131" s="6"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="7"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
+      <c r="A132" s="6"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="7"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
+      <c r="A133" s="6"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="7"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
+      <c r="A134" s="6"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="7"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
+      <c r="A135" s="6"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="7"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
+      <c r="A136" s="6"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="7"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
+      <c r="A137" s="6"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="7"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
+      <c r="A138" s="6"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="7"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
+      <c r="A139" s="6"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="7"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
+      <c r="A140" s="6"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="7"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
+      <c r="A141" s="6"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="7"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
+      <c r="A142" s="6"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="7"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
+      <c r="A143" s="6"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="7"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
+      <c r="A144" s="6"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="7"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
+      <c r="A145" s="6"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="7"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
+      <c r="A146" s="6"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="7"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
+      <c r="A147" s="6"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="7"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
+      <c r="A148" s="6"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="7"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
+      <c r="A149" s="6"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="7"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
+      <c r="A150" s="6"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="7"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
+      <c r="A151" s="6"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="7"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
+      <c r="A152" s="6"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="7"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
+      <c r="A153" s="6"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="7"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
+      <c r="A154" s="6"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="7"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
+      <c r="A155" s="6"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="7"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
+      <c r="A156" s="6"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="7"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
+      <c r="A157" s="6"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="7"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
+      <c r="A158" s="6"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="7"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
+      <c r="A159" s="6"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="7"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
+      <c r="A160" s="6"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="7"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
+      <c r="A161" s="6"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="7"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
+      <c r="A162" s="6"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="7"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
+      <c r="A163" s="6"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="7"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
+      <c r="A164" s="6"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="7"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
+      <c r="A165" s="6"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="7"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
+      <c r="A166" s="6"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="7"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
+      <c r="A167" s="6"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="7"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
+      <c r="A168" s="6"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="7"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
+      <c r="A169" s="6"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="7"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
+      <c r="A170" s="6"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="7"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
+      <c r="A171" s="6"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="7"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
+      <c r="A172" s="6"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="7"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
+      <c r="A173" s="6"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="7"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
+      <c r="A174" s="6"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="7"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
+      <c r="A175" s="6"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="7"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
+      <c r="A176" s="6"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
     </row>
     <row r="177">
-      <c r="A177" s="7"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
+      <c r="A177" s="6"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="7"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
+      <c r="A178" s="6"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
     </row>
     <row r="179">
-      <c r="A179" s="7"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
+      <c r="A179" s="6"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
     </row>
     <row r="180">
-      <c r="A180" s="7"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
+      <c r="A180" s="6"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
     </row>
     <row r="181">
-      <c r="A181" s="7"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
+      <c r="A181" s="6"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
     </row>
     <row r="182">
-      <c r="A182" s="7"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
+      <c r="A182" s="6"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="7"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
+      <c r="A183" s="6"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="7"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
+      <c r="A184" s="6"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="7"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
+      <c r="A185" s="6"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="7"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
+      <c r="A186" s="6"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="7"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
+      <c r="A187" s="6"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="7"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
+      <c r="A188" s="6"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
     </row>
     <row r="189">
-      <c r="A189" s="7"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
+      <c r="A189" s="6"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
     </row>
     <row r="190">
-      <c r="A190" s="7"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
+      <c r="A190" s="6"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
     </row>
     <row r="191">
-      <c r="A191" s="7"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
+      <c r="A191" s="6"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
     </row>
     <row r="192">
-      <c r="A192" s="7"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
+      <c r="A192" s="6"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="7"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
+      <c r="A193" s="6"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="7"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
+      <c r="A194" s="6"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
     </row>
     <row r="195">
-      <c r="A195" s="7"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
+      <c r="A195" s="6"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="7"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
+      <c r="A196" s="6"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="7"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
+      <c r="A197" s="6"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
     </row>
     <row r="198">
-      <c r="A198" s="7"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
+      <c r="A198" s="6"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="7"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
+      <c r="A199" s="6"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="7"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
+      <c r="A200" s="6"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="7"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
+      <c r="A201" s="6"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
     </row>
     <row r="202">
-      <c r="A202" s="7"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
+      <c r="A202" s="6"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="7"/>
-      <c r="D203" s="8"/>
-      <c r="E203" s="8"/>
+      <c r="A203" s="6"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="7"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
+      <c r="A204" s="6"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
     </row>
     <row r="205">
-      <c r="A205" s="7"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
+      <c r="A205" s="6"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
     </row>
     <row r="206">
-      <c r="A206" s="7"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
+      <c r="A206" s="6"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="7"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
+      <c r="A207" s="6"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="7"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
+      <c r="A208" s="6"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="7"/>
-      <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
+      <c r="A209" s="6"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="7"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
+      <c r="A210" s="6"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="7"/>
-      <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
+      <c r="A211" s="6"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
     </row>
     <row r="212">
-      <c r="A212" s="7"/>
-      <c r="D212" s="8"/>
-      <c r="E212" s="8"/>
+      <c r="A212" s="6"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="7"/>
     </row>
     <row r="213">
-      <c r="A213" s="7"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
+      <c r="A213" s="6"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="7"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
+      <c r="A214" s="6"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
     </row>
     <row r="215">
-      <c r="A215" s="7"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
+      <c r="A215" s="6"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
     </row>
     <row r="216">
-      <c r="A216" s="7"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
+      <c r="A216" s="6"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
     </row>
     <row r="217">
-      <c r="A217" s="7"/>
-      <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
+      <c r="A217" s="6"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
     </row>
     <row r="218">
-      <c r="A218" s="7"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
+      <c r="A218" s="6"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="7"/>
     </row>
     <row r="219">
-      <c r="A219" s="7"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
+      <c r="A219" s="6"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
     </row>
     <row r="220">
-      <c r="A220" s="7"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
+      <c r="A220" s="6"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
     </row>
     <row r="221">
-      <c r="A221" s="7"/>
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
+      <c r="A221" s="6"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="7"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
+      <c r="A222" s="6"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
     </row>
     <row r="223">
-      <c r="A223" s="7"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
+      <c r="A223" s="6"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="7"/>
     </row>
     <row r="224">
-      <c r="A224" s="7"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
+      <c r="A224" s="6"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="7"/>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
+      <c r="A225" s="6"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
     </row>
     <row r="226">
-      <c r="A226" s="7"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
+      <c r="A226" s="6"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="7"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
+      <c r="A227" s="6"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="7"/>
     </row>
     <row r="228">
-      <c r="A228" s="7"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
+      <c r="A228" s="6"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
     </row>
     <row r="229">
-      <c r="A229" s="7"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
+      <c r="A229" s="6"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
     </row>
     <row r="230">
-      <c r="A230" s="7"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
+      <c r="A230" s="6"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
     </row>
     <row r="231">
-      <c r="A231" s="7"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
+      <c r="A231" s="6"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="7"/>
     </row>
     <row r="232">
-      <c r="A232" s="7"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
+      <c r="A232" s="6"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="7"/>
     </row>
     <row r="233">
-      <c r="A233" s="7"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
+      <c r="A233" s="6"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7"/>
     </row>
     <row r="234">
-      <c r="A234" s="7"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
+      <c r="A234" s="6"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="7"/>
     </row>
     <row r="235">
-      <c r="A235" s="7"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
+      <c r="A235" s="6"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="7"/>
     </row>
     <row r="236">
-      <c r="A236" s="7"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
+      <c r="A236" s="6"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="7"/>
     </row>
     <row r="237">
-      <c r="A237" s="7"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
+      <c r="A237" s="6"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="7"/>
     </row>
     <row r="238">
-      <c r="A238" s="7"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
+      <c r="A238" s="6"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
     </row>
     <row r="239">
-      <c r="A239" s="7"/>
-      <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
+      <c r="A239" s="6"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="7"/>
     </row>
     <row r="240">
-      <c r="A240" s="7"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
+      <c r="A240" s="6"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="7"/>
     </row>
     <row r="241">
-      <c r="A241" s="7"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
+      <c r="A241" s="6"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
     </row>
     <row r="242">
-      <c r="A242" s="7"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
+      <c r="A242" s="6"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
     </row>
     <row r="243">
-      <c r="A243" s="7"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
+      <c r="A243" s="6"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
     </row>
     <row r="244">
-      <c r="A244" s="7"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
+      <c r="A244" s="6"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
     </row>
     <row r="245">
-      <c r="A245" s="7"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
+      <c r="A245" s="6"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
     </row>
     <row r="246">
-      <c r="A246" s="7"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
+      <c r="A246" s="6"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="7"/>
     </row>
     <row r="247">
-      <c r="A247" s="7"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
+      <c r="A247" s="6"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="7"/>
     </row>
     <row r="248">
-      <c r="A248" s="7"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
+      <c r="A248" s="6"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
     </row>
     <row r="249">
-      <c r="A249" s="7"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
+      <c r="A249" s="6"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="7"/>
     </row>
     <row r="250">
-      <c r="A250" s="7"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
+      <c r="A250" s="6"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
     </row>
     <row r="251">
-      <c r="A251" s="7"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
+      <c r="A251" s="6"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
     </row>
     <row r="252">
-      <c r="A252" s="7"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
+      <c r="A252" s="6"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="7"/>
     </row>
     <row r="253">
-      <c r="A253" s="7"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
+      <c r="A253" s="6"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="7"/>
     </row>
     <row r="254">
-      <c r="A254" s="7"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
+      <c r="A254" s="6"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
     </row>
     <row r="255">
-      <c r="A255" s="7"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
+      <c r="A255" s="6"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="7"/>
     </row>
     <row r="256">
-      <c r="A256" s="7"/>
-      <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
+      <c r="A256" s="6"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
     </row>
     <row r="257">
-      <c r="A257" s="7"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="8"/>
+      <c r="A257" s="6"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
     </row>
     <row r="258">
-      <c r="A258" s="7"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
+      <c r="A258" s="6"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="7"/>
     </row>
     <row r="259">
-      <c r="A259" s="7"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
+      <c r="A259" s="6"/>
+      <c r="D259" s="7"/>
+      <c r="E259" s="7"/>
     </row>
     <row r="260">
-      <c r="A260" s="7"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
+      <c r="A260" s="6"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="7"/>
     </row>
     <row r="261">
-      <c r="A261" s="7"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
+      <c r="A261" s="6"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="7"/>
     </row>
     <row r="262">
-      <c r="A262" s="7"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
+      <c r="A262" s="6"/>
+      <c r="D262" s="7"/>
+      <c r="E262" s="7"/>
     </row>
     <row r="263">
-      <c r="A263" s="7"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
+      <c r="A263" s="6"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="7"/>
     </row>
     <row r="264">
-      <c r="A264" s="7"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
+      <c r="A264" s="6"/>
+      <c r="D264" s="7"/>
+      <c r="E264" s="7"/>
     </row>
     <row r="265">
-      <c r="A265" s="7"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
+      <c r="A265" s="6"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="7"/>
     </row>
     <row r="266">
-      <c r="A266" s="7"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
+      <c r="A266" s="6"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="7"/>
     </row>
     <row r="267">
-      <c r="A267" s="7"/>
-      <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
+      <c r="A267" s="6"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
     </row>
     <row r="268">
-      <c r="A268" s="7"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="8"/>
+      <c r="A268" s="6"/>
+      <c r="D268" s="7"/>
+      <c r="E268" s="7"/>
     </row>
     <row r="269">
-      <c r="A269" s="7"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="8"/>
+      <c r="A269" s="6"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="7"/>
     </row>
     <row r="270">
-      <c r="A270" s="7"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
+      <c r="A270" s="6"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="7"/>
     </row>
     <row r="271">
-      <c r="A271" s="7"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
+      <c r="A271" s="6"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="7"/>
     </row>
     <row r="272">
-      <c r="A272" s="7"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
+      <c r="A272" s="6"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="7"/>
     </row>
     <row r="273">
-      <c r="A273" s="7"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
+      <c r="A273" s="6"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="7"/>
     </row>
     <row r="274">
-      <c r="A274" s="7"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
+      <c r="A274" s="6"/>
+      <c r="D274" s="7"/>
+      <c r="E274" s="7"/>
     </row>
     <row r="275">
-      <c r="A275" s="7"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="8"/>
+      <c r="A275" s="6"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
     </row>
     <row r="276">
-      <c r="A276" s="7"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="8"/>
+      <c r="A276" s="6"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="7"/>
     </row>
     <row r="277">
-      <c r="A277" s="7"/>
-      <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
+      <c r="A277" s="6"/>
+      <c r="D277" s="7"/>
+      <c r="E277" s="7"/>
     </row>
     <row r="278">
-      <c r="A278" s="7"/>
-      <c r="D278" s="8"/>
-      <c r="E278" s="8"/>
+      <c r="A278" s="6"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="7"/>
     </row>
     <row r="279">
-      <c r="A279" s="7"/>
-      <c r="D279" s="8"/>
-      <c r="E279" s="8"/>
+      <c r="A279" s="6"/>
+      <c r="D279" s="7"/>
+      <c r="E279" s="7"/>
     </row>
     <row r="280">
-      <c r="A280" s="7"/>
-      <c r="D280" s="8"/>
-      <c r="E280" s="8"/>
+      <c r="A280" s="6"/>
+      <c r="D280" s="7"/>
+      <c r="E280" s="7"/>
     </row>
     <row r="281">
-      <c r="A281" s="7"/>
-      <c r="D281" s="8"/>
-      <c r="E281" s="8"/>
+      <c r="A281" s="6"/>
+      <c r="D281" s="7"/>
+      <c r="E281" s="7"/>
     </row>
     <row r="282">
-      <c r="A282" s="7"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="8"/>
+      <c r="A282" s="6"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="7"/>
     </row>
     <row r="283">
-      <c r="A283" s="7"/>
-      <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
+      <c r="A283" s="6"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
     </row>
     <row r="284">
-      <c r="A284" s="7"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="8"/>
+      <c r="A284" s="6"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="7"/>
     </row>
     <row r="285">
-      <c r="A285" s="7"/>
-      <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
+      <c r="A285" s="6"/>
+      <c r="D285" s="7"/>
+      <c r="E285" s="7"/>
     </row>
     <row r="286">
-      <c r="A286" s="7"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
+      <c r="A286" s="6"/>
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
     </row>
     <row r="287">
-      <c r="A287" s="7"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
+      <c r="A287" s="6"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="7"/>
     </row>
     <row r="288">
-      <c r="A288" s="7"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
+      <c r="A288" s="6"/>
+      <c r="D288" s="7"/>
+      <c r="E288" s="7"/>
     </row>
     <row r="289">
-      <c r="A289" s="7"/>
-      <c r="D289" s="8"/>
-      <c r="E289" s="8"/>
+      <c r="A289" s="6"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="7"/>
     </row>
     <row r="290">
-      <c r="A290" s="7"/>
-      <c r="D290" s="8"/>
-      <c r="E290" s="8"/>
+      <c r="A290" s="6"/>
+      <c r="D290" s="7"/>
+      <c r="E290" s="7"/>
     </row>
     <row r="291">
-      <c r="A291" s="7"/>
-      <c r="D291" s="8"/>
-      <c r="E291" s="8"/>
+      <c r="A291" s="6"/>
+      <c r="D291" s="7"/>
+      <c r="E291" s="7"/>
     </row>
     <row r="292">
-      <c r="A292" s="7"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
+      <c r="A292" s="6"/>
+      <c r="D292" s="7"/>
+      <c r="E292" s="7"/>
     </row>
     <row r="293">
-      <c r="A293" s="7"/>
-      <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
+      <c r="A293" s="6"/>
+      <c r="D293" s="7"/>
+      <c r="E293" s="7"/>
     </row>
     <row r="294">
-      <c r="A294" s="7"/>
-      <c r="D294" s="8"/>
-      <c r="E294" s="8"/>
+      <c r="A294" s="6"/>
+      <c r="D294" s="7"/>
+      <c r="E294" s="7"/>
     </row>
     <row r="295">
-      <c r="A295" s="7"/>
-      <c r="D295" s="8"/>
-      <c r="E295" s="8"/>
+      <c r="A295" s="6"/>
+      <c r="D295" s="7"/>
+      <c r="E295" s="7"/>
     </row>
     <row r="296">
-      <c r="A296" s="7"/>
-      <c r="D296" s="8"/>
-      <c r="E296" s="8"/>
+      <c r="A296" s="6"/>
+      <c r="D296" s="7"/>
+      <c r="E296" s="7"/>
     </row>
     <row r="297">
-      <c r="A297" s="7"/>
-      <c r="D297" s="8"/>
-      <c r="E297" s="8"/>
+      <c r="A297" s="6"/>
+      <c r="D297" s="7"/>
+      <c r="E297" s="7"/>
     </row>
     <row r="298">
-      <c r="A298" s="7"/>
-      <c r="D298" s="8"/>
-      <c r="E298" s="8"/>
+      <c r="A298" s="6"/>
+      <c r="D298" s="7"/>
+      <c r="E298" s="7"/>
     </row>
     <row r="299">
-      <c r="A299" s="7"/>
-      <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
+      <c r="A299" s="6"/>
+      <c r="D299" s="7"/>
+      <c r="E299" s="7"/>
     </row>
     <row r="300">
-      <c r="A300" s="7"/>
-      <c r="D300" s="8"/>
-      <c r="E300" s="8"/>
+      <c r="A300" s="6"/>
+      <c r="D300" s="7"/>
+      <c r="E300" s="7"/>
     </row>
     <row r="301">
-      <c r="A301" s="7"/>
-      <c r="D301" s="8"/>
-      <c r="E301" s="8"/>
+      <c r="A301" s="6"/>
+      <c r="D301" s="7"/>
+      <c r="E301" s="7"/>
     </row>
     <row r="302">
-      <c r="A302" s="7"/>
-      <c r="D302" s="8"/>
-      <c r="E302" s="8"/>
+      <c r="A302" s="6"/>
+      <c r="D302" s="7"/>
+      <c r="E302" s="7"/>
     </row>
     <row r="303">
-      <c r="A303" s="7"/>
-      <c r="D303" s="8"/>
-      <c r="E303" s="8"/>
+      <c r="A303" s="6"/>
+      <c r="D303" s="7"/>
+      <c r="E303" s="7"/>
     </row>
     <row r="304">
-      <c r="A304" s="7"/>
-      <c r="D304" s="8"/>
-      <c r="E304" s="8"/>
+      <c r="A304" s="6"/>
+      <c r="D304" s="7"/>
+      <c r="E304" s="7"/>
     </row>
     <row r="305">
-      <c r="A305" s="7"/>
-      <c r="D305" s="8"/>
-      <c r="E305" s="8"/>
+      <c r="A305" s="6"/>
+      <c r="D305" s="7"/>
+      <c r="E305" s="7"/>
     </row>
     <row r="306">
-      <c r="A306" s="7"/>
-      <c r="D306" s="8"/>
-      <c r="E306" s="8"/>
+      <c r="A306" s="6"/>
+      <c r="D306" s="7"/>
+      <c r="E306" s="7"/>
     </row>
     <row r="307">
-      <c r="A307" s="7"/>
-      <c r="D307" s="8"/>
-      <c r="E307" s="8"/>
+      <c r="A307" s="6"/>
+      <c r="D307" s="7"/>
+      <c r="E307" s="7"/>
     </row>
     <row r="308">
-      <c r="A308" s="7"/>
-      <c r="D308" s="8"/>
-      <c r="E308" s="8"/>
+      <c r="A308" s="6"/>
+      <c r="D308" s="7"/>
+      <c r="E308" s="7"/>
     </row>
     <row r="309">
-      <c r="A309" s="7"/>
-      <c r="D309" s="8"/>
-      <c r="E309" s="8"/>
+      <c r="A309" s="6"/>
+      <c r="D309" s="7"/>
+      <c r="E309" s="7"/>
     </row>
     <row r="310">
-      <c r="A310" s="7"/>
-      <c r="D310" s="8"/>
-      <c r="E310" s="8"/>
+      <c r="A310" s="6"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
     </row>
     <row r="311">
-      <c r="A311" s="7"/>
-      <c r="D311" s="8"/>
-      <c r="E311" s="8"/>
+      <c r="A311" s="6"/>
+      <c r="D311" s="7"/>
+      <c r="E311" s="7"/>
     </row>
     <row r="312">
-      <c r="A312" s="7"/>
-      <c r="D312" s="8"/>
-      <c r="E312" s="8"/>
+      <c r="A312" s="6"/>
+      <c r="D312" s="7"/>
+      <c r="E312" s="7"/>
     </row>
     <row r="313">
-      <c r="A313" s="7"/>
-      <c r="D313" s="8"/>
-      <c r="E313" s="8"/>
+      <c r="A313" s="6"/>
+      <c r="D313" s="7"/>
+      <c r="E313" s="7"/>
     </row>
     <row r="314">
-      <c r="A314" s="7"/>
-      <c r="D314" s="8"/>
-      <c r="E314" s="8"/>
+      <c r="A314" s="6"/>
+      <c r="D314" s="7"/>
+      <c r="E314" s="7"/>
     </row>
     <row r="315">
-      <c r="A315" s="7"/>
-      <c r="D315" s="8"/>
-      <c r="E315" s="8"/>
+      <c r="A315" s="6"/>
+      <c r="D315" s="7"/>
+      <c r="E315" s="7"/>
     </row>
     <row r="316">
-      <c r="A316" s="7"/>
-      <c r="D316" s="8"/>
-      <c r="E316" s="8"/>
+      <c r="A316" s="6"/>
+      <c r="D316" s="7"/>
+      <c r="E316" s="7"/>
     </row>
     <row r="317">
-      <c r="A317" s="7"/>
-      <c r="D317" s="8"/>
-      <c r="E317" s="8"/>
+      <c r="A317" s="6"/>
+      <c r="D317" s="7"/>
+      <c r="E317" s="7"/>
     </row>
     <row r="318">
-      <c r="A318" s="7"/>
-      <c r="D318" s="8"/>
-      <c r="E318" s="8"/>
+      <c r="A318" s="6"/>
+      <c r="D318" s="7"/>
+      <c r="E318" s="7"/>
     </row>
     <row r="319">
-      <c r="A319" s="7"/>
-      <c r="D319" s="8"/>
-      <c r="E319" s="8"/>
+      <c r="A319" s="6"/>
+      <c r="D319" s="7"/>
+      <c r="E319" s="7"/>
     </row>
     <row r="320">
-      <c r="A320" s="7"/>
-      <c r="D320" s="8"/>
-      <c r="E320" s="8"/>
+      <c r="A320" s="6"/>
+      <c r="D320" s="7"/>
+      <c r="E320" s="7"/>
     </row>
     <row r="321">
-      <c r="A321" s="7"/>
-      <c r="D321" s="8"/>
-      <c r="E321" s="8"/>
+      <c r="A321" s="6"/>
+      <c r="D321" s="7"/>
+      <c r="E321" s="7"/>
     </row>
     <row r="322">
-      <c r="A322" s="7"/>
-      <c r="D322" s="8"/>
-      <c r="E322" s="8"/>
+      <c r="A322" s="6"/>
+      <c r="D322" s="7"/>
+      <c r="E322" s="7"/>
     </row>
     <row r="323">
-      <c r="A323" s="7"/>
-      <c r="D323" s="8"/>
-      <c r="E323" s="8"/>
+      <c r="A323" s="6"/>
+      <c r="D323" s="7"/>
+      <c r="E323" s="7"/>
     </row>
     <row r="324">
-      <c r="A324" s="7"/>
-      <c r="D324" s="8"/>
-      <c r="E324" s="8"/>
+      <c r="A324" s="6"/>
+      <c r="D324" s="7"/>
+      <c r="E324" s="7"/>
     </row>
     <row r="325">
-      <c r="A325" s="7"/>
-      <c r="D325" s="8"/>
-      <c r="E325" s="8"/>
+      <c r="A325" s="6"/>
+      <c r="D325" s="7"/>
+      <c r="E325" s="7"/>
     </row>
     <row r="326">
-      <c r="A326" s="7"/>
-      <c r="D326" s="8"/>
-      <c r="E326" s="8"/>
+      <c r="A326" s="6"/>
+      <c r="D326" s="7"/>
+      <c r="E326" s="7"/>
     </row>
     <row r="327">
-      <c r="A327" s="7"/>
-      <c r="D327" s="8"/>
-      <c r="E327" s="8"/>
+      <c r="A327" s="6"/>
+      <c r="D327" s="7"/>
+      <c r="E327" s="7"/>
     </row>
     <row r="328">
-      <c r="A328" s="7"/>
-      <c r="D328" s="8"/>
-      <c r="E328" s="8"/>
+      <c r="A328" s="6"/>
+      <c r="D328" s="7"/>
+      <c r="E328" s="7"/>
     </row>
     <row r="329">
-      <c r="A329" s="7"/>
-      <c r="D329" s="8"/>
-      <c r="E329" s="8"/>
+      <c r="A329" s="6"/>
+      <c r="D329" s="7"/>
+      <c r="E329" s="7"/>
     </row>
     <row r="330">
-      <c r="A330" s="7"/>
-      <c r="D330" s="8"/>
-      <c r="E330" s="8"/>
+      <c r="A330" s="6"/>
+      <c r="D330" s="7"/>
+      <c r="E330" s="7"/>
     </row>
     <row r="331">
-      <c r="A331" s="7"/>
-      <c r="D331" s="8"/>
-      <c r="E331" s="8"/>
+      <c r="A331" s="6"/>
+      <c r="D331" s="7"/>
+      <c r="E331" s="7"/>
     </row>
     <row r="332">
-      <c r="A332" s="7"/>
-      <c r="D332" s="8"/>
-      <c r="E332" s="8"/>
+      <c r="A332" s="6"/>
+      <c r="D332" s="7"/>
+      <c r="E332" s="7"/>
     </row>
     <row r="333">
-      <c r="A333" s="7"/>
-      <c r="D333" s="8"/>
-      <c r="E333" s="8"/>
+      <c r="A333" s="6"/>
+      <c r="D333" s="7"/>
+      <c r="E333" s="7"/>
     </row>
     <row r="334">
-      <c r="A334" s="7"/>
-      <c r="D334" s="8"/>
-      <c r="E334" s="8"/>
+      <c r="A334" s="6"/>
+      <c r="D334" s="7"/>
+      <c r="E334" s="7"/>
     </row>
     <row r="335">
-      <c r="A335" s="7"/>
-      <c r="D335" s="8"/>
-      <c r="E335" s="8"/>
+      <c r="A335" s="6"/>
+      <c r="D335" s="7"/>
+      <c r="E335" s="7"/>
     </row>
     <row r="336">
-      <c r="A336" s="7"/>
-      <c r="D336" s="8"/>
-      <c r="E336" s="8"/>
+      <c r="A336" s="6"/>
+      <c r="D336" s="7"/>
+      <c r="E336" s="7"/>
     </row>
     <row r="337">
-      <c r="A337" s="7"/>
-      <c r="D337" s="8"/>
-      <c r="E337" s="8"/>
+      <c r="A337" s="6"/>
+      <c r="D337" s="7"/>
+      <c r="E337" s="7"/>
     </row>
     <row r="338">
-      <c r="A338" s="7"/>
-      <c r="D338" s="8"/>
-      <c r="E338" s="8"/>
+      <c r="A338" s="6"/>
+      <c r="D338" s="7"/>
+      <c r="E338" s="7"/>
     </row>
     <row r="339">
-      <c r="A339" s="7"/>
-      <c r="D339" s="8"/>
-      <c r="E339" s="8"/>
+      <c r="A339" s="6"/>
+      <c r="D339" s="7"/>
+      <c r="E339" s="7"/>
     </row>
     <row r="340">
-      <c r="A340" s="7"/>
-      <c r="D340" s="8"/>
-      <c r="E340" s="8"/>
+      <c r="A340" s="6"/>
+      <c r="D340" s="7"/>
+      <c r="E340" s="7"/>
     </row>
     <row r="341">
-      <c r="A341" s="7"/>
-      <c r="D341" s="8"/>
-      <c r="E341" s="8"/>
+      <c r="A341" s="6"/>
+      <c r="D341" s="7"/>
+      <c r="E341" s="7"/>
     </row>
     <row r="342">
-      <c r="A342" s="7"/>
-      <c r="D342" s="8"/>
-      <c r="E342" s="8"/>
+      <c r="A342" s="6"/>
+      <c r="D342" s="7"/>
+      <c r="E342" s="7"/>
     </row>
     <row r="343">
-      <c r="A343" s="7"/>
-      <c r="D343" s="8"/>
-      <c r="E343" s="8"/>
+      <c r="A343" s="6"/>
+      <c r="D343" s="7"/>
+      <c r="E343" s="7"/>
     </row>
     <row r="344">
-      <c r="A344" s="7"/>
-      <c r="D344" s="8"/>
-      <c r="E344" s="8"/>
+      <c r="A344" s="6"/>
+      <c r="D344" s="7"/>
+      <c r="E344" s="7"/>
     </row>
     <row r="345">
-      <c r="A345" s="7"/>
-      <c r="D345" s="8"/>
-      <c r="E345" s="8"/>
+      <c r="A345" s="6"/>
+      <c r="D345" s="7"/>
+      <c r="E345" s="7"/>
     </row>
     <row r="346">
-      <c r="A346" s="7"/>
-      <c r="D346" s="8"/>
-      <c r="E346" s="8"/>
+      <c r="A346" s="6"/>
+      <c r="D346" s="7"/>
+      <c r="E346" s="7"/>
     </row>
     <row r="347">
-      <c r="A347" s="7"/>
-      <c r="D347" s="8"/>
-      <c r="E347" s="8"/>
+      <c r="A347" s="6"/>
+      <c r="D347" s="7"/>
+      <c r="E347" s="7"/>
     </row>
     <row r="348">
-      <c r="A348" s="7"/>
-      <c r="D348" s="8"/>
-      <c r="E348" s="8"/>
+      <c r="A348" s="6"/>
+      <c r="D348" s="7"/>
+      <c r="E348" s="7"/>
     </row>
     <row r="349">
-      <c r="A349" s="7"/>
-      <c r="D349" s="8"/>
-      <c r="E349" s="8"/>
+      <c r="A349" s="6"/>
+      <c r="D349" s="7"/>
+      <c r="E349" s="7"/>
     </row>
     <row r="350">
-      <c r="A350" s="7"/>
-      <c r="D350" s="8"/>
-      <c r="E350" s="8"/>
+      <c r="A350" s="6"/>
+      <c r="D350" s="7"/>
+      <c r="E350" s="7"/>
     </row>
     <row r="351">
-      <c r="A351" s="7"/>
-      <c r="D351" s="8"/>
-      <c r="E351" s="8"/>
+      <c r="A351" s="6"/>
+      <c r="D351" s="7"/>
+      <c r="E351" s="7"/>
     </row>
     <row r="352">
-      <c r="A352" s="7"/>
-      <c r="D352" s="8"/>
-      <c r="E352" s="8"/>
+      <c r="A352" s="6"/>
+      <c r="D352" s="7"/>
+      <c r="E352" s="7"/>
     </row>
     <row r="353">
-      <c r="A353" s="7"/>
-      <c r="D353" s="8"/>
-      <c r="E353" s="8"/>
+      <c r="A353" s="6"/>
+      <c r="D353" s="7"/>
+      <c r="E353" s="7"/>
     </row>
     <row r="354">
-      <c r="A354" s="7"/>
-      <c r="D354" s="8"/>
-      <c r="E354" s="8"/>
+      <c r="A354" s="6"/>
+      <c r="D354" s="7"/>
+      <c r="E354" s="7"/>
     </row>
     <row r="355">
-      <c r="A355" s="7"/>
-      <c r="D355" s="8"/>
-      <c r="E355" s="8"/>
+      <c r="A355" s="6"/>
+      <c r="D355" s="7"/>
+      <c r="E355" s="7"/>
     </row>
     <row r="356">
-      <c r="A356" s="7"/>
-      <c r="D356" s="8"/>
-      <c r="E356" s="8"/>
+      <c r="A356" s="6"/>
+      <c r="D356" s="7"/>
+      <c r="E356" s="7"/>
     </row>
     <row r="357">
-      <c r="A357" s="7"/>
-      <c r="D357" s="8"/>
-      <c r="E357" s="8"/>
+      <c r="A357" s="6"/>
+      <c r="D357" s="7"/>
+      <c r="E357" s="7"/>
     </row>
     <row r="358">
-      <c r="A358" s="7"/>
-      <c r="D358" s="8"/>
-      <c r="E358" s="8"/>
+      <c r="A358" s="6"/>
+      <c r="D358" s="7"/>
+      <c r="E358" s="7"/>
     </row>
     <row r="359">
-      <c r="A359" s="7"/>
-      <c r="D359" s="8"/>
-      <c r="E359" s="8"/>
+      <c r="A359" s="6"/>
+      <c r="D359" s="7"/>
+      <c r="E359" s="7"/>
     </row>
     <row r="360">
-      <c r="A360" s="7"/>
-      <c r="D360" s="8"/>
-      <c r="E360" s="8"/>
+      <c r="A360" s="6"/>
+      <c r="D360" s="7"/>
+      <c r="E360" s="7"/>
     </row>
     <row r="361">
-      <c r="A361" s="7"/>
-      <c r="D361" s="8"/>
-      <c r="E361" s="8"/>
+      <c r="A361" s="6"/>
+      <c r="D361" s="7"/>
+      <c r="E361" s="7"/>
     </row>
     <row r="362">
-      <c r="A362" s="7"/>
-      <c r="D362" s="8"/>
-      <c r="E362" s="8"/>
+      <c r="A362" s="6"/>
+      <c r="D362" s="7"/>
+      <c r="E362" s="7"/>
     </row>
     <row r="363">
-      <c r="A363" s="7"/>
-      <c r="D363" s="8"/>
-      <c r="E363" s="8"/>
+      <c r="A363" s="6"/>
+      <c r="D363" s="7"/>
+      <c r="E363" s="7"/>
     </row>
     <row r="364">
-      <c r="A364" s="7"/>
-      <c r="D364" s="8"/>
-      <c r="E364" s="8"/>
+      <c r="A364" s="6"/>
+      <c r="D364" s="7"/>
+      <c r="E364" s="7"/>
     </row>
     <row r="365">
-      <c r="A365" s="7"/>
-      <c r="D365" s="8"/>
-      <c r="E365" s="8"/>
+      <c r="A365" s="6"/>
+      <c r="D365" s="7"/>
+      <c r="E365" s="7"/>
     </row>
     <row r="366">
-      <c r="A366" s="7"/>
-      <c r="D366" s="8"/>
-      <c r="E366" s="8"/>
+      <c r="A366" s="6"/>
+      <c r="D366" s="7"/>
+      <c r="E366" s="7"/>
     </row>
     <row r="367">
-      <c r="A367" s="7"/>
-      <c r="D367" s="8"/>
-      <c r="E367" s="8"/>
+      <c r="A367" s="6"/>
+      <c r="D367" s="7"/>
+      <c r="E367" s="7"/>
     </row>
     <row r="368">
-      <c r="A368" s="7"/>
-      <c r="D368" s="8"/>
-      <c r="E368" s="8"/>
+      <c r="A368" s="6"/>
+      <c r="D368" s="7"/>
+      <c r="E368" s="7"/>
     </row>
     <row r="369">
-      <c r="A369" s="7"/>
-      <c r="D369" s="8"/>
-      <c r="E369" s="8"/>
+      <c r="A369" s="6"/>
+      <c r="D369" s="7"/>
+      <c r="E369" s="7"/>
     </row>
     <row r="370">
-      <c r="A370" s="7"/>
-      <c r="D370" s="8"/>
-      <c r="E370" s="8"/>
+      <c r="A370" s="6"/>
+      <c r="D370" s="7"/>
+      <c r="E370" s="7"/>
     </row>
     <row r="371">
-      <c r="A371" s="7"/>
-      <c r="D371" s="8"/>
-      <c r="E371" s="8"/>
+      <c r="A371" s="6"/>
+      <c r="D371" s="7"/>
+      <c r="E371" s="7"/>
     </row>
     <row r="372">
-      <c r="A372" s="7"/>
-      <c r="D372" s="8"/>
-      <c r="E372" s="8"/>
+      <c r="A372" s="6"/>
+      <c r="D372" s="7"/>
+      <c r="E372" s="7"/>
     </row>
     <row r="373">
-      <c r="A373" s="7"/>
-      <c r="D373" s="8"/>
-      <c r="E373" s="8"/>
+      <c r="A373" s="6"/>
+      <c r="D373" s="7"/>
+      <c r="E373" s="7"/>
     </row>
     <row r="374">
-      <c r="A374" s="7"/>
-      <c r="D374" s="8"/>
-      <c r="E374" s="8"/>
+      <c r="A374" s="6"/>
+      <c r="D374" s="7"/>
+      <c r="E374" s="7"/>
     </row>
     <row r="375">
-      <c r="A375" s="7"/>
-      <c r="D375" s="8"/>
-      <c r="E375" s="8"/>
+      <c r="A375" s="6"/>
+      <c r="D375" s="7"/>
+      <c r="E375" s="7"/>
     </row>
     <row r="376">
-      <c r="A376" s="7"/>
-      <c r="D376" s="8"/>
-      <c r="E376" s="8"/>
+      <c r="A376" s="6"/>
+      <c r="D376" s="7"/>
+      <c r="E376" s="7"/>
     </row>
     <row r="377">
-      <c r="A377" s="7"/>
-      <c r="D377" s="8"/>
-      <c r="E377" s="8"/>
+      <c r="A377" s="6"/>
+      <c r="D377" s="7"/>
+      <c r="E377" s="7"/>
     </row>
     <row r="378">
-      <c r="A378" s="7"/>
-      <c r="D378" s="8"/>
-      <c r="E378" s="8"/>
+      <c r="A378" s="6"/>
+      <c r="D378" s="7"/>
+      <c r="E378" s="7"/>
     </row>
     <row r="379">
-      <c r="A379" s="7"/>
-      <c r="D379" s="8"/>
-      <c r="E379" s="8"/>
+      <c r="A379" s="6"/>
+      <c r="D379" s="7"/>
+      <c r="E379" s="7"/>
     </row>
     <row r="380">
-      <c r="A380" s="7"/>
-      <c r="D380" s="8"/>
-      <c r="E380" s="8"/>
+      <c r="A380" s="6"/>
+      <c r="D380" s="7"/>
+      <c r="E380" s="7"/>
     </row>
     <row r="381">
-      <c r="A381" s="7"/>
-      <c r="D381" s="8"/>
-      <c r="E381" s="8"/>
+      <c r="A381" s="6"/>
+      <c r="D381" s="7"/>
+      <c r="E381" s="7"/>
     </row>
     <row r="382">
-      <c r="A382" s="7"/>
-      <c r="D382" s="8"/>
-      <c r="E382" s="8"/>
+      <c r="A382" s="6"/>
+      <c r="D382" s="7"/>
+      <c r="E382" s="7"/>
     </row>
     <row r="383">
-      <c r="A383" s="7"/>
-      <c r="D383" s="8"/>
-      <c r="E383" s="8"/>
+      <c r="A383" s="6"/>
+      <c r="D383" s="7"/>
+      <c r="E383" s="7"/>
     </row>
     <row r="384">
-      <c r="A384" s="7"/>
-      <c r="D384" s="8"/>
-      <c r="E384" s="8"/>
+      <c r="A384" s="6"/>
+      <c r="D384" s="7"/>
+      <c r="E384" s="7"/>
     </row>
     <row r="385">
-      <c r="A385" s="7"/>
-      <c r="D385" s="8"/>
-      <c r="E385" s="8"/>
+      <c r="A385" s="6"/>
+      <c r="D385" s="7"/>
+      <c r="E385" s="7"/>
     </row>
     <row r="386">
-      <c r="A386" s="7"/>
-      <c r="D386" s="8"/>
-      <c r="E386" s="8"/>
+      <c r="A386" s="6"/>
+      <c r="D386" s="7"/>
+      <c r="E386" s="7"/>
     </row>
     <row r="387">
-      <c r="A387" s="7"/>
-      <c r="D387" s="8"/>
-      <c r="E387" s="8"/>
+      <c r="A387" s="6"/>
+      <c r="D387" s="7"/>
+      <c r="E387" s="7"/>
     </row>
     <row r="388">
-      <c r="A388" s="7"/>
-      <c r="D388" s="8"/>
-      <c r="E388" s="8"/>
+      <c r="A388" s="6"/>
+      <c r="D388" s="7"/>
+      <c r="E388" s="7"/>
     </row>
     <row r="389">
-      <c r="A389" s="7"/>
-      <c r="D389" s="8"/>
-      <c r="E389" s="8"/>
+      <c r="A389" s="6"/>
+      <c r="D389" s="7"/>
+      <c r="E389" s="7"/>
     </row>
     <row r="390">
-      <c r="A390" s="7"/>
-      <c r="D390" s="8"/>
-      <c r="E390" s="8"/>
+      <c r="A390" s="6"/>
+      <c r="D390" s="7"/>
+      <c r="E390" s="7"/>
     </row>
     <row r="391">
-      <c r="A391" s="7"/>
-      <c r="D391" s="8"/>
-      <c r="E391" s="8"/>
+      <c r="A391" s="6"/>
+      <c r="D391" s="7"/>
+      <c r="E391" s="7"/>
     </row>
     <row r="392">
-      <c r="A392" s="7"/>
-      <c r="D392" s="8"/>
-      <c r="E392" s="8"/>
+      <c r="A392" s="6"/>
+      <c r="D392" s="7"/>
+      <c r="E392" s="7"/>
     </row>
     <row r="393">
-      <c r="A393" s="7"/>
-      <c r="D393" s="8"/>
-      <c r="E393" s="8"/>
+      <c r="A393" s="6"/>
+      <c r="D393" s="7"/>
+      <c r="E393" s="7"/>
     </row>
     <row r="394">
-      <c r="A394" s="7"/>
-      <c r="D394" s="8"/>
-      <c r="E394" s="8"/>
+      <c r="A394" s="6"/>
+      <c r="D394" s="7"/>
+      <c r="E394" s="7"/>
     </row>
     <row r="395">
-      <c r="A395" s="7"/>
-      <c r="D395" s="8"/>
-      <c r="E395" s="8"/>
+      <c r="A395" s="6"/>
+      <c r="D395" s="7"/>
+      <c r="E395" s="7"/>
     </row>
     <row r="396">
-      <c r="A396" s="7"/>
-      <c r="D396" s="8"/>
-      <c r="E396" s="8"/>
+      <c r="A396" s="6"/>
+      <c r="D396" s="7"/>
+      <c r="E396" s="7"/>
     </row>
     <row r="397">
-      <c r="A397" s="7"/>
-      <c r="D397" s="8"/>
-      <c r="E397" s="8"/>
+      <c r="A397" s="6"/>
+      <c r="D397" s="7"/>
+      <c r="E397" s="7"/>
     </row>
     <row r="398">
-      <c r="A398" s="7"/>
-      <c r="D398" s="8"/>
-      <c r="E398" s="8"/>
+      <c r="A398" s="6"/>
+      <c r="D398" s="7"/>
+      <c r="E398" s="7"/>
     </row>
     <row r="399">
-      <c r="A399" s="7"/>
-      <c r="D399" s="8"/>
-      <c r="E399" s="8"/>
+      <c r="A399" s="6"/>
+      <c r="D399" s="7"/>
+      <c r="E399" s="7"/>
     </row>
     <row r="400">
-      <c r="A400" s="7"/>
-      <c r="D400" s="8"/>
-      <c r="E400" s="8"/>
+      <c r="A400" s="6"/>
+      <c r="D400" s="7"/>
+      <c r="E400" s="7"/>
     </row>
     <row r="401">
-      <c r="A401" s="7"/>
-      <c r="D401" s="8"/>
-      <c r="E401" s="8"/>
+      <c r="A401" s="6"/>
+      <c r="D401" s="7"/>
+      <c r="E401" s="7"/>
     </row>
     <row r="402">
-      <c r="A402" s="7"/>
-      <c r="D402" s="8"/>
-      <c r="E402" s="8"/>
+      <c r="A402" s="6"/>
+      <c r="D402" s="7"/>
+      <c r="E402" s="7"/>
     </row>
     <row r="403">
-      <c r="A403" s="7"/>
-      <c r="D403" s="8"/>
-      <c r="E403" s="8"/>
+      <c r="A403" s="6"/>
+      <c r="D403" s="7"/>
+      <c r="E403" s="7"/>
     </row>
     <row r="404">
-      <c r="A404" s="7"/>
-      <c r="D404" s="8"/>
-      <c r="E404" s="8"/>
+      <c r="A404" s="6"/>
+      <c r="D404" s="7"/>
+      <c r="E404" s="7"/>
     </row>
     <row r="405">
-      <c r="A405" s="7"/>
-      <c r="D405" s="8"/>
-      <c r="E405" s="8"/>
+      <c r="A405" s="6"/>
+      <c r="D405" s="7"/>
+      <c r="E405" s="7"/>
     </row>
     <row r="406">
-      <c r="A406" s="7"/>
-      <c r="D406" s="8"/>
-      <c r="E406" s="8"/>
+      <c r="A406" s="6"/>
+      <c r="D406" s="7"/>
+      <c r="E406" s="7"/>
     </row>
     <row r="407">
-      <c r="A407" s="7"/>
-      <c r="D407" s="8"/>
-      <c r="E407" s="8"/>
+      <c r="A407" s="6"/>
+      <c r="D407" s="7"/>
+      <c r="E407" s="7"/>
     </row>
     <row r="408">
-      <c r="A408" s="7"/>
-      <c r="D408" s="8"/>
-      <c r="E408" s="8"/>
+      <c r="A408" s="6"/>
+      <c r="D408" s="7"/>
+      <c r="E408" s="7"/>
     </row>
     <row r="409">
-      <c r="A409" s="7"/>
-      <c r="D409" s="8"/>
-      <c r="E409" s="8"/>
+      <c r="A409" s="6"/>
+      <c r="D409" s="7"/>
+      <c r="E409" s="7"/>
     </row>
     <row r="410">
-      <c r="A410" s="7"/>
-      <c r="D410" s="8"/>
-      <c r="E410" s="8"/>
+      <c r="A410" s="6"/>
+      <c r="D410" s="7"/>
+      <c r="E410" s="7"/>
     </row>
     <row r="411">
-      <c r="A411" s="7"/>
-      <c r="D411" s="8"/>
-      <c r="E411" s="8"/>
+      <c r="A411" s="6"/>
+      <c r="D411" s="7"/>
+      <c r="E411" s="7"/>
     </row>
     <row r="412">
-      <c r="A412" s="7"/>
-      <c r="D412" s="8"/>
-      <c r="E412" s="8"/>
+      <c r="A412" s="6"/>
+      <c r="D412" s="7"/>
+      <c r="E412" s="7"/>
     </row>
     <row r="413">
-      <c r="A413" s="7"/>
-      <c r="D413" s="8"/>
-      <c r="E413" s="8"/>
+      <c r="A413" s="6"/>
+      <c r="D413" s="7"/>
+      <c r="E413" s="7"/>
     </row>
     <row r="414">
-      <c r="A414" s="7"/>
-      <c r="D414" s="8"/>
-      <c r="E414" s="8"/>
+      <c r="A414" s="6"/>
+      <c r="D414" s="7"/>
+      <c r="E414" s="7"/>
     </row>
     <row r="415">
-      <c r="A415" s="7"/>
-      <c r="D415" s="8"/>
-      <c r="E415" s="8"/>
+      <c r="A415" s="6"/>
+      <c r="D415" s="7"/>
+      <c r="E415" s="7"/>
     </row>
     <row r="416">
-      <c r="A416" s="7"/>
-      <c r="D416" s="8"/>
-      <c r="E416" s="8"/>
+      <c r="A416" s="6"/>
+      <c r="D416" s="7"/>
+      <c r="E416" s="7"/>
     </row>
     <row r="417">
-      <c r="A417" s="7"/>
-      <c r="D417" s="8"/>
-      <c r="E417" s="8"/>
+      <c r="A417" s="6"/>
+      <c r="D417" s="7"/>
+      <c r="E417" s="7"/>
     </row>
     <row r="418">
-      <c r="A418" s="7"/>
-      <c r="D418" s="8"/>
-      <c r="E418" s="8"/>
+      <c r="A418" s="6"/>
+      <c r="D418" s="7"/>
+      <c r="E418" s="7"/>
     </row>
     <row r="419">
-      <c r="A419" s="7"/>
-      <c r="D419" s="8"/>
-      <c r="E419" s="8"/>
+      <c r="A419" s="6"/>
+      <c r="D419" s="7"/>
+      <c r="E419" s="7"/>
     </row>
     <row r="420">
-      <c r="A420" s="7"/>
-      <c r="D420" s="8"/>
-      <c r="E420" s="8"/>
+      <c r="A420" s="6"/>
+      <c r="D420" s="7"/>
+      <c r="E420" s="7"/>
     </row>
     <row r="421">
-      <c r="A421" s="7"/>
-      <c r="D421" s="8"/>
-      <c r="E421" s="8"/>
+      <c r="A421" s="6"/>
+      <c r="D421" s="7"/>
+      <c r="E421" s="7"/>
     </row>
     <row r="422">
-      <c r="A422" s="7"/>
-      <c r="D422" s="8"/>
-      <c r="E422" s="8"/>
+      <c r="A422" s="6"/>
+      <c r="D422" s="7"/>
+      <c r="E422" s="7"/>
     </row>
     <row r="423">
-      <c r="A423" s="7"/>
-      <c r="D423" s="8"/>
-      <c r="E423" s="8"/>
+      <c r="A423" s="6"/>
+      <c r="D423" s="7"/>
+      <c r="E423" s="7"/>
     </row>
     <row r="424">
-      <c r="A424" s="7"/>
-      <c r="D424" s="8"/>
-      <c r="E424" s="8"/>
+      <c r="A424" s="6"/>
+      <c r="D424" s="7"/>
+      <c r="E424" s="7"/>
     </row>
     <row r="425">
-      <c r="A425" s="7"/>
-      <c r="D425" s="8"/>
-      <c r="E425" s="8"/>
+      <c r="A425" s="6"/>
+      <c r="D425" s="7"/>
+      <c r="E425" s="7"/>
     </row>
     <row r="426">
-      <c r="A426" s="7"/>
-      <c r="D426" s="8"/>
-      <c r="E426" s="8"/>
+      <c r="A426" s="6"/>
+      <c r="D426" s="7"/>
+      <c r="E426" s="7"/>
     </row>
     <row r="427">
-      <c r="A427" s="7"/>
-      <c r="D427" s="8"/>
-      <c r="E427" s="8"/>
+      <c r="A427" s="6"/>
+      <c r="D427" s="7"/>
+      <c r="E427" s="7"/>
     </row>
     <row r="428">
-      <c r="A428" s="7"/>
-      <c r="D428" s="8"/>
-      <c r="E428" s="8"/>
+      <c r="A428" s="6"/>
+      <c r="D428" s="7"/>
+      <c r="E428" s="7"/>
     </row>
     <row r="429">
-      <c r="A429" s="7"/>
-      <c r="D429" s="8"/>
-      <c r="E429" s="8"/>
+      <c r="A429" s="6"/>
+      <c r="D429" s="7"/>
+      <c r="E429" s="7"/>
     </row>
     <row r="430">
-      <c r="A430" s="7"/>
-      <c r="D430" s="8"/>
-      <c r="E430" s="8"/>
+      <c r="A430" s="6"/>
+      <c r="D430" s="7"/>
+      <c r="E430" s="7"/>
     </row>
     <row r="431">
-      <c r="A431" s="7"/>
-      <c r="D431" s="8"/>
-      <c r="E431" s="8"/>
+      <c r="A431" s="6"/>
+      <c r="D431" s="7"/>
+      <c r="E431" s="7"/>
     </row>
     <row r="432">
-      <c r="A432" s="7"/>
-      <c r="D432" s="8"/>
-      <c r="E432" s="8"/>
+      <c r="A432" s="6"/>
+      <c r="D432" s="7"/>
+      <c r="E432" s="7"/>
     </row>
     <row r="433">
-      <c r="A433" s="7"/>
-      <c r="D433" s="8"/>
-      <c r="E433" s="8"/>
+      <c r="A433" s="6"/>
+      <c r="D433" s="7"/>
+      <c r="E433" s="7"/>
     </row>
     <row r="434">
-      <c r="A434" s="7"/>
-      <c r="D434" s="8"/>
-      <c r="E434" s="8"/>
+      <c r="A434" s="6"/>
+      <c r="D434" s="7"/>
+      <c r="E434" s="7"/>
     </row>
     <row r="435">
-      <c r="A435" s="7"/>
-      <c r="D435" s="8"/>
-      <c r="E435" s="8"/>
+      <c r="A435" s="6"/>
+      <c r="D435" s="7"/>
+      <c r="E435" s="7"/>
     </row>
     <row r="436">
-      <c r="A436" s="7"/>
-      <c r="D436" s="8"/>
-      <c r="E436" s="8"/>
+      <c r="A436" s="6"/>
+      <c r="D436" s="7"/>
+      <c r="E436" s="7"/>
     </row>
     <row r="437">
-      <c r="A437" s="7"/>
-      <c r="D437" s="8"/>
-      <c r="E437" s="8"/>
+      <c r="A437" s="6"/>
+      <c r="D437" s="7"/>
+      <c r="E437" s="7"/>
     </row>
     <row r="438">
-      <c r="A438" s="7"/>
-      <c r="D438" s="8"/>
-      <c r="E438" s="8"/>
+      <c r="A438" s="6"/>
+      <c r="D438" s="7"/>
+      <c r="E438" s="7"/>
     </row>
     <row r="439">
-      <c r="A439" s="7"/>
-      <c r="D439" s="8"/>
-      <c r="E439" s="8"/>
+      <c r="A439" s="6"/>
+      <c r="D439" s="7"/>
+      <c r="E439" s="7"/>
     </row>
     <row r="440">
-      <c r="A440" s="7"/>
-      <c r="D440" s="8"/>
-      <c r="E440" s="8"/>
+      <c r="A440" s="6"/>
+      <c r="D440" s="7"/>
+      <c r="E440" s="7"/>
     </row>
     <row r="441">
-      <c r="A441" s="7"/>
-      <c r="D441" s="8"/>
-      <c r="E441" s="8"/>
+      <c r="A441" s="6"/>
+      <c r="D441" s="7"/>
+      <c r="E441" s="7"/>
     </row>
     <row r="442">
-      <c r="A442" s="7"/>
-      <c r="D442" s="8"/>
-      <c r="E442" s="8"/>
+      <c r="A442" s="6"/>
+      <c r="D442" s="7"/>
+      <c r="E442" s="7"/>
     </row>
     <row r="443">
-      <c r="A443" s="7"/>
-      <c r="D443" s="8"/>
-      <c r="E443" s="8"/>
+      <c r="A443" s="6"/>
+      <c r="D443" s="7"/>
+      <c r="E443" s="7"/>
     </row>
     <row r="444">
-      <c r="A444" s="7"/>
-      <c r="D444" s="8"/>
-      <c r="E444" s="8"/>
+      <c r="A444" s="6"/>
+      <c r="D444" s="7"/>
+      <c r="E444" s="7"/>
     </row>
     <row r="445">
-      <c r="A445" s="7"/>
-      <c r="D445" s="8"/>
-      <c r="E445" s="8"/>
+      <c r="A445" s="6"/>
+      <c r="D445" s="7"/>
+      <c r="E445" s="7"/>
     </row>
     <row r="446">
-      <c r="A446" s="7"/>
-      <c r="D446" s="8"/>
-      <c r="E446" s="8"/>
+      <c r="A446" s="6"/>
+      <c r="D446" s="7"/>
+      <c r="E446" s="7"/>
     </row>
     <row r="447">
-      <c r="A447" s="7"/>
-      <c r="D447" s="8"/>
-      <c r="E447" s="8"/>
+      <c r="A447" s="6"/>
+      <c r="D447" s="7"/>
+      <c r="E447" s="7"/>
     </row>
     <row r="448">
-      <c r="A448" s="7"/>
-      <c r="D448" s="8"/>
-      <c r="E448" s="8"/>
+      <c r="A448" s="6"/>
+      <c r="D448" s="7"/>
+      <c r="E448" s="7"/>
     </row>
     <row r="449">
-      <c r="A449" s="7"/>
-      <c r="D449" s="8"/>
-      <c r="E449" s="8"/>
+      <c r="A449" s="6"/>
+      <c r="D449" s="7"/>
+      <c r="E449" s="7"/>
     </row>
     <row r="450">
-      <c r="A450" s="7"/>
-      <c r="D450" s="8"/>
-      <c r="E450" s="8"/>
+      <c r="A450" s="6"/>
+      <c r="D450" s="7"/>
+      <c r="E450" s="7"/>
     </row>
     <row r="451">
-      <c r="A451" s="7"/>
-      <c r="D451" s="8"/>
-      <c r="E451" s="8"/>
+      <c r="A451" s="6"/>
+      <c r="D451" s="7"/>
+      <c r="E451" s="7"/>
     </row>
     <row r="452">
-      <c r="A452" s="7"/>
-      <c r="D452" s="8"/>
-      <c r="E452" s="8"/>
+      <c r="A452" s="6"/>
+      <c r="D452" s="7"/>
+      <c r="E452" s="7"/>
     </row>
     <row r="453">
-      <c r="A453" s="7"/>
-      <c r="D453" s="8"/>
-      <c r="E453" s="8"/>
+      <c r="A453" s="6"/>
+      <c r="D453" s="7"/>
+      <c r="E453" s="7"/>
     </row>
     <row r="454">
-      <c r="A454" s="7"/>
-      <c r="D454" s="8"/>
-      <c r="E454" s="8"/>
+      <c r="A454" s="6"/>
+      <c r="D454" s="7"/>
+      <c r="E454" s="7"/>
     </row>
     <row r="455">
-      <c r="A455" s="7"/>
-      <c r="D455" s="8"/>
-      <c r="E455" s="8"/>
+      <c r="A455" s="6"/>
+      <c r="D455" s="7"/>
+      <c r="E455" s="7"/>
     </row>
     <row r="456">
-      <c r="A456" s="7"/>
-      <c r="D456" s="8"/>
-      <c r="E456" s="8"/>
+      <c r="A456" s="6"/>
+      <c r="D456" s="7"/>
+      <c r="E456" s="7"/>
     </row>
     <row r="457">
-      <c r="A457" s="7"/>
-      <c r="D457" s="8"/>
-      <c r="E457" s="8"/>
+      <c r="A457" s="6"/>
+      <c r="D457" s="7"/>
+      <c r="E457" s="7"/>
     </row>
     <row r="458">
-      <c r="A458" s="7"/>
-      <c r="D458" s="8"/>
-      <c r="E458" s="8"/>
+      <c r="A458" s="6"/>
+      <c r="D458" s="7"/>
+      <c r="E458" s="7"/>
     </row>
     <row r="459">
-      <c r="A459" s="7"/>
-      <c r="D459" s="8"/>
-      <c r="E459" s="8"/>
+      <c r="A459" s="6"/>
+      <c r="D459" s="7"/>
+      <c r="E459" s="7"/>
     </row>
     <row r="460">
-      <c r="A460" s="7"/>
-      <c r="D460" s="8"/>
-      <c r="E460" s="8"/>
+      <c r="A460" s="6"/>
+      <c r="D460" s="7"/>
+      <c r="E460" s="7"/>
     </row>
     <row r="461">
-      <c r="A461" s="7"/>
-      <c r="D461" s="8"/>
-      <c r="E461" s="8"/>
+      <c r="A461" s="6"/>
+      <c r="D461" s="7"/>
+      <c r="E461" s="7"/>
     </row>
     <row r="462">
-      <c r="A462" s="7"/>
-      <c r="D462" s="8"/>
-      <c r="E462" s="8"/>
+      <c r="A462" s="6"/>
+      <c r="D462" s="7"/>
+      <c r="E462" s="7"/>
     </row>
     <row r="463">
-      <c r="A463" s="7"/>
-      <c r="D463" s="8"/>
-      <c r="E463" s="8"/>
+      <c r="A463" s="6"/>
+      <c r="D463" s="7"/>
+      <c r="E463" s="7"/>
     </row>
     <row r="464">
-      <c r="A464" s="7"/>
-      <c r="D464" s="8"/>
-      <c r="E464" s="8"/>
+      <c r="A464" s="6"/>
+      <c r="D464" s="7"/>
+      <c r="E464" s="7"/>
     </row>
     <row r="465">
-      <c r="A465" s="7"/>
-      <c r="D465" s="8"/>
-      <c r="E465" s="8"/>
+      <c r="A465" s="6"/>
+      <c r="D465" s="7"/>
+      <c r="E465" s="7"/>
     </row>
     <row r="466">
-      <c r="A466" s="7"/>
-      <c r="D466" s="8"/>
-      <c r="E466" s="8"/>
+      <c r="A466" s="6"/>
+      <c r="D466" s="7"/>
+      <c r="E466" s="7"/>
     </row>
     <row r="467">
-      <c r="A467" s="7"/>
-      <c r="D467" s="8"/>
-      <c r="E467" s="8"/>
+      <c r="A467" s="6"/>
+      <c r="D467" s="7"/>
+      <c r="E467" s="7"/>
     </row>
     <row r="468">
-      <c r="A468" s="7"/>
-      <c r="D468" s="8"/>
-      <c r="E468" s="8"/>
+      <c r="A468" s="6"/>
+      <c r="D468" s="7"/>
+      <c r="E468" s="7"/>
     </row>
     <row r="469">
-      <c r="A469" s="7"/>
-      <c r="D469" s="8"/>
-      <c r="E469" s="8"/>
+      <c r="A469" s="6"/>
+      <c r="D469" s="7"/>
+      <c r="E469" s="7"/>
     </row>
     <row r="470">
-      <c r="A470" s="7"/>
-      <c r="D470" s="8"/>
-      <c r="E470" s="8"/>
+      <c r="A470" s="6"/>
+      <c r="D470" s="7"/>
+      <c r="E470" s="7"/>
     </row>
     <row r="471">
-      <c r="A471" s="7"/>
-      <c r="D471" s="8"/>
-      <c r="E471" s="8"/>
+      <c r="A471" s="6"/>
+      <c r="D471" s="7"/>
+      <c r="E471" s="7"/>
     </row>
     <row r="472">
-      <c r="A472" s="7"/>
-      <c r="D472" s="8"/>
-      <c r="E472" s="8"/>
+      <c r="A472" s="6"/>
+      <c r="D472" s="7"/>
+      <c r="E472" s="7"/>
     </row>
     <row r="473">
-      <c r="A473" s="7"/>
-      <c r="D473" s="8"/>
-      <c r="E473" s="8"/>
+      <c r="A473" s="6"/>
+      <c r="D473" s="7"/>
+      <c r="E473" s="7"/>
     </row>
     <row r="474">
-      <c r="A474" s="7"/>
-      <c r="D474" s="8"/>
-      <c r="E474" s="8"/>
+      <c r="A474" s="6"/>
+      <c r="D474" s="7"/>
+      <c r="E474" s="7"/>
     </row>
     <row r="475">
-      <c r="A475" s="7"/>
-      <c r="D475" s="8"/>
-      <c r="E475" s="8"/>
+      <c r="A475" s="6"/>
+      <c r="D475" s="7"/>
+      <c r="E475" s="7"/>
     </row>
     <row r="476">
-      <c r="A476" s="7"/>
-      <c r="D476" s="8"/>
-      <c r="E476" s="8"/>
+      <c r="A476" s="6"/>
+      <c r="D476" s="7"/>
+      <c r="E476" s="7"/>
     </row>
     <row r="477">
-      <c r="A477" s="7"/>
-      <c r="D477" s="8"/>
-      <c r="E477" s="8"/>
+      <c r="A477" s="6"/>
+      <c r="D477" s="7"/>
+      <c r="E477" s="7"/>
     </row>
     <row r="478">
-      <c r="A478" s="7"/>
-      <c r="D478" s="8"/>
-      <c r="E478" s="8"/>
+      <c r="A478" s="6"/>
+      <c r="D478" s="7"/>
+      <c r="E478" s="7"/>
     </row>
     <row r="479">
-      <c r="A479" s="7"/>
-      <c r="D479" s="8"/>
-      <c r="E479" s="8"/>
+      <c r="A479" s="6"/>
+      <c r="D479" s="7"/>
+      <c r="E479" s="7"/>
     </row>
     <row r="480">
-      <c r="A480" s="7"/>
-      <c r="D480" s="8"/>
-      <c r="E480" s="8"/>
+      <c r="A480" s="6"/>
+      <c r="D480" s="7"/>
+      <c r="E480" s="7"/>
     </row>
     <row r="481">
-      <c r="A481" s="7"/>
-      <c r="D481" s="8"/>
-      <c r="E481" s="8"/>
+      <c r="A481" s="6"/>
+      <c r="D481" s="7"/>
+      <c r="E481" s="7"/>
     </row>
     <row r="482">
-      <c r="A482" s="7"/>
-      <c r="D482" s="8"/>
-      <c r="E482" s="8"/>
+      <c r="A482" s="6"/>
+      <c r="D482" s="7"/>
+      <c r="E482" s="7"/>
     </row>
     <row r="483">
-      <c r="A483" s="7"/>
-      <c r="D483" s="8"/>
-      <c r="E483" s="8"/>
+      <c r="A483" s="6"/>
+      <c r="D483" s="7"/>
+      <c r="E483" s="7"/>
     </row>
     <row r="484">
-      <c r="A484" s="7"/>
-      <c r="D484" s="8"/>
-      <c r="E484" s="8"/>
+      <c r="A484" s="6"/>
+      <c r="D484" s="7"/>
+      <c r="E484" s="7"/>
     </row>
     <row r="485">
-      <c r="A485" s="7"/>
-      <c r="D485" s="8"/>
-      <c r="E485" s="8"/>
+      <c r="A485" s="6"/>
+      <c r="D485" s="7"/>
+      <c r="E485" s="7"/>
     </row>
     <row r="486">
-      <c r="A486" s="7"/>
-      <c r="D486" s="8"/>
-      <c r="E486" s="8"/>
+      <c r="A486" s="6"/>
+      <c r="D486" s="7"/>
+      <c r="E486" s="7"/>
     </row>
     <row r="487">
-      <c r="A487" s="7"/>
-      <c r="D487" s="8"/>
-      <c r="E487" s="8"/>
+      <c r="A487" s="6"/>
+      <c r="D487" s="7"/>
+      <c r="E487" s="7"/>
     </row>
     <row r="488">
-      <c r="A488" s="7"/>
-      <c r="D488" s="8"/>
-      <c r="E488" s="8"/>
+      <c r="A488" s="6"/>
+      <c r="D488" s="7"/>
+      <c r="E488" s="7"/>
     </row>
     <row r="489">
-      <c r="A489" s="7"/>
-      <c r="D489" s="8"/>
-      <c r="E489" s="8"/>
+      <c r="A489" s="6"/>
+      <c r="D489" s="7"/>
+      <c r="E489" s="7"/>
     </row>
     <row r="490">
-      <c r="A490" s="7"/>
-      <c r="D490" s="8"/>
-      <c r="E490" s="8"/>
+      <c r="A490" s="6"/>
+      <c r="D490" s="7"/>
+      <c r="E490" s="7"/>
     </row>
     <row r="491">
-      <c r="A491" s="7"/>
-      <c r="D491" s="8"/>
-      <c r="E491" s="8"/>
+      <c r="A491" s="6"/>
+      <c r="D491" s="7"/>
+      <c r="E491" s="7"/>
     </row>
     <row r="492">
-      <c r="A492" s="7"/>
-      <c r="D492" s="8"/>
-      <c r="E492" s="8"/>
+      <c r="A492" s="6"/>
+      <c r="D492" s="7"/>
+      <c r="E492" s="7"/>
     </row>
     <row r="493">
-      <c r="A493" s="7"/>
-      <c r="D493" s="8"/>
-      <c r="E493" s="8"/>
+      <c r="A493" s="6"/>
+      <c r="D493" s="7"/>
+      <c r="E493" s="7"/>
     </row>
     <row r="494">
-      <c r="A494" s="7"/>
-      <c r="D494" s="8"/>
-      <c r="E494" s="8"/>
+      <c r="A494" s="6"/>
+      <c r="D494" s="7"/>
+      <c r="E494" s="7"/>
     </row>
     <row r="495">
-      <c r="A495" s="7"/>
-      <c r="D495" s="8"/>
-      <c r="E495" s="8"/>
+      <c r="A495" s="6"/>
+      <c r="D495" s="7"/>
+      <c r="E495" s="7"/>
     </row>
     <row r="496">
-      <c r="A496" s="7"/>
-      <c r="D496" s="8"/>
-      <c r="E496" s="8"/>
+      <c r="A496" s="6"/>
+      <c r="D496" s="7"/>
+      <c r="E496" s="7"/>
     </row>
     <row r="497">
-      <c r="A497" s="7"/>
-      <c r="D497" s="8"/>
-      <c r="E497" s="8"/>
+      <c r="A497" s="6"/>
+      <c r="D497" s="7"/>
+      <c r="E497" s="7"/>
     </row>
     <row r="498">
-      <c r="A498" s="7"/>
-      <c r="D498" s="8"/>
-      <c r="E498" s="8"/>
+      <c r="A498" s="6"/>
+      <c r="D498" s="7"/>
+      <c r="E498" s="7"/>
     </row>
     <row r="499">
-      <c r="A499" s="7"/>
-      <c r="D499" s="8"/>
-      <c r="E499" s="8"/>
+      <c r="A499" s="6"/>
+      <c r="D499" s="7"/>
+      <c r="E499" s="7"/>
     </row>
     <row r="500">
-      <c r="A500" s="7"/>
-      <c r="D500" s="8"/>
-      <c r="E500" s="8"/>
+      <c r="A500" s="6"/>
+      <c r="D500" s="7"/>
+      <c r="E500" s="7"/>
     </row>
     <row r="501">
-      <c r="A501" s="7"/>
-      <c r="D501" s="8"/>
-      <c r="E501" s="8"/>
+      <c r="A501" s="6"/>
+      <c r="D501" s="7"/>
+      <c r="E501" s="7"/>
     </row>
     <row r="502">
-      <c r="A502" s="7"/>
-      <c r="D502" s="8"/>
-      <c r="E502" s="8"/>
+      <c r="A502" s="6"/>
+      <c r="D502" s="7"/>
+      <c r="E502" s="7"/>
     </row>
     <row r="503">
-      <c r="A503" s="7"/>
-      <c r="D503" s="8"/>
-      <c r="E503" s="8"/>
+      <c r="A503" s="6"/>
+      <c r="D503" s="7"/>
+      <c r="E503" s="7"/>
     </row>
     <row r="504">
-      <c r="A504" s="7"/>
-      <c r="D504" s="8"/>
-      <c r="E504" s="8"/>
+      <c r="A504" s="6"/>
+      <c r="D504" s="7"/>
+      <c r="E504" s="7"/>
     </row>
     <row r="505">
-      <c r="A505" s="7"/>
-      <c r="D505" s="8"/>
-      <c r="E505" s="8"/>
+      <c r="A505" s="6"/>
+      <c r="D505" s="7"/>
+      <c r="E505" s="7"/>
     </row>
     <row r="506">
-      <c r="A506" s="7"/>
-      <c r="D506" s="8"/>
-      <c r="E506" s="8"/>
+      <c r="A506" s="6"/>
+      <c r="D506" s="7"/>
+      <c r="E506" s="7"/>
     </row>
     <row r="507">
-      <c r="A507" s="7"/>
-      <c r="D507" s="8"/>
-      <c r="E507" s="8"/>
+      <c r="A507" s="6"/>
+      <c r="D507" s="7"/>
+      <c r="E507" s="7"/>
     </row>
     <row r="508">
-      <c r="A508" s="7"/>
-      <c r="D508" s="8"/>
-      <c r="E508" s="8"/>
+      <c r="A508" s="6"/>
+      <c r="D508" s="7"/>
+      <c r="E508" s="7"/>
     </row>
     <row r="509">
-      <c r="A509" s="7"/>
-      <c r="D509" s="8"/>
-      <c r="E509" s="8"/>
+      <c r="A509" s="6"/>
+      <c r="D509" s="7"/>
+      <c r="E509" s="7"/>
     </row>
     <row r="510">
-      <c r="A510" s="7"/>
-      <c r="D510" s="8"/>
-      <c r="E510" s="8"/>
+      <c r="A510" s="6"/>
+      <c r="D510" s="7"/>
+      <c r="E510" s="7"/>
     </row>
     <row r="511">
-      <c r="A511" s="7"/>
-      <c r="D511" s="8"/>
-      <c r="E511" s="8"/>
+      <c r="A511" s="6"/>
+      <c r="D511" s="7"/>
+      <c r="E511" s="7"/>
     </row>
     <row r="512">
-      <c r="A512" s="7"/>
-      <c r="D512" s="8"/>
-      <c r="E512" s="8"/>
+      <c r="A512" s="6"/>
+      <c r="D512" s="7"/>
+      <c r="E512" s="7"/>
     </row>
     <row r="513">
-      <c r="A513" s="7"/>
-      <c r="D513" s="8"/>
-      <c r="E513" s="8"/>
+      <c r="A513" s="6"/>
+      <c r="D513" s="7"/>
+      <c r="E513" s="7"/>
     </row>
     <row r="514">
-      <c r="A514" s="7"/>
-      <c r="D514" s="8"/>
-      <c r="E514" s="8"/>
+      <c r="A514" s="6"/>
+      <c r="D514" s="7"/>
+      <c r="E514" s="7"/>
     </row>
     <row r="515">
-      <c r="A515" s="7"/>
-      <c r="D515" s="8"/>
-      <c r="E515" s="8"/>
+      <c r="A515" s="6"/>
+      <c r="D515" s="7"/>
+      <c r="E515" s="7"/>
     </row>
     <row r="516">
-      <c r="A516" s="7"/>
-      <c r="D516" s="8"/>
-      <c r="E516" s="8"/>
+      <c r="A516" s="6"/>
+      <c r="D516" s="7"/>
+      <c r="E516" s="7"/>
     </row>
     <row r="517">
-      <c r="A517" s="7"/>
-      <c r="D517" s="8"/>
-      <c r="E517" s="8"/>
+      <c r="A517" s="6"/>
+      <c r="D517" s="7"/>
+      <c r="E517" s="7"/>
     </row>
     <row r="518">
-      <c r="A518" s="7"/>
-      <c r="D518" s="8"/>
-      <c r="E518" s="8"/>
+      <c r="A518" s="6"/>
+      <c r="D518" s="7"/>
+      <c r="E518" s="7"/>
     </row>
     <row r="519">
-      <c r="A519" s="7"/>
-      <c r="D519" s="8"/>
-      <c r="E519" s="8"/>
+      <c r="A519" s="6"/>
+      <c r="D519" s="7"/>
+      <c r="E519" s="7"/>
     </row>
     <row r="520">
-      <c r="A520" s="7"/>
-      <c r="D520" s="8"/>
-      <c r="E520" s="8"/>
+      <c r="A520" s="6"/>
+      <c r="D520" s="7"/>
+      <c r="E520" s="7"/>
     </row>
     <row r="521">
-      <c r="A521" s="7"/>
-      <c r="D521" s="8"/>
-      <c r="E521" s="8"/>
+      <c r="A521" s="6"/>
+      <c r="D521" s="7"/>
+      <c r="E521" s="7"/>
     </row>
     <row r="522">
-      <c r="A522" s="7"/>
-      <c r="D522" s="8"/>
-      <c r="E522" s="8"/>
+      <c r="A522" s="6"/>
+      <c r="D522" s="7"/>
+      <c r="E522" s="7"/>
     </row>
     <row r="523">
-      <c r="A523" s="7"/>
-      <c r="D523" s="8"/>
-      <c r="E523" s="8"/>
+      <c r="A523" s="6"/>
+      <c r="D523" s="7"/>
+      <c r="E523" s="7"/>
     </row>
     <row r="524">
-      <c r="A524" s="7"/>
-      <c r="D524" s="8"/>
-      <c r="E524" s="8"/>
+      <c r="A524" s="6"/>
+      <c r="D524" s="7"/>
+      <c r="E524" s="7"/>
     </row>
     <row r="525">
-      <c r="A525" s="7"/>
-      <c r="D525" s="8"/>
-      <c r="E525" s="8"/>
+      <c r="A525" s="6"/>
+      <c r="D525" s="7"/>
+      <c r="E525" s="7"/>
     </row>
     <row r="526">
-      <c r="A526" s="7"/>
-      <c r="D526" s="8"/>
-      <c r="E526" s="8"/>
+      <c r="A526" s="6"/>
+      <c r="D526" s="7"/>
+      <c r="E526" s="7"/>
     </row>
     <row r="527">
-      <c r="A527" s="7"/>
-      <c r="D527" s="8"/>
-      <c r="E527" s="8"/>
+      <c r="A527" s="6"/>
+      <c r="D527" s="7"/>
+      <c r="E527" s="7"/>
     </row>
     <row r="528">
-      <c r="A528" s="7"/>
-      <c r="D528" s="8"/>
-      <c r="E528" s="8"/>
+      <c r="A528" s="6"/>
+      <c r="D528" s="7"/>
+      <c r="E528" s="7"/>
     </row>
     <row r="529">
-      <c r="A529" s="7"/>
-      <c r="D529" s="8"/>
-      <c r="E529" s="8"/>
+      <c r="A529" s="6"/>
+      <c r="D529" s="7"/>
+      <c r="E529" s="7"/>
     </row>
     <row r="530">
-      <c r="A530" s="7"/>
-      <c r="D530" s="8"/>
-      <c r="E530" s="8"/>
+      <c r="A530" s="6"/>
+      <c r="D530" s="7"/>
+      <c r="E530" s="7"/>
     </row>
     <row r="531">
-      <c r="A531" s="7"/>
-      <c r="D531" s="8"/>
-      <c r="E531" s="8"/>
+      <c r="A531" s="6"/>
+      <c r="D531" s="7"/>
+      <c r="E531" s="7"/>
     </row>
     <row r="532">
-      <c r="A532" s="7"/>
-      <c r="D532" s="8"/>
-      <c r="E532" s="8"/>
+      <c r="A532" s="6"/>
+      <c r="D532" s="7"/>
+      <c r="E532" s="7"/>
     </row>
     <row r="533">
-      <c r="A533" s="7"/>
-      <c r="D533" s="8"/>
-      <c r="E533" s="8"/>
+      <c r="A533" s="6"/>
+      <c r="D533" s="7"/>
+      <c r="E533" s="7"/>
     </row>
     <row r="534">
-      <c r="A534" s="7"/>
-      <c r="D534" s="8"/>
-      <c r="E534" s="8"/>
+      <c r="A534" s="6"/>
+      <c r="D534" s="7"/>
+      <c r="E534" s="7"/>
     </row>
     <row r="535">
-      <c r="A535" s="7"/>
-      <c r="D535" s="8"/>
-      <c r="E535" s="8"/>
+      <c r="A535" s="6"/>
+      <c r="D535" s="7"/>
+      <c r="E535" s="7"/>
     </row>
     <row r="536">
-      <c r="A536" s="7"/>
-      <c r="D536" s="8"/>
-      <c r="E536" s="8"/>
+      <c r="A536" s="6"/>
+      <c r="D536" s="7"/>
+      <c r="E536" s="7"/>
     </row>
     <row r="537">
-      <c r="A537" s="7"/>
-      <c r="D537" s="8"/>
-      <c r="E537" s="8"/>
+      <c r="A537" s="6"/>
+      <c r="D537" s="7"/>
+      <c r="E537" s="7"/>
     </row>
     <row r="538">
-      <c r="A538" s="7"/>
-      <c r="D538" s="8"/>
-      <c r="E538" s="8"/>
+      <c r="A538" s="6"/>
+      <c r="D538" s="7"/>
+      <c r="E538" s="7"/>
     </row>
     <row r="539">
-      <c r="A539" s="7"/>
-      <c r="D539" s="8"/>
-      <c r="E539" s="8"/>
+      <c r="A539" s="6"/>
+      <c r="D539" s="7"/>
+      <c r="E539" s="7"/>
     </row>
     <row r="540">
-      <c r="A540" s="7"/>
-      <c r="D540" s="8"/>
-      <c r="E540" s="8"/>
+      <c r="A540" s="6"/>
+      <c r="D540" s="7"/>
+      <c r="E540" s="7"/>
     </row>
     <row r="541">
-      <c r="A541" s="7"/>
-      <c r="D541" s="8"/>
-      <c r="E541" s="8"/>
+      <c r="A541" s="6"/>
+      <c r="D541" s="7"/>
+      <c r="E541" s="7"/>
     </row>
     <row r="542">
-      <c r="A542" s="7"/>
-      <c r="D542" s="8"/>
-      <c r="E542" s="8"/>
+      <c r="A542" s="6"/>
+      <c r="D542" s="7"/>
+      <c r="E542" s="7"/>
     </row>
     <row r="543">
-      <c r="A543" s="7"/>
-      <c r="D543" s="8"/>
-      <c r="E543" s="8"/>
+      <c r="A543" s="6"/>
+      <c r="D543" s="7"/>
+      <c r="E543" s="7"/>
     </row>
     <row r="544">
-      <c r="A544" s="7"/>
-      <c r="D544" s="8"/>
-      <c r="E544" s="8"/>
+      <c r="A544" s="6"/>
+      <c r="D544" s="7"/>
+      <c r="E544" s="7"/>
     </row>
     <row r="545">
-      <c r="A545" s="7"/>
-      <c r="D545" s="8"/>
-      <c r="E545" s="8"/>
+      <c r="A545" s="6"/>
+      <c r="D545" s="7"/>
+      <c r="E545" s="7"/>
     </row>
     <row r="546">
-      <c r="A546" s="7"/>
-      <c r="D546" s="8"/>
-      <c r="E546" s="8"/>
+      <c r="A546" s="6"/>
+      <c r="D546" s="7"/>
+      <c r="E546" s="7"/>
     </row>
     <row r="547">
-      <c r="A547" s="7"/>
-      <c r="D547" s="8"/>
-      <c r="E547" s="8"/>
+      <c r="A547" s="6"/>
+      <c r="D547" s="7"/>
+      <c r="E547" s="7"/>
     </row>
     <row r="548">
-      <c r="A548" s="7"/>
-      <c r="D548" s="8"/>
-      <c r="E548" s="8"/>
+      <c r="A548" s="6"/>
+      <c r="D548" s="7"/>
+      <c r="E548" s="7"/>
     </row>
     <row r="549">
-      <c r="A549" s="7"/>
-      <c r="D549" s="8"/>
-      <c r="E549" s="8"/>
+      <c r="A549" s="6"/>
+      <c r="D549" s="7"/>
+      <c r="E549" s="7"/>
     </row>
     <row r="550">
-      <c r="A550" s="7"/>
-      <c r="D550" s="8"/>
-      <c r="E550" s="8"/>
+      <c r="A550" s="6"/>
+      <c r="D550" s="7"/>
+      <c r="E550" s="7"/>
     </row>
     <row r="551">
-      <c r="A551" s="7"/>
-      <c r="D551" s="8"/>
-      <c r="E551" s="8"/>
+      <c r="A551" s="6"/>
+      <c r="D551" s="7"/>
+      <c r="E551" s="7"/>
     </row>
     <row r="552">
-      <c r="A552" s="7"/>
-      <c r="D552" s="8"/>
-      <c r="E552" s="8"/>
+      <c r="A552" s="6"/>
+      <c r="D552" s="7"/>
+      <c r="E552" s="7"/>
     </row>
     <row r="553">
-      <c r="A553" s="7"/>
-      <c r="D553" s="8"/>
-      <c r="E553" s="8"/>
+      <c r="A553" s="6"/>
+      <c r="D553" s="7"/>
+      <c r="E553" s="7"/>
     </row>
     <row r="554">
-      <c r="A554" s="7"/>
-      <c r="D554" s="8"/>
-      <c r="E554" s="8"/>
+      <c r="A554" s="6"/>
+      <c r="D554" s="7"/>
+      <c r="E554" s="7"/>
     </row>
     <row r="555">
-      <c r="A555" s="7"/>
-      <c r="D555" s="8"/>
-      <c r="E555" s="8"/>
+      <c r="A555" s="6"/>
+      <c r="D555" s="7"/>
+      <c r="E555" s="7"/>
     </row>
     <row r="556">
-      <c r="A556" s="7"/>
-      <c r="D556" s="8"/>
-      <c r="E556" s="8"/>
+      <c r="A556" s="6"/>
+      <c r="D556" s="7"/>
+      <c r="E556" s="7"/>
     </row>
     <row r="557">
-      <c r="A557" s="7"/>
-      <c r="D557" s="8"/>
-      <c r="E557" s="8"/>
+      <c r="A557" s="6"/>
+      <c r="D557" s="7"/>
+      <c r="E557" s="7"/>
     </row>
     <row r="558">
-      <c r="A558" s="7"/>
-      <c r="D558" s="8"/>
-      <c r="E558" s="8"/>
+      <c r="A558" s="6"/>
+      <c r="D558" s="7"/>
+      <c r="E558" s="7"/>
     </row>
     <row r="559">
-      <c r="A559" s="7"/>
-      <c r="D559" s="8"/>
-      <c r="E559" s="8"/>
+      <c r="A559" s="6"/>
+      <c r="D559" s="7"/>
+      <c r="E559" s="7"/>
     </row>
     <row r="560">
-      <c r="A560" s="7"/>
-      <c r="D560" s="8"/>
-      <c r="E560" s="8"/>
+      <c r="A560" s="6"/>
+      <c r="D560" s="7"/>
+      <c r="E560" s="7"/>
     </row>
     <row r="561">
-      <c r="A561" s="7"/>
-      <c r="D561" s="8"/>
-      <c r="E561" s="8"/>
+      <c r="A561" s="6"/>
+      <c r="D561" s="7"/>
+      <c r="E561" s="7"/>
     </row>
     <row r="562">
-      <c r="A562" s="7"/>
-      <c r="D562" s="8"/>
-      <c r="E562" s="8"/>
+      <c r="A562" s="6"/>
+      <c r="D562" s="7"/>
+      <c r="E562" s="7"/>
     </row>
     <row r="563">
-      <c r="A563" s="7"/>
-      <c r="D563" s="8"/>
-      <c r="E563" s="8"/>
+      <c r="A563" s="6"/>
+      <c r="D563" s="7"/>
+      <c r="E563" s="7"/>
     </row>
     <row r="564">
-      <c r="A564" s="7"/>
-      <c r="D564" s="8"/>
-      <c r="E564" s="8"/>
+      <c r="A564" s="6"/>
+      <c r="D564" s="7"/>
+      <c r="E564" s="7"/>
     </row>
     <row r="565">
-      <c r="A565" s="7"/>
-      <c r="D565" s="8"/>
-      <c r="E565" s="8"/>
+      <c r="A565" s="6"/>
+      <c r="D565" s="7"/>
+      <c r="E565" s="7"/>
     </row>
     <row r="566">
-      <c r="A566" s="7"/>
-      <c r="D566" s="8"/>
-      <c r="E566" s="8"/>
+      <c r="A566" s="6"/>
+      <c r="D566" s="7"/>
+      <c r="E566" s="7"/>
     </row>
     <row r="567">
-      <c r="A567" s="7"/>
-      <c r="D567" s="8"/>
-      <c r="E567" s="8"/>
+      <c r="A567" s="6"/>
+      <c r="D567" s="7"/>
+      <c r="E567" s="7"/>
     </row>
     <row r="568">
-      <c r="A568" s="7"/>
-      <c r="D568" s="8"/>
-      <c r="E568" s="8"/>
+      <c r="A568" s="6"/>
+      <c r="D568" s="7"/>
+      <c r="E568" s="7"/>
     </row>
     <row r="569">
-      <c r="A569" s="7"/>
-      <c r="D569" s="8"/>
-      <c r="E569" s="8"/>
+      <c r="A569" s="6"/>
+      <c r="D569" s="7"/>
+      <c r="E569" s="7"/>
     </row>
     <row r="570">
-      <c r="A570" s="7"/>
-      <c r="D570" s="8"/>
-      <c r="E570" s="8"/>
+      <c r="A570" s="6"/>
+      <c r="D570" s="7"/>
+      <c r="E570" s="7"/>
     </row>
     <row r="571">
-      <c r="A571" s="7"/>
-      <c r="D571" s="8"/>
-      <c r="E571" s="8"/>
+      <c r="A571" s="6"/>
+      <c r="D571" s="7"/>
+      <c r="E571" s="7"/>
     </row>
     <row r="572">
-      <c r="A572" s="7"/>
-      <c r="D572" s="8"/>
-      <c r="E572" s="8"/>
+      <c r="A572" s="6"/>
+      <c r="D572" s="7"/>
+      <c r="E572" s="7"/>
     </row>
     <row r="573">
-      <c r="A573" s="7"/>
-      <c r="D573" s="8"/>
-      <c r="E573" s="8"/>
+      <c r="A573" s="6"/>
+      <c r="D573" s="7"/>
+      <c r="E573" s="7"/>
     </row>
     <row r="574">
-      <c r="A574" s="7"/>
-      <c r="D574" s="8"/>
-      <c r="E574" s="8"/>
+      <c r="A574" s="6"/>
+      <c r="D574" s="7"/>
+      <c r="E574" s="7"/>
     </row>
     <row r="575">
-      <c r="A575" s="7"/>
-      <c r="D575" s="8"/>
-      <c r="E575" s="8"/>
+      <c r="A575" s="6"/>
+      <c r="D575" s="7"/>
+      <c r="E575" s="7"/>
     </row>
     <row r="576">
-      <c r="A576" s="7"/>
-      <c r="D576" s="8"/>
-      <c r="E576" s="8"/>
+      <c r="A576" s="6"/>
+      <c r="D576" s="7"/>
+      <c r="E576" s="7"/>
     </row>
     <row r="577">
-      <c r="A577" s="7"/>
-      <c r="D577" s="8"/>
-      <c r="E577" s="8"/>
+      <c r="A577" s="6"/>
+      <c r="D577" s="7"/>
+      <c r="E577" s="7"/>
     </row>
     <row r="578">
-      <c r="A578" s="7"/>
-      <c r="D578" s="8"/>
-      <c r="E578" s="8"/>
+      <c r="A578" s="6"/>
+      <c r="D578" s="7"/>
+      <c r="E578" s="7"/>
     </row>
     <row r="579">
-      <c r="A579" s="7"/>
-      <c r="D579" s="8"/>
-      <c r="E579" s="8"/>
+      <c r="A579" s="6"/>
+      <c r="D579" s="7"/>
+      <c r="E579" s="7"/>
     </row>
     <row r="580">
-      <c r="A580" s="7"/>
-      <c r="D580" s="8"/>
-      <c r="E580" s="8"/>
+      <c r="A580" s="6"/>
+      <c r="D580" s="7"/>
+      <c r="E580" s="7"/>
     </row>
     <row r="581">
-      <c r="A581" s="7"/>
-      <c r="D581" s="8"/>
-      <c r="E581" s="8"/>
+      <c r="A581" s="6"/>
+      <c r="D581" s="7"/>
+      <c r="E581" s="7"/>
     </row>
     <row r="582">
-      <c r="A582" s="7"/>
-      <c r="D582" s="8"/>
-      <c r="E582" s="8"/>
+      <c r="A582" s="6"/>
+      <c r="D582" s="7"/>
+      <c r="E582" s="7"/>
     </row>
     <row r="583">
-      <c r="A583" s="7"/>
-      <c r="D583" s="8"/>
-      <c r="E583" s="8"/>
+      <c r="A583" s="6"/>
+      <c r="D583" s="7"/>
+      <c r="E583" s="7"/>
     </row>
     <row r="584">
-      <c r="A584" s="7"/>
-      <c r="D584" s="8"/>
-      <c r="E584" s="8"/>
+      <c r="A584" s="6"/>
+      <c r="D584" s="7"/>
+      <c r="E584" s="7"/>
     </row>
     <row r="585">
-      <c r="A585" s="7"/>
-      <c r="D585" s="8"/>
-      <c r="E585" s="8"/>
+      <c r="A585" s="6"/>
+      <c r="D585" s="7"/>
+      <c r="E585" s="7"/>
     </row>
     <row r="586">
-      <c r="A586" s="7"/>
-      <c r="D586" s="8"/>
-      <c r="E586" s="8"/>
+      <c r="A586" s="6"/>
+      <c r="D586" s="7"/>
+      <c r="E586" s="7"/>
     </row>
     <row r="587">
-      <c r="A587" s="7"/>
-      <c r="D587" s="8"/>
-      <c r="E587" s="8"/>
+      <c r="A587" s="6"/>
+      <c r="D587" s="7"/>
+      <c r="E587" s="7"/>
     </row>
     <row r="588">
-      <c r="A588" s="7"/>
-      <c r="D588" s="8"/>
-      <c r="E588" s="8"/>
+      <c r="A588" s="6"/>
+      <c r="D588" s="7"/>
+      <c r="E588" s="7"/>
     </row>
     <row r="589">
-      <c r="A589" s="7"/>
-      <c r="D589" s="8"/>
-      <c r="E589" s="8"/>
+      <c r="A589" s="6"/>
+      <c r="D589" s="7"/>
+      <c r="E589" s="7"/>
     </row>
     <row r="590">
-      <c r="A590" s="7"/>
-      <c r="D590" s="8"/>
-      <c r="E590" s="8"/>
+      <c r="A590" s="6"/>
+      <c r="D590" s="7"/>
+      <c r="E590" s="7"/>
     </row>
     <row r="591">
-      <c r="A591" s="7"/>
-      <c r="D591" s="8"/>
-      <c r="E591" s="8"/>
+      <c r="A591" s="6"/>
+      <c r="D591" s="7"/>
+      <c r="E591" s="7"/>
     </row>
     <row r="592">
-      <c r="A592" s="7"/>
-      <c r="D592" s="8"/>
-      <c r="E592" s="8"/>
+      <c r="A592" s="6"/>
+      <c r="D592" s="7"/>
+      <c r="E592" s="7"/>
     </row>
     <row r="593">
-      <c r="A593" s="7"/>
-      <c r="D593" s="8"/>
-      <c r="E593" s="8"/>
+      <c r="A593" s="6"/>
+      <c r="D593" s="7"/>
+      <c r="E593" s="7"/>
     </row>
     <row r="594">
-      <c r="A594" s="7"/>
-      <c r="D594" s="8"/>
-      <c r="E594" s="8"/>
+      <c r="A594" s="6"/>
+      <c r="D594" s="7"/>
+      <c r="E594" s="7"/>
     </row>
     <row r="595">
-      <c r="A595" s="7"/>
-      <c r="D595" s="8"/>
-      <c r="E595" s="8"/>
+      <c r="A595" s="6"/>
+      <c r="D595" s="7"/>
+      <c r="E595" s="7"/>
     </row>
     <row r="596">
-      <c r="A596" s="7"/>
-      <c r="D596" s="8"/>
-      <c r="E596" s="8"/>
+      <c r="A596" s="6"/>
+      <c r="D596" s="7"/>
+      <c r="E596" s="7"/>
     </row>
     <row r="597">
-      <c r="A597" s="7"/>
-      <c r="D597" s="8"/>
-      <c r="E597" s="8"/>
+      <c r="A597" s="6"/>
+      <c r="D597" s="7"/>
+      <c r="E597" s="7"/>
     </row>
     <row r="598">
-      <c r="A598" s="7"/>
-      <c r="D598" s="8"/>
-      <c r="E598" s="8"/>
+      <c r="A598" s="6"/>
+      <c r="D598" s="7"/>
+      <c r="E598" s="7"/>
     </row>
     <row r="599">
-      <c r="A599" s="7"/>
-      <c r="D599" s="8"/>
-      <c r="E599" s="8"/>
+      <c r="A599" s="6"/>
+      <c r="D599" s="7"/>
+      <c r="E599" s="7"/>
     </row>
     <row r="600">
-      <c r="A600" s="7"/>
-      <c r="D600" s="8"/>
-      <c r="E600" s="8"/>
+      <c r="A600" s="6"/>
+      <c r="D600" s="7"/>
+      <c r="E600" s="7"/>
     </row>
     <row r="601">
-      <c r="A601" s="7"/>
-      <c r="D601" s="8"/>
-      <c r="E601" s="8"/>
+      <c r="A601" s="6"/>
+      <c r="D601" s="7"/>
+      <c r="E601" s="7"/>
     </row>
     <row r="602">
-      <c r="A602" s="7"/>
-      <c r="D602" s="8"/>
-      <c r="E602" s="8"/>
+      <c r="A602" s="6"/>
+      <c r="D602" s="7"/>
+      <c r="E602" s="7"/>
     </row>
     <row r="603">
-      <c r="A603" s="7"/>
-      <c r="D603" s="8"/>
-      <c r="E603" s="8"/>
+      <c r="A603" s="6"/>
+      <c r="D603" s="7"/>
+      <c r="E603" s="7"/>
     </row>
     <row r="604">
-      <c r="A604" s="7"/>
-      <c r="D604" s="8"/>
-      <c r="E604" s="8"/>
+      <c r="A604" s="6"/>
+      <c r="D604" s="7"/>
+      <c r="E604" s="7"/>
     </row>
     <row r="605">
-      <c r="A605" s="7"/>
-      <c r="D605" s="8"/>
-      <c r="E605" s="8"/>
+      <c r="A605" s="6"/>
+      <c r="D605" s="7"/>
+      <c r="E605" s="7"/>
     </row>
     <row r="606">
-      <c r="A606" s="7"/>
-      <c r="D606" s="8"/>
-      <c r="E606" s="8"/>
+      <c r="A606" s="6"/>
+      <c r="D606" s="7"/>
+      <c r="E606" s="7"/>
     </row>
     <row r="607">
-      <c r="A607" s="7"/>
-      <c r="D607" s="8"/>
-      <c r="E607" s="8"/>
+      <c r="A607" s="6"/>
+      <c r="D607" s="7"/>
+      <c r="E607" s="7"/>
     </row>
     <row r="608">
-      <c r="A608" s="7"/>
-      <c r="D608" s="8"/>
-      <c r="E608" s="8"/>
+      <c r="A608" s="6"/>
+      <c r="D608" s="7"/>
+      <c r="E608" s="7"/>
     </row>
     <row r="609">
-      <c r="A609" s="7"/>
-      <c r="D609" s="8"/>
-      <c r="E609" s="8"/>
+      <c r="A609" s="6"/>
+      <c r="D609" s="7"/>
+      <c r="E609" s="7"/>
     </row>
     <row r="610">
-      <c r="A610" s="7"/>
-      <c r="D610" s="8"/>
-      <c r="E610" s="8"/>
+      <c r="A610" s="6"/>
+      <c r="D610" s="7"/>
+      <c r="E610" s="7"/>
     </row>
     <row r="611">
-      <c r="A611" s="7"/>
-      <c r="D611" s="8"/>
-      <c r="E611" s="8"/>
+      <c r="A611" s="6"/>
+      <c r="D611" s="7"/>
+      <c r="E611" s="7"/>
     </row>
     <row r="612">
-      <c r="A612" s="7"/>
-      <c r="D612" s="8"/>
-      <c r="E612" s="8"/>
+      <c r="A612" s="6"/>
+      <c r="D612" s="7"/>
+      <c r="E612" s="7"/>
     </row>
     <row r="613">
-      <c r="A613" s="7"/>
-      <c r="D613" s="8"/>
-      <c r="E613" s="8"/>
+      <c r="A613" s="6"/>
+      <c r="D613" s="7"/>
+      <c r="E613" s="7"/>
     </row>
     <row r="614">
-      <c r="A614" s="7"/>
-      <c r="D614" s="8"/>
-      <c r="E614" s="8"/>
+      <c r="A614" s="6"/>
+      <c r="D614" s="7"/>
+      <c r="E614" s="7"/>
     </row>
     <row r="615">
-      <c r="A615" s="7"/>
-      <c r="D615" s="8"/>
-      <c r="E615" s="8"/>
+      <c r="A615" s="6"/>
+      <c r="D615" s="7"/>
+      <c r="E615" s="7"/>
     </row>
     <row r="616">
-      <c r="A616" s="7"/>
-      <c r="D616" s="8"/>
-      <c r="E616" s="8"/>
+      <c r="A616" s="6"/>
+      <c r="D616" s="7"/>
+      <c r="E616" s="7"/>
     </row>
     <row r="617">
-      <c r="A617" s="7"/>
-      <c r="D617" s="8"/>
-      <c r="E617" s="8"/>
+      <c r="A617" s="6"/>
+      <c r="D617" s="7"/>
+      <c r="E617" s="7"/>
     </row>
     <row r="618">
-      <c r="A618" s="7"/>
-      <c r="D618" s="8"/>
-      <c r="E618" s="8"/>
+      <c r="A618" s="6"/>
+      <c r="D618" s="7"/>
+      <c r="E618" s="7"/>
     </row>
     <row r="619">
-      <c r="A619" s="7"/>
-      <c r="D619" s="8"/>
-      <c r="E619" s="8"/>
+      <c r="A619" s="6"/>
+      <c r="D619" s="7"/>
+      <c r="E619" s="7"/>
     </row>
     <row r="620">
-      <c r="A620" s="7"/>
-      <c r="D620" s="8"/>
-      <c r="E620" s="8"/>
+      <c r="A620" s="6"/>
+      <c r="D620" s="7"/>
+      <c r="E620" s="7"/>
     </row>
     <row r="621">
-      <c r="A621" s="7"/>
-      <c r="D621" s="8"/>
-      <c r="E621" s="8"/>
+      <c r="A621" s="6"/>
+      <c r="D621" s="7"/>
+      <c r="E621" s="7"/>
     </row>
     <row r="622">
-      <c r="A622" s="7"/>
-      <c r="D622" s="8"/>
-      <c r="E622" s="8"/>
+      <c r="A622" s="6"/>
+      <c r="D622" s="7"/>
+      <c r="E622" s="7"/>
     </row>
     <row r="623">
-      <c r="A623" s="7"/>
-      <c r="D623" s="8"/>
-      <c r="E623" s="8"/>
+      <c r="A623" s="6"/>
+      <c r="D623" s="7"/>
+      <c r="E623" s="7"/>
     </row>
     <row r="624">
-      <c r="A624" s="7"/>
-      <c r="D624" s="8"/>
-      <c r="E624" s="8"/>
+      <c r="A624" s="6"/>
+      <c r="D624" s="7"/>
+      <c r="E624" s="7"/>
     </row>
     <row r="625">
-      <c r="A625" s="7"/>
-      <c r="D625" s="8"/>
-      <c r="E625" s="8"/>
+      <c r="A625" s="6"/>
+      <c r="D625" s="7"/>
+      <c r="E625" s="7"/>
     </row>
     <row r="626">
-      <c r="A626" s="7"/>
-      <c r="D626" s="8"/>
-      <c r="E626" s="8"/>
+      <c r="A626" s="6"/>
+      <c r="D626" s="7"/>
+      <c r="E626" s="7"/>
     </row>
     <row r="627">
-      <c r="A627" s="7"/>
-      <c r="D627" s="8"/>
-      <c r="E627" s="8"/>
+      <c r="A627" s="6"/>
+      <c r="D627" s="7"/>
+      <c r="E627" s="7"/>
     </row>
     <row r="628">
-      <c r="A628" s="7"/>
-      <c r="D628" s="8"/>
-      <c r="E628" s="8"/>
+      <c r="A628" s="6"/>
+      <c r="D628" s="7"/>
+      <c r="E628" s="7"/>
     </row>
     <row r="629">
-      <c r="A629" s="7"/>
-      <c r="D629" s="8"/>
-      <c r="E629" s="8"/>
+      <c r="A629" s="6"/>
+      <c r="D629" s="7"/>
+      <c r="E629" s="7"/>
     </row>
     <row r="630">
-      <c r="A630" s="7"/>
-      <c r="D630" s="8"/>
-      <c r="E630" s="8"/>
+      <c r="A630" s="6"/>
+      <c r="D630" s="7"/>
+      <c r="E630" s="7"/>
     </row>
     <row r="631">
-      <c r="A631" s="7"/>
-      <c r="D631" s="8"/>
-      <c r="E631" s="8"/>
+      <c r="A631" s="6"/>
+      <c r="D631" s="7"/>
+      <c r="E631" s="7"/>
     </row>
     <row r="632">
-      <c r="A632" s="7"/>
-      <c r="D632" s="8"/>
-      <c r="E632" s="8"/>
+      <c r="A632" s="6"/>
+      <c r="D632" s="7"/>
+      <c r="E632" s="7"/>
     </row>
     <row r="633">
-      <c r="A633" s="7"/>
-      <c r="D633" s="8"/>
-      <c r="E633" s="8"/>
+      <c r="A633" s="6"/>
+      <c r="D633" s="7"/>
+      <c r="E633" s="7"/>
     </row>
     <row r="634">
-      <c r="A634" s="7"/>
-      <c r="D634" s="8"/>
-      <c r="E634" s="8"/>
+      <c r="A634" s="6"/>
+      <c r="D634" s="7"/>
+      <c r="E634" s="7"/>
     </row>
     <row r="635">
-      <c r="A635" s="7"/>
-      <c r="D635" s="8"/>
-      <c r="E635" s="8"/>
+      <c r="A635" s="6"/>
+      <c r="D635" s="7"/>
+      <c r="E635" s="7"/>
     </row>
     <row r="636">
-      <c r="A636" s="7"/>
-      <c r="D636" s="8"/>
-      <c r="E636" s="8"/>
+      <c r="A636" s="6"/>
+      <c r="D636" s="7"/>
+      <c r="E636" s="7"/>
     </row>
     <row r="637">
-      <c r="A637" s="7"/>
-      <c r="D637" s="8"/>
-      <c r="E637" s="8"/>
+      <c r="A637" s="6"/>
+      <c r="D637" s="7"/>
+      <c r="E637" s="7"/>
     </row>
     <row r="638">
-      <c r="A638" s="7"/>
-      <c r="D638" s="8"/>
-      <c r="E638" s="8"/>
+      <c r="A638" s="6"/>
+      <c r="D638" s="7"/>
+      <c r="E638" s="7"/>
     </row>
     <row r="639">
-      <c r="A639" s="7"/>
-      <c r="D639" s="8"/>
-      <c r="E639" s="8"/>
+      <c r="A639" s="6"/>
+      <c r="D639" s="7"/>
+      <c r="E639" s="7"/>
     </row>
     <row r="640">
-      <c r="A640" s="7"/>
-      <c r="D640" s="8"/>
-      <c r="E640" s="8"/>
+      <c r="A640" s="6"/>
+      <c r="D640" s="7"/>
+      <c r="E640" s="7"/>
     </row>
     <row r="641">
-      <c r="A641" s="7"/>
-      <c r="D641" s="8"/>
-      <c r="E641" s="8"/>
+      <c r="A641" s="6"/>
+      <c r="D641" s="7"/>
+      <c r="E641" s="7"/>
     </row>
     <row r="642">
-      <c r="A642" s="7"/>
-      <c r="D642" s="8"/>
-      <c r="E642" s="8"/>
+      <c r="A642" s="6"/>
+      <c r="D642" s="7"/>
+      <c r="E642" s="7"/>
     </row>
     <row r="643">
-      <c r="A643" s="7"/>
-      <c r="D643" s="8"/>
-      <c r="E643" s="8"/>
+      <c r="A643" s="6"/>
+      <c r="D643" s="7"/>
+      <c r="E643" s="7"/>
     </row>
     <row r="644">
-      <c r="A644" s="7"/>
-      <c r="D644" s="8"/>
-      <c r="E644" s="8"/>
+      <c r="A644" s="6"/>
+      <c r="D644" s="7"/>
+      <c r="E644" s="7"/>
     </row>
     <row r="645">
-      <c r="A645" s="7"/>
-      <c r="D645" s="8"/>
-      <c r="E645" s="8"/>
+      <c r="A645" s="6"/>
+      <c r="D645" s="7"/>
+      <c r="E645" s="7"/>
     </row>
     <row r="646">
-      <c r="A646" s="7"/>
-      <c r="D646" s="8"/>
-      <c r="E646" s="8"/>
+      <c r="A646" s="6"/>
+      <c r="D646" s="7"/>
+      <c r="E646" s="7"/>
     </row>
     <row r="647">
-      <c r="A647" s="7"/>
-      <c r="D647" s="8"/>
-      <c r="E647" s="8"/>
+      <c r="A647" s="6"/>
+      <c r="D647" s="7"/>
+      <c r="E647" s="7"/>
     </row>
     <row r="648">
-      <c r="A648" s="7"/>
-      <c r="D648" s="8"/>
-      <c r="E648" s="8"/>
+      <c r="A648" s="6"/>
+      <c r="D648" s="7"/>
+      <c r="E648" s="7"/>
     </row>
     <row r="649">
-      <c r="A649" s="7"/>
-      <c r="D649" s="8"/>
-      <c r="E649" s="8"/>
+      <c r="A649" s="6"/>
+      <c r="D649" s="7"/>
+      <c r="E649" s="7"/>
     </row>
     <row r="650">
-      <c r="A650" s="7"/>
-      <c r="D650" s="8"/>
-      <c r="E650" s="8"/>
+      <c r="A650" s="6"/>
+      <c r="D650" s="7"/>
+      <c r="E650" s="7"/>
     </row>
     <row r="651">
-      <c r="A651" s="7"/>
-      <c r="D651" s="8"/>
-      <c r="E651" s="8"/>
+      <c r="A651" s="6"/>
+      <c r="D651" s="7"/>
+      <c r="E651" s="7"/>
     </row>
     <row r="652">
-      <c r="A652" s="7"/>
-      <c r="D652" s="8"/>
-      <c r="E652" s="8"/>
+      <c r="A652" s="6"/>
+      <c r="D652" s="7"/>
+      <c r="E652" s="7"/>
     </row>
     <row r="653">
-      <c r="A653" s="7"/>
-      <c r="D653" s="8"/>
-      <c r="E653" s="8"/>
+      <c r="A653" s="6"/>
+      <c r="D653" s="7"/>
+      <c r="E653" s="7"/>
     </row>
     <row r="654">
-      <c r="A654" s="7"/>
-      <c r="D654" s="8"/>
-      <c r="E654" s="8"/>
+      <c r="A654" s="6"/>
+      <c r="D654" s="7"/>
+      <c r="E654" s="7"/>
     </row>
     <row r="655">
-      <c r="A655" s="7"/>
-      <c r="D655" s="8"/>
-      <c r="E655" s="8"/>
+      <c r="A655" s="6"/>
+      <c r="D655" s="7"/>
+      <c r="E655" s="7"/>
     </row>
     <row r="656">
-      <c r="A656" s="7"/>
-      <c r="D656" s="8"/>
-      <c r="E656" s="8"/>
+      <c r="A656" s="6"/>
+      <c r="D656" s="7"/>
+      <c r="E656" s="7"/>
     </row>
     <row r="657">
-      <c r="A657" s="7"/>
-      <c r="D657" s="8"/>
-      <c r="E657" s="8"/>
+      <c r="A657" s="6"/>
+      <c r="D657" s="7"/>
+      <c r="E657" s="7"/>
     </row>
     <row r="658">
-      <c r="A658" s="7"/>
-      <c r="D658" s="8"/>
-      <c r="E658" s="8"/>
+      <c r="A658" s="6"/>
+      <c r="D658" s="7"/>
+      <c r="E658" s="7"/>
     </row>
     <row r="659">
-      <c r="A659" s="7"/>
-      <c r="D659" s="8"/>
-      <c r="E659" s="8"/>
+      <c r="A659" s="6"/>
+      <c r="D659" s="7"/>
+      <c r="E659" s="7"/>
     </row>
     <row r="660">
-      <c r="A660" s="7"/>
-      <c r="D660" s="8"/>
-      <c r="E660" s="8"/>
+      <c r="A660" s="6"/>
+      <c r="D660" s="7"/>
+      <c r="E660" s="7"/>
     </row>
     <row r="661">
-      <c r="A661" s="7"/>
-      <c r="D661" s="8"/>
-      <c r="E661" s="8"/>
+      <c r="A661" s="6"/>
+      <c r="D661" s="7"/>
+      <c r="E661" s="7"/>
     </row>
     <row r="662">
-      <c r="A662" s="7"/>
-      <c r="D662" s="8"/>
-      <c r="E662" s="8"/>
+      <c r="A662" s="6"/>
+      <c r="D662" s="7"/>
+      <c r="E662" s="7"/>
     </row>
     <row r="663">
-      <c r="A663" s="7"/>
-      <c r="D663" s="8"/>
-      <c r="E663" s="8"/>
+      <c r="A663" s="6"/>
+      <c r="D663" s="7"/>
+      <c r="E663" s="7"/>
     </row>
     <row r="664">
-      <c r="A664" s="7"/>
-      <c r="D664" s="8"/>
-      <c r="E664" s="8"/>
+      <c r="A664" s="6"/>
+      <c r="D664" s="7"/>
+      <c r="E664" s="7"/>
     </row>
     <row r="665">
-      <c r="A665" s="7"/>
-      <c r="D665" s="8"/>
-      <c r="E665" s="8"/>
+      <c r="A665" s="6"/>
+      <c r="D665" s="7"/>
+      <c r="E665" s="7"/>
     </row>
     <row r="666">
-      <c r="A666" s="7"/>
-      <c r="D666" s="8"/>
-      <c r="E666" s="8"/>
+      <c r="A666" s="6"/>
+      <c r="D666" s="7"/>
+      <c r="E666" s="7"/>
     </row>
     <row r="667">
-      <c r="A667" s="7"/>
-      <c r="D667" s="8"/>
-      <c r="E667" s="8"/>
+      <c r="A667" s="6"/>
+      <c r="D667" s="7"/>
+      <c r="E667" s="7"/>
     </row>
     <row r="668">
-      <c r="A668" s="7"/>
-      <c r="D668" s="8"/>
-      <c r="E668" s="8"/>
+      <c r="A668" s="6"/>
+      <c r="D668" s="7"/>
+      <c r="E668" s="7"/>
     </row>
     <row r="669">
-      <c r="A669" s="7"/>
-      <c r="D669" s="8"/>
-      <c r="E669" s="8"/>
+      <c r="A669" s="6"/>
+      <c r="D669" s="7"/>
+      <c r="E669" s="7"/>
     </row>
     <row r="670">
-      <c r="A670" s="7"/>
-      <c r="D670" s="8"/>
-      <c r="E670" s="8"/>
+      <c r="A670" s="6"/>
+      <c r="D670" s="7"/>
+      <c r="E670" s="7"/>
     </row>
     <row r="671">
-      <c r="A671" s="7"/>
-      <c r="D671" s="8"/>
-      <c r="E671" s="8"/>
+      <c r="A671" s="6"/>
+      <c r="D671" s="7"/>
+      <c r="E671" s="7"/>
     </row>
     <row r="672">
-      <c r="A672" s="7"/>
-      <c r="D672" s="8"/>
-      <c r="E672" s="8"/>
+      <c r="A672" s="6"/>
+      <c r="D672" s="7"/>
+      <c r="E672" s="7"/>
     </row>
     <row r="673">
-      <c r="A673" s="7"/>
-      <c r="D673" s="8"/>
-      <c r="E673" s="8"/>
+      <c r="A673" s="6"/>
+      <c r="D673" s="7"/>
+      <c r="E673" s="7"/>
     </row>
     <row r="674">
-      <c r="A674" s="7"/>
-      <c r="D674" s="8"/>
-      <c r="E674" s="8"/>
+      <c r="A674" s="6"/>
+      <c r="D674" s="7"/>
+      <c r="E674" s="7"/>
     </row>
     <row r="675">
-      <c r="A675" s="7"/>
-      <c r="D675" s="8"/>
-      <c r="E675" s="8"/>
+      <c r="A675" s="6"/>
+      <c r="D675" s="7"/>
+      <c r="E675" s="7"/>
     </row>
     <row r="676">
-      <c r="A676" s="7"/>
-      <c r="D676" s="8"/>
-      <c r="E676" s="8"/>
+      <c r="A676" s="6"/>
+      <c r="D676" s="7"/>
+      <c r="E676" s="7"/>
     </row>
     <row r="677">
-      <c r="A677" s="7"/>
-      <c r="D677" s="8"/>
-      <c r="E677" s="8"/>
+      <c r="A677" s="6"/>
+      <c r="D677" s="7"/>
+      <c r="E677" s="7"/>
     </row>
     <row r="678">
-      <c r="A678" s="7"/>
-      <c r="D678" s="8"/>
-      <c r="E678" s="8"/>
+      <c r="A678" s="6"/>
+      <c r="D678" s="7"/>
+      <c r="E678" s="7"/>
     </row>
     <row r="679">
-      <c r="A679" s="7"/>
-      <c r="D679" s="8"/>
-      <c r="E679" s="8"/>
+      <c r="A679" s="6"/>
+      <c r="D679" s="7"/>
+      <c r="E679" s="7"/>
     </row>
     <row r="680">
-      <c r="A680" s="7"/>
-      <c r="D680" s="8"/>
-      <c r="E680" s="8"/>
+      <c r="A680" s="6"/>
+      <c r="D680" s="7"/>
+      <c r="E680" s="7"/>
     </row>
     <row r="681">
-      <c r="A681" s="7"/>
-      <c r="D681" s="8"/>
-      <c r="E681" s="8"/>
+      <c r="A681" s="6"/>
+      <c r="D681" s="7"/>
+      <c r="E681" s="7"/>
     </row>
     <row r="682">
-      <c r="A682" s="7"/>
-      <c r="D682" s="8"/>
-      <c r="E682" s="8"/>
+      <c r="A682" s="6"/>
+      <c r="D682" s="7"/>
+      <c r="E682" s="7"/>
     </row>
     <row r="683">
-      <c r="A683" s="7"/>
-      <c r="D683" s="8"/>
-      <c r="E683" s="8"/>
+      <c r="A683" s="6"/>
+      <c r="D683" s="7"/>
+      <c r="E683" s="7"/>
     </row>
     <row r="684">
-      <c r="A684" s="7"/>
-      <c r="D684" s="8"/>
-      <c r="E684" s="8"/>
+      <c r="A684" s="6"/>
+      <c r="D684" s="7"/>
+      <c r="E684" s="7"/>
     </row>
     <row r="685">
-      <c r="A685" s="7"/>
-      <c r="D685" s="8"/>
-      <c r="E685" s="8"/>
+      <c r="A685" s="6"/>
+      <c r="D685" s="7"/>
+      <c r="E685" s="7"/>
     </row>
     <row r="686">
-      <c r="A686" s="7"/>
-      <c r="D686" s="8"/>
-      <c r="E686" s="8"/>
+      <c r="A686" s="6"/>
+      <c r="D686" s="7"/>
+      <c r="E686" s="7"/>
     </row>
     <row r="687">
-      <c r="A687" s="7"/>
-      <c r="D687" s="8"/>
-      <c r="E687" s="8"/>
+      <c r="A687" s="6"/>
+      <c r="D687" s="7"/>
+      <c r="E687" s="7"/>
     </row>
     <row r="688">
-      <c r="A688" s="7"/>
-      <c r="D688" s="8"/>
-      <c r="E688" s="8"/>
+      <c r="A688" s="6"/>
+      <c r="D688" s="7"/>
+      <c r="E688" s="7"/>
     </row>
     <row r="689">
-      <c r="A689" s="7"/>
-      <c r="D689" s="8"/>
-      <c r="E689" s="8"/>
+      <c r="A689" s="6"/>
+      <c r="D689" s="7"/>
+      <c r="E689" s="7"/>
     </row>
     <row r="690">
-      <c r="A690" s="7"/>
-      <c r="D690" s="8"/>
-      <c r="E690" s="8"/>
+      <c r="A690" s="6"/>
+      <c r="D690" s="7"/>
+      <c r="E690" s="7"/>
     </row>
     <row r="691">
-      <c r="A691" s="7"/>
-      <c r="D691" s="8"/>
-      <c r="E691" s="8"/>
+      <c r="A691" s="6"/>
+      <c r="D691" s="7"/>
+      <c r="E691" s="7"/>
     </row>
     <row r="692">
-      <c r="A692" s="7"/>
-      <c r="D692" s="8"/>
-      <c r="E692" s="8"/>
+      <c r="A692" s="6"/>
+      <c r="D692" s="7"/>
+      <c r="E692" s="7"/>
     </row>
     <row r="693">
-      <c r="A693" s="7"/>
-      <c r="D693" s="8"/>
-      <c r="E693" s="8"/>
+      <c r="A693" s="6"/>
+      <c r="D693" s="7"/>
+      <c r="E693" s="7"/>
     </row>
     <row r="694">
-      <c r="A694" s="7"/>
-      <c r="D694" s="8"/>
-      <c r="E694" s="8"/>
+      <c r="A694" s="6"/>
+      <c r="D694" s="7"/>
+      <c r="E694" s="7"/>
     </row>
     <row r="695">
-      <c r="A695" s="7"/>
-      <c r="D695" s="8"/>
-      <c r="E695" s="8"/>
+      <c r="A695" s="6"/>
+      <c r="D695" s="7"/>
+      <c r="E695" s="7"/>
     </row>
     <row r="696">
-      <c r="A696" s="7"/>
-      <c r="D696" s="8"/>
-      <c r="E696" s="8"/>
+      <c r="A696" s="6"/>
+      <c r="D696" s="7"/>
+      <c r="E696" s="7"/>
     </row>
     <row r="697">
-      <c r="A697" s="7"/>
-      <c r="D697" s="8"/>
-      <c r="E697" s="8"/>
+      <c r="A697" s="6"/>
+      <c r="D697" s="7"/>
+      <c r="E697" s="7"/>
     </row>
     <row r="698">
-      <c r="A698" s="7"/>
-      <c r="D698" s="8"/>
-      <c r="E698" s="8"/>
+      <c r="A698" s="6"/>
+      <c r="D698" s="7"/>
+      <c r="E698" s="7"/>
     </row>
     <row r="699">
-      <c r="A699" s="7"/>
-      <c r="D699" s="8"/>
-      <c r="E699" s="8"/>
+      <c r="A699" s="6"/>
+      <c r="D699" s="7"/>
+      <c r="E699" s="7"/>
     </row>
     <row r="700">
-      <c r="A700" s="7"/>
-      <c r="D700" s="8"/>
-      <c r="E700" s="8"/>
+      <c r="A700" s="6"/>
+      <c r="D700" s="7"/>
+      <c r="E700" s="7"/>
     </row>
     <row r="701">
-      <c r="A701" s="7"/>
-      <c r="D701" s="8"/>
-      <c r="E701" s="8"/>
+      <c r="A701" s="6"/>
+      <c r="D701" s="7"/>
+      <c r="E701" s="7"/>
     </row>
     <row r="702">
-      <c r="A702" s="7"/>
-      <c r="D702" s="8"/>
-      <c r="E702" s="8"/>
+      <c r="A702" s="6"/>
+      <c r="D702" s="7"/>
+      <c r="E702" s="7"/>
     </row>
     <row r="703">
-      <c r="A703" s="7"/>
-      <c r="D703" s="8"/>
-      <c r="E703" s="8"/>
+      <c r="A703" s="6"/>
+      <c r="D703" s="7"/>
+      <c r="E703" s="7"/>
     </row>
     <row r="704">
-      <c r="A704" s="7"/>
-      <c r="D704" s="8"/>
-      <c r="E704" s="8"/>
+      <c r="A704" s="6"/>
+      <c r="D704" s="7"/>
+      <c r="E704" s="7"/>
     </row>
     <row r="705">
-      <c r="A705" s="7"/>
-      <c r="D705" s="8"/>
-      <c r="E705" s="8"/>
+      <c r="A705" s="6"/>
+      <c r="D705" s="7"/>
+      <c r="E705" s="7"/>
     </row>
     <row r="706">
-      <c r="A706" s="7"/>
-      <c r="D706" s="8"/>
-      <c r="E706" s="8"/>
+      <c r="A706" s="6"/>
+      <c r="D706" s="7"/>
+      <c r="E706" s="7"/>
     </row>
     <row r="707">
-      <c r="A707" s="7"/>
-      <c r="D707" s="8"/>
-      <c r="E707" s="8"/>
+      <c r="A707" s="6"/>
+      <c r="D707" s="7"/>
+      <c r="E707" s="7"/>
     </row>
     <row r="708">
-      <c r="A708" s="7"/>
-      <c r="D708" s="8"/>
-      <c r="E708" s="8"/>
+      <c r="A708" s="6"/>
+      <c r="D708" s="7"/>
+      <c r="E708" s="7"/>
     </row>
     <row r="709">
-      <c r="A709" s="7"/>
-      <c r="D709" s="8"/>
-      <c r="E709" s="8"/>
+      <c r="A709" s="6"/>
+      <c r="D709" s="7"/>
+      <c r="E709" s="7"/>
     </row>
     <row r="710">
-      <c r="A710" s="7"/>
-      <c r="D710" s="8"/>
-      <c r="E710" s="8"/>
+      <c r="A710" s="6"/>
+      <c r="D710" s="7"/>
+      <c r="E710" s="7"/>
     </row>
     <row r="711">
-      <c r="A711" s="7"/>
-      <c r="D711" s="8"/>
-      <c r="E711" s="8"/>
+      <c r="A711" s="6"/>
+      <c r="D711" s="7"/>
+      <c r="E711" s="7"/>
     </row>
     <row r="712">
-      <c r="A712" s="7"/>
-      <c r="D712" s="8"/>
-      <c r="E712" s="8"/>
+      <c r="A712" s="6"/>
+      <c r="D712" s="7"/>
+      <c r="E712" s="7"/>
     </row>
     <row r="713">
-      <c r="A713" s="7"/>
-      <c r="D713" s="8"/>
-      <c r="E713" s="8"/>
+      <c r="A713" s="6"/>
+      <c r="D713" s="7"/>
+      <c r="E713" s="7"/>
     </row>
     <row r="714">
-      <c r="A714" s="7"/>
-      <c r="D714" s="8"/>
-      <c r="E714" s="8"/>
+      <c r="A714" s="6"/>
+      <c r="D714" s="7"/>
+      <c r="E714" s="7"/>
     </row>
     <row r="715">
-      <c r="A715" s="7"/>
-      <c r="D715" s="8"/>
-      <c r="E715" s="8"/>
+      <c r="A715" s="6"/>
+      <c r="D715" s="7"/>
+      <c r="E715" s="7"/>
     </row>
     <row r="716">
-      <c r="A716" s="7"/>
-      <c r="D716" s="8"/>
-      <c r="E716" s="8"/>
+      <c r="A716" s="6"/>
+      <c r="D716" s="7"/>
+      <c r="E716" s="7"/>
     </row>
     <row r="717">
-      <c r="A717" s="7"/>
-      <c r="D717" s="8"/>
-      <c r="E717" s="8"/>
+      <c r="A717" s="6"/>
+      <c r="D717" s="7"/>
+      <c r="E717" s="7"/>
     </row>
     <row r="718">
-      <c r="A718" s="7"/>
-      <c r="D718" s="8"/>
-      <c r="E718" s="8"/>
+      <c r="A718" s="6"/>
+      <c r="D718" s="7"/>
+      <c r="E718" s="7"/>
     </row>
     <row r="719">
-      <c r="A719" s="7"/>
-      <c r="D719" s="8"/>
-      <c r="E719" s="8"/>
+      <c r="A719" s="6"/>
+      <c r="D719" s="7"/>
+      <c r="E719" s="7"/>
     </row>
     <row r="720">
-      <c r="A720" s="7"/>
-      <c r="D720" s="8"/>
-      <c r="E720" s="8"/>
+      <c r="A720" s="6"/>
+      <c r="D720" s="7"/>
+      <c r="E720" s="7"/>
     </row>
     <row r="721">
-      <c r="A721" s="7"/>
-      <c r="D721" s="8"/>
-      <c r="E721" s="8"/>
+      <c r="A721" s="6"/>
+      <c r="D721" s="7"/>
+      <c r="E721" s="7"/>
     </row>
     <row r="722">
-      <c r="A722" s="7"/>
-      <c r="D722" s="8"/>
-      <c r="E722" s="8"/>
+      <c r="A722" s="6"/>
+      <c r="D722" s="7"/>
+      <c r="E722" s="7"/>
     </row>
     <row r="723">
-      <c r="A723" s="7"/>
-      <c r="D723" s="8"/>
-      <c r="E723" s="8"/>
+      <c r="A723" s="6"/>
+      <c r="D723" s="7"/>
+      <c r="E723" s="7"/>
     </row>
     <row r="724">
-      <c r="A724" s="7"/>
-      <c r="D724" s="8"/>
-      <c r="E724" s="8"/>
+      <c r="A724" s="6"/>
+      <c r="D724" s="7"/>
+      <c r="E724" s="7"/>
     </row>
     <row r="725">
-      <c r="A725" s="7"/>
-      <c r="D725" s="8"/>
-      <c r="E725" s="8"/>
+      <c r="A725" s="6"/>
+      <c r="D725" s="7"/>
+      <c r="E725" s="7"/>
     </row>
     <row r="726">
-      <c r="A726" s="7"/>
-      <c r="D726" s="8"/>
-      <c r="E726" s="8"/>
+      <c r="A726" s="6"/>
+      <c r="D726" s="7"/>
+      <c r="E726" s="7"/>
     </row>
     <row r="727">
-      <c r="A727" s="7"/>
-      <c r="D727" s="8"/>
-      <c r="E727" s="8"/>
+      <c r="A727" s="6"/>
+      <c r="D727" s="7"/>
+      <c r="E727" s="7"/>
     </row>
     <row r="728">
-      <c r="A728" s="7"/>
-      <c r="D728" s="8"/>
-      <c r="E728" s="8"/>
+      <c r="A728" s="6"/>
+      <c r="D728" s="7"/>
+      <c r="E728" s="7"/>
     </row>
     <row r="729">
-      <c r="A729" s="7"/>
-      <c r="D729" s="8"/>
-      <c r="E729" s="8"/>
+      <c r="A729" s="6"/>
+      <c r="D729" s="7"/>
+      <c r="E729" s="7"/>
     </row>
     <row r="730">
-      <c r="A730" s="7"/>
-      <c r="D730" s="8"/>
-      <c r="E730" s="8"/>
+      <c r="A730" s="6"/>
+      <c r="D730" s="7"/>
+      <c r="E730" s="7"/>
     </row>
     <row r="731">
-      <c r="A731" s="7"/>
-      <c r="D731" s="8"/>
-      <c r="E731" s="8"/>
+      <c r="A731" s="6"/>
+      <c r="D731" s="7"/>
+      <c r="E731" s="7"/>
     </row>
     <row r="732">
-      <c r="A732" s="7"/>
-      <c r="D732" s="8"/>
-      <c r="E732" s="8"/>
+      <c r="A732" s="6"/>
+      <c r="D732" s="7"/>
+      <c r="E732" s="7"/>
     </row>
     <row r="733">
-      <c r="A733" s="7"/>
-      <c r="D733" s="8"/>
-      <c r="E733" s="8"/>
+      <c r="A733" s="6"/>
+      <c r="D733" s="7"/>
+      <c r="E733" s="7"/>
     </row>
     <row r="734">
-      <c r="A734" s="7"/>
-      <c r="D734" s="8"/>
-      <c r="E734" s="8"/>
+      <c r="A734" s="6"/>
+      <c r="D734" s="7"/>
+      <c r="E734" s="7"/>
     </row>
     <row r="735">
-      <c r="A735" s="7"/>
-      <c r="D735" s="8"/>
-      <c r="E735" s="8"/>
+      <c r="A735" s="6"/>
+      <c r="D735" s="7"/>
+      <c r="E735" s="7"/>
     </row>
     <row r="736">
-      <c r="A736" s="7"/>
-      <c r="D736" s="8"/>
-      <c r="E736" s="8"/>
+      <c r="A736" s="6"/>
+      <c r="D736" s="7"/>
+      <c r="E736" s="7"/>
     </row>
     <row r="737">
-      <c r="A737" s="7"/>
-      <c r="D737" s="8"/>
-      <c r="E737" s="8"/>
+      <c r="A737" s="6"/>
+      <c r="D737" s="7"/>
+      <c r="E737" s="7"/>
     </row>
     <row r="738">
-      <c r="A738" s="7"/>
-      <c r="D738" s="8"/>
-      <c r="E738" s="8"/>
+      <c r="A738" s="6"/>
+      <c r="D738" s="7"/>
+      <c r="E738" s="7"/>
     </row>
     <row r="739">
-      <c r="A739" s="7"/>
-      <c r="D739" s="8"/>
-      <c r="E739" s="8"/>
+      <c r="A739" s="6"/>
+      <c r="D739" s="7"/>
+      <c r="E739" s="7"/>
     </row>
     <row r="740">
-      <c r="A740" s="7"/>
-      <c r="D740" s="8"/>
-      <c r="E740" s="8"/>
+      <c r="A740" s="6"/>
+      <c r="D740" s="7"/>
+      <c r="E740" s="7"/>
     </row>
     <row r="741">
-      <c r="A741" s="7"/>
-      <c r="D741" s="8"/>
-      <c r="E741" s="8"/>
+      <c r="A741" s="6"/>
+      <c r="D741" s="7"/>
+      <c r="E741" s="7"/>
     </row>
     <row r="742">
-      <c r="A742" s="7"/>
-      <c r="D742" s="8"/>
-      <c r="E742" s="8"/>
+      <c r="A742" s="6"/>
+      <c r="D742" s="7"/>
+      <c r="E742" s="7"/>
     </row>
     <row r="743">
-      <c r="A743" s="7"/>
-      <c r="D743" s="8"/>
-      <c r="E743" s="8"/>
+      <c r="A743" s="6"/>
+      <c r="D743" s="7"/>
+      <c r="E743" s="7"/>
     </row>
     <row r="744">
-      <c r="A744" s="7"/>
-      <c r="D744" s="8"/>
-      <c r="E744" s="8"/>
+      <c r="A744" s="6"/>
+      <c r="D744" s="7"/>
+      <c r="E744" s="7"/>
     </row>
     <row r="745">
-      <c r="A745" s="7"/>
-      <c r="D745" s="8"/>
-      <c r="E745" s="8"/>
+      <c r="A745" s="6"/>
+      <c r="D745" s="7"/>
+      <c r="E745" s="7"/>
     </row>
     <row r="746">
-      <c r="A746" s="7"/>
-      <c r="D746" s="8"/>
-      <c r="E746" s="8"/>
+      <c r="A746" s="6"/>
+      <c r="D746" s="7"/>
+      <c r="E746" s="7"/>
     </row>
     <row r="747">
-      <c r="A747" s="7"/>
-      <c r="D747" s="8"/>
-      <c r="E747" s="8"/>
+      <c r="A747" s="6"/>
+      <c r="D747" s="7"/>
+      <c r="E747" s="7"/>
     </row>
     <row r="748">
-      <c r="A748" s="7"/>
-      <c r="D748" s="8"/>
-      <c r="E748" s="8"/>
+      <c r="A748" s="6"/>
+      <c r="D748" s="7"/>
+      <c r="E748" s="7"/>
     </row>
     <row r="749">
-      <c r="A749" s="7"/>
-      <c r="D749" s="8"/>
-      <c r="E749" s="8"/>
+      <c r="A749" s="6"/>
+      <c r="D749" s="7"/>
+      <c r="E749" s="7"/>
     </row>
     <row r="750">
-      <c r="A750" s="7"/>
-      <c r="D750" s="8"/>
-      <c r="E750" s="8"/>
+      <c r="A750" s="6"/>
+      <c r="D750" s="7"/>
+      <c r="E750" s="7"/>
     </row>
     <row r="751">
-      <c r="A751" s="7"/>
-      <c r="D751" s="8"/>
-      <c r="E751" s="8"/>
+      <c r="A751" s="6"/>
+      <c r="D751" s="7"/>
+      <c r="E751" s="7"/>
     </row>
     <row r="752">
-      <c r="A752" s="7"/>
-      <c r="D752" s="8"/>
-      <c r="E752" s="8"/>
+      <c r="A752" s="6"/>
+      <c r="D752" s="7"/>
+      <c r="E752" s="7"/>
     </row>
     <row r="753">
-      <c r="A753" s="7"/>
-      <c r="D753" s="8"/>
-      <c r="E753" s="8"/>
+      <c r="A753" s="6"/>
+      <c r="D753" s="7"/>
+      <c r="E753" s="7"/>
     </row>
     <row r="754">
-      <c r="A754" s="7"/>
-      <c r="D754" s="8"/>
-      <c r="E754" s="8"/>
+      <c r="A754" s="6"/>
+      <c r="D754" s="7"/>
+      <c r="E754" s="7"/>
     </row>
     <row r="755">
-      <c r="A755" s="7"/>
-      <c r="D755" s="8"/>
-      <c r="E755" s="8"/>
+      <c r="A755" s="6"/>
+      <c r="D755" s="7"/>
+      <c r="E755" s="7"/>
     </row>
     <row r="756">
-      <c r="A756" s="7"/>
-      <c r="D756" s="8"/>
-      <c r="E756" s="8"/>
+      <c r="A756" s="6"/>
+      <c r="D756" s="7"/>
+      <c r="E756" s="7"/>
     </row>
     <row r="757">
-      <c r="A757" s="7"/>
-      <c r="D757" s="8"/>
-      <c r="E757" s="8"/>
+      <c r="A757" s="6"/>
+      <c r="D757" s="7"/>
+      <c r="E757" s="7"/>
     </row>
     <row r="758">
-      <c r="A758" s="7"/>
-      <c r="D758" s="8"/>
-      <c r="E758" s="8"/>
+      <c r="A758" s="6"/>
+      <c r="D758" s="7"/>
+      <c r="E758" s="7"/>
     </row>
     <row r="759">
-      <c r="A759" s="7"/>
-      <c r="D759" s="8"/>
-      <c r="E759" s="8"/>
+      <c r="A759" s="6"/>
+      <c r="D759" s="7"/>
+      <c r="E759" s="7"/>
     </row>
     <row r="760">
-      <c r="A760" s="7"/>
-      <c r="D760" s="8"/>
-      <c r="E760" s="8"/>
+      <c r="A760" s="6"/>
+      <c r="D760" s="7"/>
+      <c r="E760" s="7"/>
     </row>
     <row r="761">
-      <c r="A761" s="7"/>
-      <c r="D761" s="8"/>
-      <c r="E761" s="8"/>
+      <c r="A761" s="6"/>
+      <c r="D761" s="7"/>
+      <c r="E761" s="7"/>
     </row>
     <row r="762">
-      <c r="A762" s="7"/>
-      <c r="D762" s="8"/>
-      <c r="E762" s="8"/>
+      <c r="A762" s="6"/>
+      <c r="D762" s="7"/>
+      <c r="E762" s="7"/>
     </row>
     <row r="763">
-      <c r="A763" s="7"/>
-      <c r="D763" s="8"/>
-      <c r="E763" s="8"/>
+      <c r="A763" s="6"/>
+      <c r="D763" s="7"/>
+      <c r="E763" s="7"/>
     </row>
     <row r="764">
-      <c r="A764" s="7"/>
-      <c r="D764" s="8"/>
-      <c r="E764" s="8"/>
+      <c r="A764" s="6"/>
+      <c r="D764" s="7"/>
+      <c r="E764" s="7"/>
     </row>
     <row r="765">
-      <c r="A765" s="7"/>
-      <c r="D765" s="8"/>
-      <c r="E765" s="8"/>
+      <c r="A765" s="6"/>
+      <c r="D765" s="7"/>
+      <c r="E765" s="7"/>
     </row>
     <row r="766">
-      <c r="A766" s="7"/>
-      <c r="D766" s="8"/>
-      <c r="E766" s="8"/>
+      <c r="A766" s="6"/>
+      <c r="D766" s="7"/>
+      <c r="E766" s="7"/>
     </row>
     <row r="767">
-      <c r="A767" s="7"/>
-      <c r="D767" s="8"/>
-      <c r="E767" s="8"/>
+      <c r="A767" s="6"/>
+      <c r="D767" s="7"/>
+      <c r="E767" s="7"/>
     </row>
     <row r="768">
-      <c r="A768" s="7"/>
-      <c r="D768" s="8"/>
-      <c r="E768" s="8"/>
+      <c r="A768" s="6"/>
+      <c r="D768" s="7"/>
+      <c r="E768" s="7"/>
     </row>
     <row r="769">
-      <c r="A769" s="7"/>
-      <c r="D769" s="8"/>
-      <c r="E769" s="8"/>
+      <c r="A769" s="6"/>
+      <c r="D769" s="7"/>
+      <c r="E769" s="7"/>
     </row>
     <row r="770">
-      <c r="A770" s="7"/>
-      <c r="D770" s="8"/>
-      <c r="E770" s="8"/>
+      <c r="A770" s="6"/>
+      <c r="D770" s="7"/>
+      <c r="E770" s="7"/>
     </row>
     <row r="771">
-      <c r="A771" s="7"/>
-      <c r="D771" s="8"/>
-      <c r="E771" s="8"/>
+      <c r="A771" s="6"/>
+      <c r="D771" s="7"/>
+      <c r="E771" s="7"/>
     </row>
     <row r="772">
-      <c r="A772" s="7"/>
-      <c r="D772" s="8"/>
-      <c r="E772" s="8"/>
+      <c r="A772" s="6"/>
+      <c r="D772" s="7"/>
+      <c r="E772" s="7"/>
     </row>
     <row r="773">
-      <c r="A773" s="7"/>
-      <c r="D773" s="8"/>
-      <c r="E773" s="8"/>
+      <c r="A773" s="6"/>
+      <c r="D773" s="7"/>
+      <c r="E773" s="7"/>
     </row>
     <row r="774">
-      <c r="A774" s="7"/>
-      <c r="D774" s="8"/>
-      <c r="E774" s="8"/>
+      <c r="A774" s="6"/>
+      <c r="D774" s="7"/>
+      <c r="E774" s="7"/>
     </row>
     <row r="775">
-      <c r="A775" s="7"/>
-      <c r="D775" s="8"/>
-      <c r="E775" s="8"/>
+      <c r="A775" s="6"/>
+      <c r="D775" s="7"/>
+      <c r="E775" s="7"/>
     </row>
     <row r="776">
-      <c r="A776" s="7"/>
-      <c r="D776" s="8"/>
-      <c r="E776" s="8"/>
+      <c r="A776" s="6"/>
+      <c r="D776" s="7"/>
+      <c r="E776" s="7"/>
     </row>
     <row r="777">
-      <c r="A777" s="7"/>
-      <c r="D777" s="8"/>
-      <c r="E777" s="8"/>
+      <c r="A777" s="6"/>
+      <c r="D777" s="7"/>
+      <c r="E777" s="7"/>
     </row>
     <row r="778">
-      <c r="A778" s="7"/>
-      <c r="D778" s="8"/>
-      <c r="E778" s="8"/>
+      <c r="A778" s="6"/>
+      <c r="D778" s="7"/>
+      <c r="E778" s="7"/>
     </row>
     <row r="779">
-      <c r="A779" s="7"/>
-      <c r="D779" s="8"/>
-      <c r="E779" s="8"/>
+      <c r="A779" s="6"/>
+      <c r="D779" s="7"/>
+      <c r="E779" s="7"/>
     </row>
     <row r="780">
-      <c r="A780" s="7"/>
-      <c r="D780" s="8"/>
-      <c r="E780" s="8"/>
+      <c r="A780" s="6"/>
+      <c r="D780" s="7"/>
+      <c r="E780" s="7"/>
     </row>
     <row r="781">
-      <c r="A781" s="7"/>
-      <c r="D781" s="8"/>
-      <c r="E781" s="8"/>
+      <c r="A781" s="6"/>
+      <c r="D781" s="7"/>
+      <c r="E781" s="7"/>
     </row>
     <row r="782">
-      <c r="A782" s="7"/>
-      <c r="D782" s="8"/>
-      <c r="E782" s="8"/>
+      <c r="A782" s="6"/>
+      <c r="D782" s="7"/>
+      <c r="E782" s="7"/>
     </row>
     <row r="783">
-      <c r="A783" s="7"/>
-      <c r="D783" s="8"/>
-      <c r="E783" s="8"/>
+      <c r="A783" s="6"/>
+      <c r="D783" s="7"/>
+      <c r="E783" s="7"/>
     </row>
     <row r="784">
-      <c r="A784" s="7"/>
-      <c r="D784" s="8"/>
-      <c r="E784" s="8"/>
+      <c r="A784" s="6"/>
+      <c r="D784" s="7"/>
+      <c r="E784" s="7"/>
     </row>
     <row r="785">
-      <c r="A785" s="7"/>
-      <c r="D785" s="8"/>
-      <c r="E785" s="8"/>
+      <c r="A785" s="6"/>
+      <c r="D785" s="7"/>
+      <c r="E785" s="7"/>
     </row>
     <row r="786">
-      <c r="A786" s="7"/>
-      <c r="D786" s="8"/>
-      <c r="E786" s="8"/>
+      <c r="A786" s="6"/>
+      <c r="D786" s="7"/>
+      <c r="E786" s="7"/>
     </row>
     <row r="787">
-      <c r="A787" s="7"/>
-      <c r="D787" s="8"/>
-      <c r="E787" s="8"/>
+      <c r="A787" s="6"/>
+      <c r="D787" s="7"/>
+      <c r="E787" s="7"/>
     </row>
     <row r="788">
-      <c r="A788" s="7"/>
-      <c r="D788" s="8"/>
-      <c r="E788" s="8"/>
+      <c r="A788" s="6"/>
+      <c r="D788" s="7"/>
+      <c r="E788" s="7"/>
     </row>
     <row r="789">
-      <c r="A789" s="7"/>
-      <c r="D789" s="8"/>
-      <c r="E789" s="8"/>
+      <c r="A789" s="6"/>
+      <c r="D789" s="7"/>
+      <c r="E789" s="7"/>
     </row>
     <row r="790">
-      <c r="A790" s="7"/>
-      <c r="D790" s="8"/>
-      <c r="E790" s="8"/>
+      <c r="A790" s="6"/>
+      <c r="D790" s="7"/>
+      <c r="E790" s="7"/>
     </row>
     <row r="791">
-      <c r="A791" s="7"/>
-      <c r="D791" s="8"/>
-      <c r="E791" s="8"/>
+      <c r="A791" s="6"/>
+      <c r="D791" s="7"/>
+      <c r="E791" s="7"/>
     </row>
     <row r="792">
-      <c r="A792" s="7"/>
-      <c r="D792" s="8"/>
-      <c r="E792" s="8"/>
+      <c r="A792" s="6"/>
+      <c r="D792" s="7"/>
+      <c r="E792" s="7"/>
     </row>
     <row r="793">
-      <c r="A793" s="7"/>
-      <c r="D793" s="8"/>
-      <c r="E793" s="8"/>
+      <c r="A793" s="6"/>
+      <c r="D793" s="7"/>
+      <c r="E793" s="7"/>
     </row>
     <row r="794">
-      <c r="A794" s="7"/>
-      <c r="D794" s="8"/>
-      <c r="E794" s="8"/>
+      <c r="A794" s="6"/>
+      <c r="D794" s="7"/>
+      <c r="E794" s="7"/>
     </row>
     <row r="795">
-      <c r="A795" s="7"/>
-      <c r="D795" s="8"/>
-      <c r="E795" s="8"/>
+      <c r="A795" s="6"/>
+      <c r="D795" s="7"/>
+      <c r="E795" s="7"/>
     </row>
     <row r="796">
-      <c r="A796" s="7"/>
-      <c r="D796" s="8"/>
-      <c r="E796" s="8"/>
+      <c r="A796" s="6"/>
+      <c r="D796" s="7"/>
+      <c r="E796" s="7"/>
     </row>
     <row r="797">
-      <c r="A797" s="7"/>
-      <c r="D797" s="8"/>
-      <c r="E797" s="8"/>
+      <c r="A797" s="6"/>
+      <c r="D797" s="7"/>
+      <c r="E797" s="7"/>
     </row>
     <row r="798">
-      <c r="A798" s="7"/>
-      <c r="D798" s="8"/>
-      <c r="E798" s="8"/>
+      <c r="A798" s="6"/>
+      <c r="D798" s="7"/>
+      <c r="E798" s="7"/>
     </row>
     <row r="799">
-      <c r="A799" s="7"/>
-      <c r="D799" s="8"/>
-      <c r="E799" s="8"/>
+      <c r="A799" s="6"/>
+      <c r="D799" s="7"/>
+      <c r="E799" s="7"/>
     </row>
     <row r="800">
-      <c r="A800" s="7"/>
-      <c r="D800" s="8"/>
-      <c r="E800" s="8"/>
+      <c r="A800" s="6"/>
+      <c r="D800" s="7"/>
+      <c r="E800" s="7"/>
     </row>
     <row r="801">
-      <c r="A801" s="7"/>
-      <c r="D801" s="8"/>
-      <c r="E801" s="8"/>
+      <c r="A801" s="6"/>
+      <c r="D801" s="7"/>
+      <c r="E801" s="7"/>
     </row>
     <row r="802">
-      <c r="A802" s="7"/>
-      <c r="D802" s="8"/>
-      <c r="E802" s="8"/>
+      <c r="A802" s="6"/>
+      <c r="D802" s="7"/>
+      <c r="E802" s="7"/>
     </row>
     <row r="803">
-      <c r="A803" s="7"/>
-      <c r="D803" s="8"/>
-      <c r="E803" s="8"/>
+      <c r="A803" s="6"/>
+      <c r="D803" s="7"/>
+      <c r="E803" s="7"/>
     </row>
     <row r="804">
-      <c r="A804" s="7"/>
-      <c r="D804" s="8"/>
-      <c r="E804" s="8"/>
+      <c r="A804" s="6"/>
+      <c r="D804" s="7"/>
+      <c r="E804" s="7"/>
     </row>
     <row r="805">
-      <c r="A805" s="7"/>
-      <c r="D805" s="8"/>
-      <c r="E805" s="8"/>
+      <c r="A805" s="6"/>
+      <c r="D805" s="7"/>
+      <c r="E805" s="7"/>
     </row>
     <row r="806">
-      <c r="A806" s="7"/>
-      <c r="D806" s="8"/>
-      <c r="E806" s="8"/>
+      <c r="A806" s="6"/>
+      <c r="D806" s="7"/>
+      <c r="E806" s="7"/>
     </row>
     <row r="807">
-      <c r="A807" s="7"/>
-      <c r="D807" s="8"/>
-      <c r="E807" s="8"/>
+      <c r="A807" s="6"/>
+      <c r="D807" s="7"/>
+      <c r="E807" s="7"/>
     </row>
     <row r="808">
-      <c r="A808" s="7"/>
-      <c r="D808" s="8"/>
-      <c r="E808" s="8"/>
+      <c r="A808" s="6"/>
+      <c r="D808" s="7"/>
+      <c r="E808" s="7"/>
     </row>
     <row r="809">
-      <c r="A809" s="7"/>
-      <c r="D809" s="8"/>
-      <c r="E809" s="8"/>
+      <c r="A809" s="6"/>
+      <c r="D809" s="7"/>
+      <c r="E809" s="7"/>
     </row>
     <row r="810">
-      <c r="A810" s="7"/>
-      <c r="D810" s="8"/>
-      <c r="E810" s="8"/>
+      <c r="A810" s="6"/>
+      <c r="D810" s="7"/>
+      <c r="E810" s="7"/>
     </row>
     <row r="811">
-      <c r="A811" s="7"/>
-      <c r="D811" s="8"/>
-      <c r="E811" s="8"/>
+      <c r="A811" s="6"/>
+      <c r="D811" s="7"/>
+      <c r="E811" s="7"/>
     </row>
     <row r="812">
-      <c r="A812" s="7"/>
-      <c r="D812" s="8"/>
-      <c r="E812" s="8"/>
+      <c r="A812" s="6"/>
+      <c r="D812" s="7"/>
+      <c r="E812" s="7"/>
     </row>
     <row r="813">
-      <c r="A813" s="7"/>
-      <c r="D813" s="8"/>
-      <c r="E813" s="8"/>
+      <c r="A813" s="6"/>
+      <c r="D813" s="7"/>
+      <c r="E813" s="7"/>
     </row>
     <row r="814">
-      <c r="A814" s="7"/>
-      <c r="D814" s="8"/>
-      <c r="E814" s="8"/>
+      <c r="A814" s="6"/>
+      <c r="D814" s="7"/>
+      <c r="E814" s="7"/>
     </row>
     <row r="815">
-      <c r="A815" s="7"/>
-      <c r="D815" s="8"/>
-      <c r="E815" s="8"/>
+      <c r="A815" s="6"/>
+      <c r="D815" s="7"/>
+      <c r="E815" s="7"/>
     </row>
     <row r="816">
-      <c r="A816" s="7"/>
-      <c r="D816" s="8"/>
-      <c r="E816" s="8"/>
+      <c r="A816" s="6"/>
+      <c r="D816" s="7"/>
+      <c r="E816" s="7"/>
     </row>
     <row r="817">
-      <c r="A817" s="7"/>
-      <c r="D817" s="8"/>
-      <c r="E817" s="8"/>
+      <c r="A817" s="6"/>
+      <c r="D817" s="7"/>
+      <c r="E817" s="7"/>
     </row>
     <row r="818">
-      <c r="A818" s="7"/>
-      <c r="D818" s="8"/>
-      <c r="E818" s="8"/>
+      <c r="A818" s="6"/>
+      <c r="D818" s="7"/>
+      <c r="E818" s="7"/>
     </row>
     <row r="819">
-      <c r="A819" s="7"/>
-      <c r="D819" s="8"/>
-      <c r="E819" s="8"/>
+      <c r="A819" s="6"/>
+      <c r="D819" s="7"/>
+      <c r="E819" s="7"/>
     </row>
     <row r="820">
-      <c r="A820" s="7"/>
-      <c r="D820" s="8"/>
-      <c r="E820" s="8"/>
+      <c r="A820" s="6"/>
+      <c r="D820" s="7"/>
+      <c r="E820" s="7"/>
     </row>
     <row r="821">
-      <c r="A821" s="7"/>
-      <c r="D821" s="8"/>
-      <c r="E821" s="8"/>
+      <c r="A821" s="6"/>
+      <c r="D821" s="7"/>
+      <c r="E821" s="7"/>
     </row>
     <row r="822">
-      <c r="A822" s="7"/>
-      <c r="D822" s="8"/>
-      <c r="E822" s="8"/>
+      <c r="A822" s="6"/>
+      <c r="D822" s="7"/>
+      <c r="E822" s="7"/>
     </row>
     <row r="823">
-      <c r="A823" s="7"/>
-      <c r="D823" s="8"/>
-      <c r="E823" s="8"/>
+      <c r="A823" s="6"/>
+      <c r="D823" s="7"/>
+      <c r="E823" s="7"/>
     </row>
     <row r="824">
-      <c r="A824" s="7"/>
-      <c r="D824" s="8"/>
-      <c r="E824" s="8"/>
+      <c r="A824" s="6"/>
+      <c r="D824" s="7"/>
+      <c r="E824" s="7"/>
     </row>
     <row r="825">
-      <c r="A825" s="7"/>
-      <c r="D825" s="8"/>
-      <c r="E825" s="8"/>
+      <c r="A825" s="6"/>
+      <c r="D825" s="7"/>
+      <c r="E825" s="7"/>
     </row>
     <row r="826">
-      <c r="A826" s="7"/>
-      <c r="D826" s="8"/>
-      <c r="E826" s="8"/>
+      <c r="A826" s="6"/>
+      <c r="D826" s="7"/>
+      <c r="E826" s="7"/>
     </row>
     <row r="827">
-      <c r="A827" s="7"/>
-      <c r="D827" s="8"/>
-      <c r="E827" s="8"/>
+      <c r="A827" s="6"/>
+      <c r="D827" s="7"/>
+      <c r="E827" s="7"/>
     </row>
     <row r="828">
-      <c r="A828" s="7"/>
-      <c r="D828" s="8"/>
-      <c r="E828" s="8"/>
+      <c r="A828" s="6"/>
+      <c r="D828" s="7"/>
+      <c r="E828" s="7"/>
     </row>
     <row r="829">
-      <c r="A829" s="7"/>
-      <c r="D829" s="8"/>
-      <c r="E829" s="8"/>
+      <c r="A829" s="6"/>
+      <c r="D829" s="7"/>
+      <c r="E829" s="7"/>
     </row>
     <row r="830">
-      <c r="A830" s="7"/>
-      <c r="D830" s="8"/>
-      <c r="E830" s="8"/>
+      <c r="A830" s="6"/>
+      <c r="D830" s="7"/>
+      <c r="E830" s="7"/>
     </row>
     <row r="831">
-      <c r="A831" s="7"/>
-      <c r="D831" s="8"/>
-      <c r="E831" s="8"/>
+      <c r="A831" s="6"/>
+      <c r="D831" s="7"/>
+      <c r="E831" s="7"/>
     </row>
     <row r="832">
-      <c r="A832" s="7"/>
-      <c r="D832" s="8"/>
-      <c r="E832" s="8"/>
+      <c r="A832" s="6"/>
+      <c r="D832" s="7"/>
+      <c r="E832" s="7"/>
     </row>
     <row r="833">
-      <c r="A833" s="7"/>
-      <c r="D833" s="8"/>
-      <c r="E833" s="8"/>
+      <c r="A833" s="6"/>
+      <c r="D833" s="7"/>
+      <c r="E833" s="7"/>
     </row>
     <row r="834">
-      <c r="A834" s="7"/>
-      <c r="D834" s="8"/>
-      <c r="E834" s="8"/>
+      <c r="A834" s="6"/>
+      <c r="D834" s="7"/>
+      <c r="E834" s="7"/>
     </row>
     <row r="835">
-      <c r="A835" s="7"/>
-      <c r="D835" s="8"/>
-      <c r="E835" s="8"/>
+      <c r="A835" s="6"/>
+      <c r="D835" s="7"/>
+      <c r="E835" s="7"/>
     </row>
     <row r="836">
-      <c r="A836" s="7"/>
-      <c r="D836" s="8"/>
-      <c r="E836" s="8"/>
+      <c r="A836" s="6"/>
+      <c r="D836" s="7"/>
+      <c r="E836" s="7"/>
     </row>
     <row r="837">
-      <c r="A837" s="7"/>
-      <c r="D837" s="8"/>
-      <c r="E837" s="8"/>
+      <c r="A837" s="6"/>
+      <c r="D837" s="7"/>
+      <c r="E837" s="7"/>
     </row>
     <row r="838">
-      <c r="A838" s="7"/>
-      <c r="D838" s="8"/>
-      <c r="E838" s="8"/>
+      <c r="A838" s="6"/>
+      <c r="D838" s="7"/>
+      <c r="E838" s="7"/>
     </row>
     <row r="839">
-      <c r="A839" s="7"/>
-      <c r="D839" s="8"/>
-      <c r="E839" s="8"/>
+      <c r="A839" s="6"/>
+      <c r="D839" s="7"/>
+      <c r="E839" s="7"/>
     </row>
     <row r="840">
-      <c r="A840" s="7"/>
-      <c r="D840" s="8"/>
-      <c r="E840" s="8"/>
+      <c r="A840" s="6"/>
+      <c r="D840" s="7"/>
+      <c r="E840" s="7"/>
     </row>
     <row r="841">
-      <c r="A841" s="7"/>
-      <c r="D841" s="8"/>
-      <c r="E841" s="8"/>
+      <c r="A841" s="6"/>
+      <c r="D841" s="7"/>
+      <c r="E841" s="7"/>
     </row>
     <row r="842">
-      <c r="A842" s="7"/>
-      <c r="D842" s="8"/>
-      <c r="E842" s="8"/>
+      <c r="A842" s="6"/>
+      <c r="D842" s="7"/>
+      <c r="E842" s="7"/>
     </row>
     <row r="843">
-      <c r="A843" s="7"/>
-      <c r="D843" s="8"/>
-      <c r="E843" s="8"/>
+      <c r="A843" s="6"/>
+      <c r="D843" s="7"/>
+      <c r="E843" s="7"/>
     </row>
     <row r="844">
-      <c r="A844" s="7"/>
-      <c r="D844" s="8"/>
-      <c r="E844" s="8"/>
+      <c r="A844" s="6"/>
+      <c r="D844" s="7"/>
+      <c r="E844" s="7"/>
     </row>
     <row r="845">
-      <c r="A845" s="7"/>
-      <c r="D845" s="8"/>
-      <c r="E845" s="8"/>
+      <c r="A845" s="6"/>
+      <c r="D845" s="7"/>
+      <c r="E845" s="7"/>
     </row>
     <row r="846">
-      <c r="A846" s="7"/>
-      <c r="D846" s="8"/>
-      <c r="E846" s="8"/>
+      <c r="A846" s="6"/>
+      <c r="D846" s="7"/>
+      <c r="E846" s="7"/>
     </row>
     <row r="847">
-      <c r="A847" s="7"/>
-      <c r="D847" s="8"/>
-      <c r="E847" s="8"/>
+      <c r="A847" s="6"/>
+      <c r="D847" s="7"/>
+      <c r="E847" s="7"/>
     </row>
     <row r="848">
-      <c r="A848" s="7"/>
-      <c r="D848" s="8"/>
-      <c r="E848" s="8"/>
+      <c r="A848" s="6"/>
+      <c r="D848" s="7"/>
+      <c r="E848" s="7"/>
     </row>
     <row r="849">
-      <c r="A849" s="7"/>
-      <c r="D849" s="8"/>
-      <c r="E849" s="8"/>
+      <c r="A849" s="6"/>
+      <c r="D849" s="7"/>
+      <c r="E849" s="7"/>
     </row>
     <row r="850">
-      <c r="A850" s="7"/>
-      <c r="D850" s="8"/>
-      <c r="E850" s="8"/>
+      <c r="A850" s="6"/>
+      <c r="D850" s="7"/>
+      <c r="E850" s="7"/>
     </row>
     <row r="851">
-      <c r="A851" s="7"/>
-      <c r="D851" s="8"/>
-      <c r="E851" s="8"/>
+      <c r="A851" s="6"/>
+      <c r="D851" s="7"/>
+      <c r="E851" s="7"/>
     </row>
     <row r="852">
-      <c r="A852" s="7"/>
-      <c r="D852" s="8"/>
-      <c r="E852" s="8"/>
+      <c r="A852" s="6"/>
+      <c r="D852" s="7"/>
+      <c r="E852" s="7"/>
     </row>
     <row r="853">
-      <c r="A853" s="7"/>
-      <c r="D853" s="8"/>
-      <c r="E853" s="8"/>
+      <c r="A853" s="6"/>
+      <c r="D853" s="7"/>
+      <c r="E853" s="7"/>
     </row>
     <row r="854">
-      <c r="A854" s="7"/>
-      <c r="D854" s="8"/>
-      <c r="E854" s="8"/>
+      <c r="A854" s="6"/>
+      <c r="D854" s="7"/>
+      <c r="E854" s="7"/>
     </row>
     <row r="855">
-      <c r="A855" s="7"/>
-      <c r="D855" s="8"/>
-      <c r="E855" s="8"/>
+      <c r="A855" s="6"/>
+      <c r="D855" s="7"/>
+      <c r="E855" s="7"/>
     </row>
     <row r="856">
-      <c r="A856" s="7"/>
-      <c r="D856" s="8"/>
-      <c r="E856" s="8"/>
+      <c r="A856" s="6"/>
+      <c r="D856" s="7"/>
+      <c r="E856" s="7"/>
     </row>
     <row r="857">
-      <c r="A857" s="7"/>
-      <c r="D857" s="8"/>
-      <c r="E857" s="8"/>
+      <c r="A857" s="6"/>
+      <c r="D857" s="7"/>
+      <c r="E857" s="7"/>
     </row>
     <row r="858">
-      <c r="A858" s="7"/>
-      <c r="D858" s="8"/>
-      <c r="E858" s="8"/>
+      <c r="A858" s="6"/>
+      <c r="D858" s="7"/>
+      <c r="E858" s="7"/>
     </row>
     <row r="859">
-      <c r="A859" s="7"/>
-      <c r="D859" s="8"/>
-      <c r="E859" s="8"/>
+      <c r="A859" s="6"/>
+      <c r="D859" s="7"/>
+      <c r="E859" s="7"/>
     </row>
     <row r="860">
-      <c r="A860" s="7"/>
-      <c r="D860" s="8"/>
-      <c r="E860" s="8"/>
+      <c r="A860" s="6"/>
+      <c r="D860" s="7"/>
+      <c r="E860" s="7"/>
     </row>
     <row r="861">
-      <c r="A861" s="7"/>
-      <c r="D861" s="8"/>
-      <c r="E861" s="8"/>
+      <c r="A861" s="6"/>
+      <c r="D861" s="7"/>
+      <c r="E861" s="7"/>
     </row>
     <row r="862">
-      <c r="A862" s="7"/>
-      <c r="D862" s="8"/>
-      <c r="E862" s="8"/>
+      <c r="A862" s="6"/>
+      <c r="D862" s="7"/>
+      <c r="E862" s="7"/>
     </row>
     <row r="863">
-      <c r="A863" s="7"/>
-      <c r="D863" s="8"/>
-      <c r="E863" s="8"/>
+      <c r="A863" s="6"/>
+      <c r="D863" s="7"/>
+      <c r="E863" s="7"/>
     </row>
     <row r="864">
-      <c r="A864" s="7"/>
-      <c r="D864" s="8"/>
-      <c r="E864" s="8"/>
+      <c r="A864" s="6"/>
+      <c r="D864" s="7"/>
+      <c r="E864" s="7"/>
     </row>
     <row r="865">
-      <c r="A865" s="7"/>
-      <c r="D865" s="8"/>
-      <c r="E865" s="8"/>
+      <c r="A865" s="6"/>
+      <c r="D865" s="7"/>
+      <c r="E865" s="7"/>
     </row>
     <row r="866">
-      <c r="A866" s="7"/>
-      <c r="D866" s="8"/>
-      <c r="E866" s="8"/>
+      <c r="A866" s="6"/>
+      <c r="D866" s="7"/>
+      <c r="E866" s="7"/>
     </row>
     <row r="867">
-      <c r="A867" s="7"/>
-      <c r="D867" s="8"/>
-      <c r="E867" s="8"/>
+      <c r="A867" s="6"/>
+      <c r="D867" s="7"/>
+      <c r="E867" s="7"/>
     </row>
     <row r="868">
-      <c r="A868" s="7"/>
-      <c r="D868" s="8"/>
-      <c r="E868" s="8"/>
+      <c r="A868" s="6"/>
+      <c r="D868" s="7"/>
+      <c r="E868" s="7"/>
     </row>
     <row r="869">
-      <c r="A869" s="7"/>
-      <c r="D869" s="8"/>
-      <c r="E869" s="8"/>
+      <c r="A869" s="6"/>
+      <c r="D869" s="7"/>
+      <c r="E869" s="7"/>
     </row>
     <row r="870">
-      <c r="A870" s="7"/>
-      <c r="D870" s="8"/>
-      <c r="E870" s="8"/>
+      <c r="A870" s="6"/>
+      <c r="D870" s="7"/>
+      <c r="E870" s="7"/>
     </row>
     <row r="871">
-      <c r="A871" s="7"/>
-      <c r="D871" s="8"/>
-      <c r="E871" s="8"/>
+      <c r="A871" s="6"/>
+      <c r="D871" s="7"/>
+      <c r="E871" s="7"/>
     </row>
     <row r="872">
-      <c r="A872" s="7"/>
-      <c r="D872" s="8"/>
-      <c r="E872" s="8"/>
+      <c r="A872" s="6"/>
+      <c r="D872" s="7"/>
+      <c r="E872" s="7"/>
     </row>
     <row r="873">
-      <c r="A873" s="7"/>
-      <c r="D873" s="8"/>
-      <c r="E873" s="8"/>
+      <c r="A873" s="6"/>
+      <c r="D873" s="7"/>
+      <c r="E873" s="7"/>
     </row>
     <row r="874">
-      <c r="A874" s="7"/>
-      <c r="D874" s="8"/>
-      <c r="E874" s="8"/>
+      <c r="A874" s="6"/>
+      <c r="D874" s="7"/>
+      <c r="E874" s="7"/>
     </row>
     <row r="875">
-      <c r="A875" s="7"/>
-      <c r="D875" s="8"/>
-      <c r="E875" s="8"/>
+      <c r="A875" s="6"/>
+      <c r="D875" s="7"/>
+      <c r="E875" s="7"/>
     </row>
     <row r="876">
-      <c r="A876" s="7"/>
-      <c r="D876" s="8"/>
-      <c r="E876" s="8"/>
+      <c r="A876" s="6"/>
+      <c r="D876" s="7"/>
+      <c r="E876" s="7"/>
     </row>
     <row r="877">
-      <c r="A877" s="7"/>
-      <c r="D877" s="8"/>
-      <c r="E877" s="8"/>
+      <c r="A877" s="6"/>
+      <c r="D877" s="7"/>
+      <c r="E877" s="7"/>
     </row>
     <row r="878">
-      <c r="A878" s="7"/>
-      <c r="D878" s="8"/>
-      <c r="E878" s="8"/>
+      <c r="A878" s="6"/>
+      <c r="D878" s="7"/>
+      <c r="E878" s="7"/>
     </row>
     <row r="879">
-      <c r="A879" s="7"/>
-      <c r="D879" s="8"/>
-      <c r="E879" s="8"/>
+      <c r="A879" s="6"/>
+      <c r="D879" s="7"/>
+      <c r="E879" s="7"/>
     </row>
     <row r="880">
-      <c r="A880" s="7"/>
-      <c r="D880" s="8"/>
-      <c r="E880" s="8"/>
+      <c r="A880" s="6"/>
+      <c r="D880" s="7"/>
+      <c r="E880" s="7"/>
     </row>
     <row r="881">
-      <c r="A881" s="7"/>
-      <c r="D881" s="8"/>
-      <c r="E881" s="8"/>
+      <c r="A881" s="6"/>
+      <c r="D881" s="7"/>
+      <c r="E881" s="7"/>
     </row>
     <row r="882">
-      <c r="A882" s="7"/>
-      <c r="D882" s="8"/>
-      <c r="E882" s="8"/>
+      <c r="A882" s="6"/>
+      <c r="D882" s="7"/>
+      <c r="E882" s="7"/>
     </row>
     <row r="883">
-      <c r="A883" s="7"/>
-      <c r="D883" s="8"/>
-      <c r="E883" s="8"/>
+      <c r="A883" s="6"/>
+      <c r="D883" s="7"/>
+      <c r="E883" s="7"/>
     </row>
     <row r="884">
-      <c r="A884" s="7"/>
-      <c r="D884" s="8"/>
-      <c r="E884" s="8"/>
+      <c r="A884" s="6"/>
+      <c r="D884" s="7"/>
+      <c r="E884" s="7"/>
     </row>
     <row r="885">
-      <c r="A885" s="7"/>
-      <c r="D885" s="8"/>
-      <c r="E885" s="8"/>
+      <c r="A885" s="6"/>
+      <c r="D885" s="7"/>
+      <c r="E885" s="7"/>
     </row>
     <row r="886">
-      <c r="A886" s="7"/>
-      <c r="D886" s="8"/>
-      <c r="E886" s="8"/>
+      <c r="A886" s="6"/>
+      <c r="D886" s="7"/>
+      <c r="E886" s="7"/>
     </row>
     <row r="887">
-      <c r="A887" s="7"/>
-      <c r="D887" s="8"/>
-      <c r="E887" s="8"/>
+      <c r="A887" s="6"/>
+      <c r="D887" s="7"/>
+      <c r="E887" s="7"/>
     </row>
     <row r="888">
-      <c r="A888" s="7"/>
-      <c r="D888" s="8"/>
-      <c r="E888" s="8"/>
+      <c r="A888" s="6"/>
+      <c r="D888" s="7"/>
+      <c r="E888" s="7"/>
     </row>
     <row r="889">
-      <c r="A889" s="7"/>
-      <c r="D889" s="8"/>
-      <c r="E889" s="8"/>
+      <c r="A889" s="6"/>
+      <c r="D889" s="7"/>
+      <c r="E889" s="7"/>
     </row>
     <row r="890">
-      <c r="A890" s="7"/>
-      <c r="D890" s="8"/>
-      <c r="E890" s="8"/>
+      <c r="A890" s="6"/>
+      <c r="D890" s="7"/>
+      <c r="E890" s="7"/>
     </row>
     <row r="891">
-      <c r="A891" s="7"/>
-      <c r="D891" s="8"/>
-      <c r="E891" s="8"/>
+      <c r="A891" s="6"/>
+      <c r="D891" s="7"/>
+      <c r="E891" s="7"/>
     </row>
     <row r="892">
-      <c r="A892" s="7"/>
-      <c r="D892" s="8"/>
-      <c r="E892" s="8"/>
+      <c r="A892" s="6"/>
+      <c r="D892" s="7"/>
+      <c r="E892" s="7"/>
     </row>
     <row r="893">
-      <c r="A893" s="7"/>
-      <c r="D893" s="8"/>
-      <c r="E893" s="8"/>
+      <c r="A893" s="6"/>
+      <c r="D893" s="7"/>
+      <c r="E893" s="7"/>
     </row>
     <row r="894">
-      <c r="A894" s="7"/>
-      <c r="D894" s="8"/>
-      <c r="E894" s="8"/>
+      <c r="A894" s="6"/>
+      <c r="D894" s="7"/>
+      <c r="E894" s="7"/>
     </row>
     <row r="895">
-      <c r="A895" s="7"/>
-      <c r="D895" s="8"/>
-      <c r="E895" s="8"/>
+      <c r="A895" s="6"/>
+      <c r="D895" s="7"/>
+      <c r="E895" s="7"/>
     </row>
     <row r="896">
-      <c r="A896" s="7"/>
-      <c r="D896" s="8"/>
-      <c r="E896" s="8"/>
+      <c r="A896" s="6"/>
+      <c r="D896" s="7"/>
+      <c r="E896" s="7"/>
     </row>
     <row r="897">
-      <c r="A897" s="7"/>
-      <c r="D897" s="8"/>
-      <c r="E897" s="8"/>
+      <c r="A897" s="6"/>
+      <c r="D897" s="7"/>
+      <c r="E897" s="7"/>
     </row>
     <row r="898">
-      <c r="A898" s="7"/>
-      <c r="D898" s="8"/>
-      <c r="E898" s="8"/>
+      <c r="A898" s="6"/>
+      <c r="D898" s="7"/>
+      <c r="E898" s="7"/>
     </row>
     <row r="899">
-      <c r="A899" s="7"/>
-      <c r="D899" s="8"/>
-      <c r="E899" s="8"/>
+      <c r="A899" s="6"/>
+      <c r="D899" s="7"/>
+      <c r="E899" s="7"/>
     </row>
     <row r="900">
-      <c r="A900" s="7"/>
-      <c r="D900" s="8"/>
-      <c r="E900" s="8"/>
+      <c r="A900" s="6"/>
+      <c r="D900" s="7"/>
+      <c r="E900" s="7"/>
     </row>
     <row r="901">
-      <c r="A901" s="7"/>
-      <c r="D901" s="8"/>
-      <c r="E901" s="8"/>
+      <c r="A901" s="6"/>
+      <c r="D901" s="7"/>
+      <c r="E901" s="7"/>
     </row>
     <row r="902">
-      <c r="A902" s="7"/>
-      <c r="D902" s="8"/>
-      <c r="E902" s="8"/>
+      <c r="A902" s="6"/>
+      <c r="D902" s="7"/>
+      <c r="E902" s="7"/>
     </row>
     <row r="903">
-      <c r="A903" s="7"/>
-      <c r="D903" s="8"/>
-      <c r="E903" s="8"/>
+      <c r="A903" s="6"/>
+      <c r="D903" s="7"/>
+      <c r="E903" s="7"/>
     </row>
     <row r="904">
-      <c r="A904" s="7"/>
-      <c r="D904" s="8"/>
-      <c r="E904" s="8"/>
+      <c r="A904" s="6"/>
+      <c r="D904" s="7"/>
+      <c r="E904" s="7"/>
     </row>
     <row r="905">
-      <c r="A905" s="7"/>
-      <c r="D905" s="8"/>
-      <c r="E905" s="8"/>
+      <c r="A905" s="6"/>
+      <c r="D905" s="7"/>
+      <c r="E905" s="7"/>
     </row>
     <row r="906">
-      <c r="A906" s="7"/>
-      <c r="D906" s="8"/>
-      <c r="E906" s="8"/>
+      <c r="A906" s="6"/>
+      <c r="D906" s="7"/>
+      <c r="E906" s="7"/>
     </row>
     <row r="907">
-      <c r="A907" s="7"/>
-      <c r="D907" s="8"/>
-      <c r="E907" s="8"/>
+      <c r="A907" s="6"/>
+      <c r="D907" s="7"/>
+      <c r="E907" s="7"/>
     </row>
     <row r="908">
-      <c r="A908" s="7"/>
-      <c r="D908" s="8"/>
-      <c r="E908" s="8"/>
+      <c r="A908" s="6"/>
+      <c r="D908" s="7"/>
+      <c r="E908" s="7"/>
     </row>
     <row r="909">
-      <c r="A909" s="7"/>
-      <c r="D909" s="8"/>
-      <c r="E909" s="8"/>
+      <c r="A909" s="6"/>
+      <c r="D909" s="7"/>
+      <c r="E909" s="7"/>
     </row>
     <row r="910">
-      <c r="A910" s="7"/>
-      <c r="D910" s="8"/>
-      <c r="E910" s="8"/>
+      <c r="A910" s="6"/>
+      <c r="D910" s="7"/>
+      <c r="E910" s="7"/>
     </row>
     <row r="911">
-      <c r="A911" s="7"/>
-      <c r="D911" s="8"/>
-      <c r="E911" s="8"/>
+      <c r="A911" s="6"/>
+      <c r="D911" s="7"/>
+      <c r="E911" s="7"/>
     </row>
     <row r="912">
-      <c r="A912" s="7"/>
-      <c r="D912" s="8"/>
-      <c r="E912" s="8"/>
+      <c r="A912" s="6"/>
+      <c r="D912" s="7"/>
+      <c r="E912" s="7"/>
     </row>
     <row r="913">
-      <c r="A913" s="7"/>
-      <c r="D913" s="8"/>
-      <c r="E913" s="8"/>
+      <c r="A913" s="6"/>
+      <c r="D913" s="7"/>
+      <c r="E913" s="7"/>
     </row>
     <row r="914">
-      <c r="A914" s="7"/>
-      <c r="D914" s="8"/>
-      <c r="E914" s="8"/>
+      <c r="A914" s="6"/>
+      <c r="D914" s="7"/>
+      <c r="E914" s="7"/>
     </row>
     <row r="915">
-      <c r="A915" s="7"/>
-      <c r="D915" s="8"/>
-      <c r="E915" s="8"/>
+      <c r="A915" s="6"/>
+      <c r="D915" s="7"/>
+      <c r="E915" s="7"/>
     </row>
     <row r="916">
-      <c r="A916" s="7"/>
-      <c r="D916" s="8"/>
-      <c r="E916" s="8"/>
+      <c r="A916" s="6"/>
+      <c r="D916" s="7"/>
+      <c r="E916" s="7"/>
     </row>
     <row r="917">
-      <c r="A917" s="7"/>
-      <c r="D917" s="8"/>
-      <c r="E917" s="8"/>
+      <c r="A917" s="6"/>
+      <c r="D917" s="7"/>
+      <c r="E917" s="7"/>
     </row>
     <row r="918">
-      <c r="A918" s="7"/>
-      <c r="D918" s="8"/>
-      <c r="E918" s="8"/>
+      <c r="A918" s="6"/>
+      <c r="D918" s="7"/>
+      <c r="E918" s="7"/>
     </row>
     <row r="919">
-      <c r="A919" s="7"/>
-      <c r="D919" s="8"/>
-      <c r="E919" s="8"/>
+      <c r="A919" s="6"/>
+      <c r="D919" s="7"/>
+      <c r="E919" s="7"/>
     </row>
     <row r="920">
-      <c r="A920" s="7"/>
-      <c r="D920" s="8"/>
-      <c r="E920" s="8"/>
+      <c r="A920" s="6"/>
+      <c r="D920" s="7"/>
+      <c r="E920" s="7"/>
     </row>
     <row r="921">
-      <c r="A921" s="7"/>
-      <c r="D921" s="8"/>
-      <c r="E921" s="8"/>
+      <c r="A921" s="6"/>
+      <c r="D921" s="7"/>
+      <c r="E921" s="7"/>
     </row>
     <row r="922">
-      <c r="A922" s="7"/>
-      <c r="D922" s="8"/>
-      <c r="E922" s="8"/>
+      <c r="A922" s="6"/>
+      <c r="D922" s="7"/>
+      <c r="E922" s="7"/>
     </row>
     <row r="923">
-      <c r="A923" s="7"/>
-      <c r="D923" s="8"/>
-      <c r="E923" s="8"/>
+      <c r="A923" s="6"/>
+      <c r="D923" s="7"/>
+      <c r="E923" s="7"/>
     </row>
     <row r="924">
-      <c r="A924" s="7"/>
-      <c r="D924" s="8"/>
-      <c r="E924" s="8"/>
+      <c r="A924" s="6"/>
+      <c r="D924" s="7"/>
+      <c r="E924" s="7"/>
     </row>
     <row r="925">
-      <c r="A925" s="7"/>
-      <c r="D925" s="8"/>
-      <c r="E925" s="8"/>
+      <c r="A925" s="6"/>
+      <c r="D925" s="7"/>
+      <c r="E925" s="7"/>
     </row>
     <row r="926">
-      <c r="A926" s="7"/>
-      <c r="D926" s="8"/>
-      <c r="E926" s="8"/>
+      <c r="A926" s="6"/>
+      <c r="D926" s="7"/>
+      <c r="E926" s="7"/>
     </row>
     <row r="927">
-      <c r="A927" s="7"/>
-      <c r="D927" s="8"/>
-      <c r="E927" s="8"/>
+      <c r="A927" s="6"/>
+      <c r="D927" s="7"/>
+      <c r="E927" s="7"/>
     </row>
     <row r="928">
-      <c r="A928" s="7"/>
-      <c r="D928" s="8"/>
-      <c r="E928" s="8"/>
+      <c r="A928" s="6"/>
+      <c r="D928" s="7"/>
+      <c r="E928" s="7"/>
     </row>
     <row r="929">
-      <c r="A929" s="7"/>
-      <c r="D929" s="8"/>
-      <c r="E929" s="8"/>
+      <c r="A929" s="6"/>
+      <c r="D929" s="7"/>
+      <c r="E929" s="7"/>
     </row>
     <row r="930">
-      <c r="A930" s="7"/>
-      <c r="D930" s="8"/>
-      <c r="E930" s="8"/>
+      <c r="A930" s="6"/>
+      <c r="D930" s="7"/>
+      <c r="E930" s="7"/>
     </row>
     <row r="931">
-      <c r="A931" s="7"/>
-      <c r="D931" s="8"/>
-      <c r="E931" s="8"/>
+      <c r="A931" s="6"/>
+      <c r="D931" s="7"/>
+      <c r="E931" s="7"/>
     </row>
     <row r="932">
-      <c r="A932" s="7"/>
-      <c r="D932" s="8"/>
-      <c r="E932" s="8"/>
+      <c r="A932" s="6"/>
+      <c r="D932" s="7"/>
+      <c r="E932" s="7"/>
     </row>
     <row r="933">
-      <c r="A933" s="7"/>
-      <c r="D933" s="8"/>
-      <c r="E933" s="8"/>
+      <c r="A933" s="6"/>
+      <c r="D933" s="7"/>
+      <c r="E933" s="7"/>
     </row>
     <row r="934">
-      <c r="A934" s="7"/>
-      <c r="D934" s="8"/>
-      <c r="E934" s="8"/>
+      <c r="A934" s="6"/>
+      <c r="D934" s="7"/>
+      <c r="E934" s="7"/>
     </row>
     <row r="935">
-      <c r="A935" s="7"/>
-      <c r="D935" s="8"/>
-      <c r="E935" s="8"/>
+      <c r="A935" s="6"/>
+      <c r="D935" s="7"/>
+      <c r="E935" s="7"/>
     </row>
     <row r="936">
-      <c r="A936" s="7"/>
-      <c r="D936" s="8"/>
-      <c r="E936" s="8"/>
+      <c r="A936" s="6"/>
+      <c r="D936" s="7"/>
+      <c r="E936" s="7"/>
     </row>
     <row r="937">
-      <c r="A937" s="7"/>
-      <c r="D937" s="8"/>
-      <c r="E937" s="8"/>
+      <c r="A937" s="6"/>
+      <c r="D937" s="7"/>
+      <c r="E937" s="7"/>
     </row>
     <row r="938">
-      <c r="A938" s="7"/>
-      <c r="D938" s="8"/>
-      <c r="E938" s="8"/>
+      <c r="A938" s="6"/>
+      <c r="D938" s="7"/>
+      <c r="E938" s="7"/>
     </row>
     <row r="939">
-      <c r="A939" s="7"/>
-      <c r="D939" s="8"/>
-      <c r="E939" s="8"/>
+      <c r="A939" s="6"/>
+      <c r="D939" s="7"/>
+      <c r="E939" s="7"/>
     </row>
     <row r="940">
-      <c r="A940" s="7"/>
-      <c r="D940" s="8"/>
-      <c r="E940" s="8"/>
+      <c r="A940" s="6"/>
+      <c r="D940" s="7"/>
+      <c r="E940" s="7"/>
     </row>
     <row r="941">
-      <c r="A941" s="7"/>
-      <c r="D941" s="8"/>
-      <c r="E941" s="8"/>
+      <c r="A941" s="6"/>
+      <c r="D941" s="7"/>
+      <c r="E941" s="7"/>
     </row>
     <row r="942">
-      <c r="A942" s="7"/>
-      <c r="D942" s="8"/>
-      <c r="E942" s="8"/>
+      <c r="A942" s="6"/>
+      <c r="D942" s="7"/>
+      <c r="E942" s="7"/>
     </row>
     <row r="943">
-      <c r="A943" s="7"/>
-      <c r="D943" s="8"/>
-      <c r="E943" s="8"/>
+      <c r="A943" s="6"/>
+      <c r="D943" s="7"/>
+      <c r="E943" s="7"/>
     </row>
     <row r="944">
-      <c r="A944" s="7"/>
-      <c r="D944" s="8"/>
-      <c r="E944" s="8"/>
+      <c r="A944" s="6"/>
+      <c r="D944" s="7"/>
+      <c r="E944" s="7"/>
     </row>
     <row r="945">
-      <c r="A945" s="7"/>
-      <c r="D945" s="8"/>
-      <c r="E945" s="8"/>
+      <c r="A945" s="6"/>
+      <c r="D945" s="7"/>
+      <c r="E945" s="7"/>
     </row>
     <row r="946">
-      <c r="A946" s="7"/>
-      <c r="D946" s="8"/>
-      <c r="E946" s="8"/>
+      <c r="A946" s="6"/>
+      <c r="D946" s="7"/>
+      <c r="E946" s="7"/>
     </row>
     <row r="947">
-      <c r="A947" s="7"/>
-      <c r="D947" s="8"/>
-      <c r="E947" s="8"/>
+      <c r="A947" s="6"/>
+      <c r="D947" s="7"/>
+      <c r="E947" s="7"/>
     </row>
     <row r="948">
-      <c r="A948" s="7"/>
-      <c r="D948" s="8"/>
-      <c r="E948" s="8"/>
+      <c r="A948" s="6"/>
+      <c r="D948" s="7"/>
+      <c r="E948" s="7"/>
     </row>
     <row r="949">
-      <c r="A949" s="7"/>
-      <c r="D949" s="8"/>
-      <c r="E949" s="8"/>
+      <c r="A949" s="6"/>
+      <c r="D949" s="7"/>
+      <c r="E949" s="7"/>
     </row>
     <row r="950">
-      <c r="A950" s="7"/>
-      <c r="D950" s="8"/>
-      <c r="E950" s="8"/>
+      <c r="A950" s="6"/>
+      <c r="D950" s="7"/>
+      <c r="E950" s="7"/>
     </row>
     <row r="951">
-      <c r="A951" s="7"/>
-      <c r="D951" s="8"/>
-      <c r="E951" s="8"/>
+      <c r="A951" s="6"/>
+      <c r="D951" s="7"/>
+      <c r="E951" s="7"/>
     </row>
     <row r="952">
-      <c r="A952" s="7"/>
-      <c r="D952" s="8"/>
-      <c r="E952" s="8"/>
+      <c r="A952" s="6"/>
+      <c r="D952" s="7"/>
+      <c r="E952" s="7"/>
     </row>
     <row r="953">
-      <c r="A953" s="7"/>
-      <c r="D953" s="8"/>
-      <c r="E953" s="8"/>
+      <c r="A953" s="6"/>
+      <c r="D953" s="7"/>
+      <c r="E953" s="7"/>
     </row>
     <row r="954">
-      <c r="A954" s="7"/>
-      <c r="D954" s="8"/>
-      <c r="E954" s="8"/>
+      <c r="A954" s="6"/>
+      <c r="D954" s="7"/>
+      <c r="E954" s="7"/>
     </row>
     <row r="955">
-      <c r="A955" s="7"/>
-      <c r="D955" s="8"/>
-      <c r="E955" s="8"/>
+      <c r="A955" s="6"/>
+      <c r="D955" s="7"/>
+      <c r="E955" s="7"/>
     </row>
     <row r="956">
-      <c r="A956" s="7"/>
-      <c r="D956" s="8"/>
-      <c r="E956" s="8"/>
+      <c r="A956" s="6"/>
+      <c r="D956" s="7"/>
+      <c r="E956" s="7"/>
     </row>
     <row r="957">
-      <c r="A957" s="7"/>
-      <c r="D957" s="8"/>
-      <c r="E957" s="8"/>
+      <c r="A957" s="6"/>
+      <c r="D957" s="7"/>
+      <c r="E957" s="7"/>
     </row>
     <row r="958">
-      <c r="A958" s="7"/>
-      <c r="D958" s="8"/>
-      <c r="E958" s="8"/>
+      <c r="A958" s="6"/>
+      <c r="D958" s="7"/>
+      <c r="E958" s="7"/>
     </row>
     <row r="959">
-      <c r="A959" s="7"/>
-      <c r="D959" s="8"/>
-      <c r="E959" s="8"/>
+      <c r="A959" s="6"/>
+      <c r="D959" s="7"/>
+      <c r="E959" s="7"/>
     </row>
     <row r="960">
-      <c r="A960" s="7"/>
-      <c r="D960" s="8"/>
-      <c r="E960" s="8"/>
+      <c r="A960" s="6"/>
+      <c r="D960" s="7"/>
+      <c r="E960" s="7"/>
     </row>
     <row r="961">
-      <c r="A961" s="7"/>
-      <c r="D961" s="8"/>
-      <c r="E961" s="8"/>
+      <c r="A961" s="6"/>
+      <c r="D961" s="7"/>
+      <c r="E961" s="7"/>
     </row>
     <row r="962">
-      <c r="A962" s="7"/>
-      <c r="D962" s="8"/>
-      <c r="E962" s="8"/>
+      <c r="A962" s="6"/>
+      <c r="D962" s="7"/>
+      <c r="E962" s="7"/>
     </row>
     <row r="963">
-      <c r="A963" s="7"/>
-      <c r="D963" s="8"/>
-      <c r="E963" s="8"/>
+      <c r="A963" s="6"/>
+      <c r="D963" s="7"/>
+      <c r="E963" s="7"/>
     </row>
     <row r="964">
-      <c r="A964" s="7"/>
-      <c r="D964" s="8"/>
-      <c r="E964" s="8"/>
+      <c r="A964" s="6"/>
+      <c r="D964" s="7"/>
+      <c r="E964" s="7"/>
     </row>
     <row r="965">
-      <c r="A965" s="7"/>
-      <c r="D965" s="8"/>
-      <c r="E965" s="8"/>
+      <c r="A965" s="6"/>
+      <c r="D965" s="7"/>
+      <c r="E965" s="7"/>
     </row>
     <row r="966">
-      <c r="A966" s="7"/>
-      <c r="D966" s="8"/>
-      <c r="E966" s="8"/>
+      <c r="A966" s="6"/>
+      <c r="D966" s="7"/>
+      <c r="E966" s="7"/>
     </row>
     <row r="967">
-      <c r="A967" s="7"/>
-      <c r="D967" s="8"/>
-      <c r="E967" s="8"/>
+      <c r="A967" s="6"/>
+      <c r="D967" s="7"/>
+      <c r="E967" s="7"/>
     </row>
     <row r="968">
-      <c r="A968" s="7"/>
-      <c r="D968" s="8"/>
-      <c r="E968" s="8"/>
+      <c r="A968" s="6"/>
+      <c r="D968" s="7"/>
+      <c r="E968" s="7"/>
     </row>
     <row r="969">
-      <c r="A969" s="7"/>
-      <c r="D969" s="8"/>
-      <c r="E969" s="8"/>
+      <c r="A969" s="6"/>
+      <c r="D969" s="7"/>
+      <c r="E969" s="7"/>
     </row>
     <row r="970">
-      <c r="A970" s="7"/>
-      <c r="D970" s="8"/>
-      <c r="E970" s="8"/>
+      <c r="A970" s="6"/>
+      <c r="D970" s="7"/>
+      <c r="E970" s="7"/>
     </row>
     <row r="971">
-      <c r="A971" s="7"/>
-      <c r="D971" s="8"/>
-      <c r="E971" s="8"/>
+      <c r="A971" s="6"/>
+      <c r="D971" s="7"/>
+      <c r="E971" s="7"/>
     </row>
     <row r="972">
-      <c r="A972" s="7"/>
-      <c r="D972" s="8"/>
-      <c r="E972" s="8"/>
+      <c r="A972" s="6"/>
+      <c r="D972" s="7"/>
+      <c r="E972" s="7"/>
     </row>
     <row r="973">
-      <c r="A973" s="7"/>
-      <c r="D973" s="8"/>
-      <c r="E973" s="8"/>
+      <c r="A973" s="6"/>
+      <c r="D973" s="7"/>
+      <c r="E973" s="7"/>
     </row>
     <row r="974">
-      <c r="A974" s="7"/>
-      <c r="D974" s="8"/>
-      <c r="E974" s="8"/>
+      <c r="A974" s="6"/>
+      <c r="D974" s="7"/>
+      <c r="E974" s="7"/>
     </row>
     <row r="975">
-      <c r="A975" s="7"/>
-      <c r="D975" s="8"/>
-      <c r="E975" s="8"/>
+      <c r="A975" s="6"/>
+      <c r="D975" s="7"/>
+      <c r="E975" s="7"/>
     </row>
     <row r="976">
-      <c r="A976" s="7"/>
-      <c r="D976" s="8"/>
-      <c r="E976" s="8"/>
+      <c r="A976" s="6"/>
+      <c r="D976" s="7"/>
+      <c r="E976" s="7"/>
     </row>
     <row r="977">
-      <c r="A977" s="7"/>
-      <c r="D977" s="8"/>
-      <c r="E977" s="8"/>
+      <c r="A977" s="6"/>
+      <c r="D977" s="7"/>
+      <c r="E977" s="7"/>
     </row>
     <row r="978">
-      <c r="A978" s="7"/>
-      <c r="D978" s="8"/>
-      <c r="E978" s="8"/>
+      <c r="A978" s="6"/>
+      <c r="D978" s="7"/>
+      <c r="E978" s="7"/>
     </row>
     <row r="979">
-      <c r="A979" s="7"/>
-      <c r="D979" s="8"/>
-      <c r="E979" s="8"/>
+      <c r="A979" s="6"/>
+      <c r="D979" s="7"/>
+      <c r="E979" s="7"/>
     </row>
     <row r="980">
-      <c r="A980" s="7"/>
-      <c r="D980" s="8"/>
-      <c r="E980" s="8"/>
+      <c r="A980" s="6"/>
+      <c r="D980" s="7"/>
+      <c r="E980" s="7"/>
     </row>
     <row r="981">
-      <c r="A981" s="7"/>
-      <c r="D981" s="8"/>
-      <c r="E981" s="8"/>
+      <c r="A981" s="6"/>
+      <c r="D981" s="7"/>
+      <c r="E981" s="7"/>
     </row>
     <row r="982">
-      <c r="A982" s="7"/>
-      <c r="D982" s="8"/>
-      <c r="E982" s="8"/>
+      <c r="A982" s="6"/>
+      <c r="D982" s="7"/>
+      <c r="E982" s="7"/>
     </row>
     <row r="983">
-      <c r="A983" s="7"/>
-      <c r="D983" s="8"/>
-      <c r="E983" s="8"/>
+      <c r="A983" s="6"/>
+      <c r="D983" s="7"/>
+      <c r="E983" s="7"/>
     </row>
     <row r="984">
-      <c r="A984" s="7"/>
-      <c r="D984" s="8"/>
-      <c r="E984" s="8"/>
+      <c r="A984" s="6"/>
+      <c r="D984" s="7"/>
+      <c r="E984" s="7"/>
     </row>
     <row r="985">
-      <c r="A985" s="7"/>
-      <c r="D985" s="8"/>
-      <c r="E985" s="8"/>
+      <c r="A985" s="6"/>
+      <c r="D985" s="7"/>
+      <c r="E985" s="7"/>
     </row>
     <row r="986">
-      <c r="A986" s="7"/>
-      <c r="D986" s="8"/>
-      <c r="E986" s="8"/>
+      <c r="A986" s="6"/>
+      <c r="D986" s="7"/>
+      <c r="E986" s="7"/>
     </row>
     <row r="987">
-      <c r="A987" s="7"/>
-      <c r="D987" s="8"/>
-      <c r="E987" s="8"/>
+      <c r="A987" s="6"/>
+      <c r="D987" s="7"/>
+      <c r="E987" s="7"/>
     </row>
     <row r="988">
-      <c r="A988" s="7"/>
-      <c r="D988" s="8"/>
-      <c r="E988" s="8"/>
+      <c r="A988" s="6"/>
+      <c r="D988" s="7"/>
+      <c r="E988" s="7"/>
     </row>
     <row r="989">
-      <c r="A989" s="7"/>
-      <c r="D989" s="8"/>
-      <c r="E989" s="8"/>
+      <c r="A989" s="6"/>
+      <c r="D989" s="7"/>
+      <c r="E989" s="7"/>
     </row>
     <row r="990">
-      <c r="A990" s="7"/>
-      <c r="D990" s="8"/>
-      <c r="E990" s="8"/>
+      <c r="A990" s="6"/>
+      <c r="D990" s="7"/>
+      <c r="E990" s="7"/>
     </row>
     <row r="991">
-      <c r="A991" s="7"/>
-      <c r="D991" s="8"/>
-      <c r="E991" s="8"/>
+      <c r="A991" s="6"/>
+      <c r="D991" s="7"/>
+      <c r="E991" s="7"/>
     </row>
     <row r="992">
-      <c r="A992" s="7"/>
-      <c r="D992" s="8"/>
-      <c r="E992" s="8"/>
+      <c r="A992" s="6"/>
+      <c r="D992" s="7"/>
+      <c r="E992" s="7"/>
     </row>
     <row r="993">
-      <c r="A993" s="7"/>
-      <c r="D993" s="8"/>
-      <c r="E993" s="8"/>
+      <c r="A993" s="6"/>
+      <c r="D993" s="7"/>
+      <c r="E993" s="7"/>
     </row>
     <row r="994">
-      <c r="A994" s="7"/>
-      <c r="D994" s="8"/>
-      <c r="E994" s="8"/>
+      <c r="A994" s="6"/>
+      <c r="D994" s="7"/>
+      <c r="E994" s="7"/>
     </row>
     <row r="995">
-      <c r="A995" s="7"/>
-      <c r="D995" s="8"/>
-      <c r="E995" s="8"/>
+      <c r="A995" s="6"/>
+      <c r="D995" s="7"/>
+      <c r="E995" s="7"/>
     </row>
     <row r="996">
-      <c r="A996" s="7"/>
-      <c r="D996" s="8"/>
-      <c r="E996" s="8"/>
+      <c r="A996" s="6"/>
+      <c r="D996" s="7"/>
+      <c r="E996" s="7"/>
     </row>
     <row r="997">
-      <c r="A997" s="7"/>
-      <c r="D997" s="8"/>
-      <c r="E997" s="8"/>
+      <c r="A997" s="6"/>
+      <c r="D997" s="7"/>
+      <c r="E997" s="7"/>
     </row>
     <row r="998">
-      <c r="A998" s="7"/>
-      <c r="D998" s="8"/>
-      <c r="E998" s="8"/>
+      <c r="A998" s="6"/>
+      <c r="D998" s="7"/>
+      <c r="E998" s="7"/>
     </row>
     <row r="999">
-      <c r="A999" s="7"/>
-      <c r="D999" s="8"/>
-      <c r="E999" s="8"/>
+      <c r="A999" s="6"/>
+      <c r="D999" s="7"/>
+      <c r="E999" s="7"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="7"/>
-      <c r="D1000" s="8"/>
-      <c r="E1000" s="8"/>
+      <c r="A1000" s="6"/>
+      <c r="D1000" s="7"/>
+      <c r="E1000" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
